--- a/res_averages.xlsx
+++ b/res_averages.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="28020" yWindow="-3220" windowWidth="31000" windowHeight="14440" tabRatio="500"/>
+    <workbookView xWindow="25600" yWindow="-5600" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Pacman Test" sheetId="1" r:id="rId1"/>
+    <sheet name="Infection Test" sheetId="2" r:id="rId2"/>
+    <sheet name="Butterflies Test" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="7">
   <si>
     <t>Result</t>
   </si>
@@ -96,8 +98,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -105,9 +125,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -439,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101:I101"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4013,4 +4051,6710 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="11" max="11" width="18.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1">
+        <v>1000</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>-2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2">
+        <v>1000</v>
+      </c>
+      <c r="K2">
+        <f>AVERAGE($G$1:G2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>-48</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>1000</v>
+      </c>
+      <c r="K3">
+        <f>AVERAGE($G$1:G3)</f>
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>-139</v>
+      </c>
+      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>1000</v>
+      </c>
+      <c r="K4">
+        <f>AVERAGE($G$1:G4)</f>
+        <v>-46.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>1000</v>
+      </c>
+      <c r="K5">
+        <f>AVERAGE($G$1:G5)</f>
+        <v>-37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>1000</v>
+      </c>
+      <c r="K6">
+        <f>AVERAGE($G$1:G6)</f>
+        <v>-30.833333333333332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>1000</v>
+      </c>
+      <c r="K7">
+        <f>AVERAGE($G$1:G7)</f>
+        <v>-26.285714285714285</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>-341</v>
+      </c>
+      <c r="H8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>1000</v>
+      </c>
+      <c r="K8">
+        <f>AVERAGE($G$1:G8)</f>
+        <v>-65.625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <v>1000</v>
+      </c>
+      <c r="K9">
+        <f>AVERAGE($G$1:G9)</f>
+        <v>-58.111111111111114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>-190</v>
+      </c>
+      <c r="H10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <v>1000</v>
+      </c>
+      <c r="K10">
+        <f>AVERAGE($G$1:G10)</f>
+        <v>-71.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>-2</v>
+      </c>
+      <c r="H11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <v>1000</v>
+      </c>
+      <c r="K11">
+        <f>AVERAGE($G$1:G11)</f>
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>16</v>
+      </c>
+      <c r="H12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12">
+        <v>1000</v>
+      </c>
+      <c r="K12">
+        <f>AVERAGE($G$1:G12)</f>
+        <v>-58.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13">
+        <v>865</v>
+      </c>
+      <c r="K13">
+        <f>AVERAGE($G$1:G13)</f>
+        <v>-53.692307692307693</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <v>1000</v>
+      </c>
+      <c r="K14">
+        <f>AVERAGE($G$1:G14)</f>
+        <v>-49.785714285714285</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>-208</v>
+      </c>
+      <c r="H15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15">
+        <v>1000</v>
+      </c>
+      <c r="K15">
+        <f>AVERAGE($G$1:G15)</f>
+        <v>-60.333333333333336</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16">
+        <v>1000</v>
+      </c>
+      <c r="K16">
+        <f>AVERAGE($G$1:G16)</f>
+        <v>-56.4375</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>-33</v>
+      </c>
+      <c r="H17" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17">
+        <v>1000</v>
+      </c>
+      <c r="K17">
+        <f>AVERAGE($G$1:G17)</f>
+        <v>-55.058823529411768</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>-17</v>
+      </c>
+      <c r="H18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18">
+        <v>1000</v>
+      </c>
+      <c r="K18">
+        <f>AVERAGE($G$1:G18)</f>
+        <v>-52.944444444444443</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>-14</v>
+      </c>
+      <c r="H19" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19">
+        <v>1000</v>
+      </c>
+      <c r="K19">
+        <f>AVERAGE($G$1:G19)</f>
+        <v>-50.89473684210526</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>-36</v>
+      </c>
+      <c r="H20" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20">
+        <v>1000</v>
+      </c>
+      <c r="K20">
+        <f>AVERAGE($G$1:G20)</f>
+        <v>-50.15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21">
+        <v>1000</v>
+      </c>
+      <c r="K21">
+        <f>AVERAGE($G$1:G21)</f>
+        <v>-47.761904761904759</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>-10</v>
+      </c>
+      <c r="H22" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22">
+        <v>1000</v>
+      </c>
+      <c r="K22">
+        <f>AVERAGE($G$1:G22)</f>
+        <v>-46.045454545454547</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <v>-6</v>
+      </c>
+      <c r="H23" t="s">
+        <v>4</v>
+      </c>
+      <c r="I23">
+        <v>1000</v>
+      </c>
+      <c r="K23">
+        <f>AVERAGE($G$1:G23)</f>
+        <v>-44.304347826086953</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24">
+        <v>1000</v>
+      </c>
+      <c r="K24">
+        <f>AVERAGE($G$1:G24)</f>
+        <v>-42.458333333333336</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25">
+        <v>-221</v>
+      </c>
+      <c r="H25" t="s">
+        <v>4</v>
+      </c>
+      <c r="I25">
+        <v>1000</v>
+      </c>
+      <c r="K25">
+        <f>AVERAGE($G$1:G25)</f>
+        <v>-49.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>-1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>4</v>
+      </c>
+      <c r="I26">
+        <v>1000</v>
+      </c>
+      <c r="K26">
+        <f>AVERAGE($G$1:G26)</f>
+        <v>-47.730769230769234</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27">
+        <v>-204</v>
+      </c>
+      <c r="H27" t="s">
+        <v>4</v>
+      </c>
+      <c r="I27">
+        <v>1000</v>
+      </c>
+      <c r="K27">
+        <f>AVERAGE($G$1:G27)</f>
+        <v>-53.518518518518519</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <v>-124</v>
+      </c>
+      <c r="H28" t="s">
+        <v>4</v>
+      </c>
+      <c r="I28">
+        <v>1000</v>
+      </c>
+      <c r="K28">
+        <f>AVERAGE($G$1:G28)</f>
+        <v>-56.035714285714285</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29" t="s">
+        <v>4</v>
+      </c>
+      <c r="I29">
+        <v>1000</v>
+      </c>
+      <c r="K29">
+        <f>AVERAGE($G$1:G29)</f>
+        <v>-54.103448275862071</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30">
+        <v>8</v>
+      </c>
+      <c r="H30" t="s">
+        <v>4</v>
+      </c>
+      <c r="I30">
+        <v>1000</v>
+      </c>
+      <c r="K30">
+        <f>AVERAGE($G$1:G30)</f>
+        <v>-52.033333333333331</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31">
+        <v>-20</v>
+      </c>
+      <c r="H31" t="s">
+        <v>4</v>
+      </c>
+      <c r="I31">
+        <v>1000</v>
+      </c>
+      <c r="K31">
+        <f>AVERAGE($G$1:G31)</f>
+        <v>-51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32">
+        <v>4</v>
+      </c>
+      <c r="H32" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32">
+        <v>1000</v>
+      </c>
+      <c r="K32">
+        <f>AVERAGE($G$1:G32)</f>
+        <v>-49.28125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="H33" t="s">
+        <v>4</v>
+      </c>
+      <c r="I33">
+        <v>1000</v>
+      </c>
+      <c r="K33">
+        <f>AVERAGE($G$1:G33)</f>
+        <v>-47.727272727272727</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34">
+        <v>4</v>
+      </c>
+      <c r="H34" t="s">
+        <v>4</v>
+      </c>
+      <c r="I34">
+        <v>927</v>
+      </c>
+      <c r="K34">
+        <f>AVERAGE($G$1:G34)</f>
+        <v>-46.205882352941174</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35">
+        <v>-27</v>
+      </c>
+      <c r="H35" t="s">
+        <v>4</v>
+      </c>
+      <c r="I35">
+        <v>1000</v>
+      </c>
+      <c r="K35">
+        <f>AVERAGE($G$1:G35)</f>
+        <v>-45.657142857142858</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36">
+        <v>4</v>
+      </c>
+      <c r="H36" t="s">
+        <v>4</v>
+      </c>
+      <c r="I36">
+        <v>1000</v>
+      </c>
+      <c r="K36">
+        <f>AVERAGE($G$1:G36)</f>
+        <v>-44.277777777777779</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37" t="s">
+        <v>3</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="H37" t="s">
+        <v>4</v>
+      </c>
+      <c r="I37">
+        <v>1000</v>
+      </c>
+      <c r="K37">
+        <f>AVERAGE($G$1:G37)</f>
+        <v>-43.027027027027025</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38">
+        <v>-6</v>
+      </c>
+      <c r="H38" t="s">
+        <v>4</v>
+      </c>
+      <c r="I38">
+        <v>1000</v>
+      </c>
+      <c r="K38">
+        <f>AVERAGE($G$1:G38)</f>
+        <v>-42.05263157894737</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39" t="s">
+        <v>3</v>
+      </c>
+      <c r="G39">
+        <v>-86</v>
+      </c>
+      <c r="H39" t="s">
+        <v>4</v>
+      </c>
+      <c r="I39">
+        <v>1000</v>
+      </c>
+      <c r="K39">
+        <f>AVERAGE($G$1:G39)</f>
+        <v>-43.179487179487182</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>3</v>
+      </c>
+      <c r="G40">
+        <v>-7</v>
+      </c>
+      <c r="H40" t="s">
+        <v>4</v>
+      </c>
+      <c r="I40">
+        <v>1000</v>
+      </c>
+      <c r="K40">
+        <f>AVERAGE($G$1:G40)</f>
+        <v>-42.274999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41">
+        <v>4</v>
+      </c>
+      <c r="H41" t="s">
+        <v>4</v>
+      </c>
+      <c r="I41">
+        <v>1000</v>
+      </c>
+      <c r="K41">
+        <f>AVERAGE($G$1:G41)</f>
+        <v>-41.146341463414636</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42">
+        <v>11</v>
+      </c>
+      <c r="H42" t="s">
+        <v>4</v>
+      </c>
+      <c r="I42">
+        <v>769</v>
+      </c>
+      <c r="K42">
+        <f>AVERAGE($G$1:G42)</f>
+        <v>-39.904761904761905</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43">
+        <v>1000</v>
+      </c>
+      <c r="K43">
+        <f>AVERAGE($G$1:G43)</f>
+        <v>-38.97674418604651</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44">
+        <v>-52</v>
+      </c>
+      <c r="H44" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44">
+        <v>1000</v>
+      </c>
+      <c r="K44">
+        <f>AVERAGE($G$1:G44)</f>
+        <v>-39.272727272727273</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G45">
+        <v>10</v>
+      </c>
+      <c r="H45" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45">
+        <v>1000</v>
+      </c>
+      <c r="K45">
+        <f>AVERAGE($G$1:G45)</f>
+        <v>-38.177777777777777</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46" t="s">
+        <v>3</v>
+      </c>
+      <c r="G46">
+        <v>-199</v>
+      </c>
+      <c r="H46" t="s">
+        <v>4</v>
+      </c>
+      <c r="I46">
+        <v>1000</v>
+      </c>
+      <c r="K46">
+        <f>AVERAGE($G$1:G46)</f>
+        <v>-41.673913043478258</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47">
+        <v>710</v>
+      </c>
+      <c r="K47">
+        <f>AVERAGE($G$1:G47)</f>
+        <v>-40.765957446808514</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48">
+        <v>-1</v>
+      </c>
+      <c r="H48" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48">
+        <v>1000</v>
+      </c>
+      <c r="K48">
+        <f>AVERAGE($G$1:G48)</f>
+        <v>-39.9375</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49">
+        <v>3</v>
+      </c>
+      <c r="H49" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49">
+        <v>1000</v>
+      </c>
+      <c r="K49">
+        <f>AVERAGE($G$1:G49)</f>
+        <v>-39.061224489795919</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50" t="s">
+        <v>3</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50" t="s">
+        <v>4</v>
+      </c>
+      <c r="I50">
+        <v>1000</v>
+      </c>
+      <c r="K50">
+        <f>AVERAGE($G$1:G50)</f>
+        <v>-38.28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51" t="s">
+        <v>3</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51" t="s">
+        <v>4</v>
+      </c>
+      <c r="I51">
+        <v>1000</v>
+      </c>
+      <c r="K51">
+        <f>AVERAGE($G$1:G51)</f>
+        <v>-37.529411764705884</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52">
+        <v>2</v>
+      </c>
+      <c r="H52" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52">
+        <v>1000</v>
+      </c>
+      <c r="K52">
+        <f>AVERAGE($G$1:G52)</f>
+        <v>-36.769230769230766</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53" t="s">
+        <v>3</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53" t="s">
+        <v>4</v>
+      </c>
+      <c r="I53">
+        <v>1000</v>
+      </c>
+      <c r="K53">
+        <f>AVERAGE($G$1:G53)</f>
+        <v>-36.075471698113205</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54" t="s">
+        <v>3</v>
+      </c>
+      <c r="G54">
+        <v>14</v>
+      </c>
+      <c r="H54" t="s">
+        <v>4</v>
+      </c>
+      <c r="I54">
+        <v>1000</v>
+      </c>
+      <c r="K54">
+        <f>AVERAGE($G$1:G54)</f>
+        <v>-35.148148148148145</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55" t="s">
+        <v>3</v>
+      </c>
+      <c r="G55">
+        <v>-90</v>
+      </c>
+      <c r="H55" t="s">
+        <v>4</v>
+      </c>
+      <c r="I55">
+        <v>1000</v>
+      </c>
+      <c r="K55">
+        <f>AVERAGE($G$1:G55)</f>
+        <v>-36.145454545454548</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56" t="s">
+        <v>3</v>
+      </c>
+      <c r="G56">
+        <v>2</v>
+      </c>
+      <c r="H56" t="s">
+        <v>4</v>
+      </c>
+      <c r="I56">
+        <v>1000</v>
+      </c>
+      <c r="K56">
+        <f>AVERAGE($G$1:G56)</f>
+        <v>-35.464285714285715</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57" t="s">
+        <v>4</v>
+      </c>
+      <c r="I57">
+        <v>1000</v>
+      </c>
+      <c r="K57">
+        <f>AVERAGE($G$1:G57)</f>
+        <v>-34.842105263157897</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58" t="s">
+        <v>2</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58">
+        <v>1000</v>
+      </c>
+      <c r="K58">
+        <f>AVERAGE($G$1:G58)</f>
+        <v>-34.241379310344826</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s">
+        <v>2</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59" t="s">
+        <v>3</v>
+      </c>
+      <c r="G59">
+        <v>6</v>
+      </c>
+      <c r="H59" t="s">
+        <v>4</v>
+      </c>
+      <c r="I59">
+        <v>756</v>
+      </c>
+      <c r="K59">
+        <f>AVERAGE($G$1:G59)</f>
+        <v>-33.559322033898304</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60" t="s">
+        <v>3</v>
+      </c>
+      <c r="G60">
+        <v>-76</v>
+      </c>
+      <c r="H60" t="s">
+        <v>4</v>
+      </c>
+      <c r="I60">
+        <v>1000</v>
+      </c>
+      <c r="K60">
+        <f>AVERAGE($G$1:G60)</f>
+        <v>-34.266666666666666</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61" t="s">
+        <v>2</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61" t="s">
+        <v>3</v>
+      </c>
+      <c r="G61">
+        <v>-1</v>
+      </c>
+      <c r="H61" t="s">
+        <v>4</v>
+      </c>
+      <c r="I61">
+        <v>1000</v>
+      </c>
+      <c r="K61">
+        <f>AVERAGE($G$1:G61)</f>
+        <v>-33.721311475409834</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1</v>
+      </c>
+      <c r="D62" t="s">
+        <v>2</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62">
+        <v>6</v>
+      </c>
+      <c r="H62" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62">
+        <v>1000</v>
+      </c>
+      <c r="K62">
+        <f>AVERAGE($G$1:G62)</f>
+        <v>-33.08064516129032</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" t="s">
+        <v>2</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63" t="s">
+        <v>3</v>
+      </c>
+      <c r="G63">
+        <v>-5</v>
+      </c>
+      <c r="H63" t="s">
+        <v>4</v>
+      </c>
+      <c r="I63">
+        <v>1000</v>
+      </c>
+      <c r="K63">
+        <f>AVERAGE($G$1:G63)</f>
+        <v>-32.634920634920633</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1</v>
+      </c>
+      <c r="D64" t="s">
+        <v>2</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64" t="s">
+        <v>3</v>
+      </c>
+      <c r="G64">
+        <v>7</v>
+      </c>
+      <c r="H64" t="s">
+        <v>4</v>
+      </c>
+      <c r="I64">
+        <v>1000</v>
+      </c>
+      <c r="K64">
+        <f>AVERAGE($G$1:G64)</f>
+        <v>-32.015625</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1</v>
+      </c>
+      <c r="D65" t="s">
+        <v>2</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65" t="s">
+        <v>3</v>
+      </c>
+      <c r="G65">
+        <v>2</v>
+      </c>
+      <c r="H65" t="s">
+        <v>4</v>
+      </c>
+      <c r="I65">
+        <v>1000</v>
+      </c>
+      <c r="K65">
+        <f>AVERAGE($G$1:G65)</f>
+        <v>-31.492307692307691</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1</v>
+      </c>
+      <c r="D66" t="s">
+        <v>2</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66" t="s">
+        <v>3</v>
+      </c>
+      <c r="G66">
+        <v>6</v>
+      </c>
+      <c r="H66" t="s">
+        <v>4</v>
+      </c>
+      <c r="I66">
+        <v>974</v>
+      </c>
+      <c r="K66">
+        <f>AVERAGE($G$1:G66)</f>
+        <v>-30.924242424242426</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1</v>
+      </c>
+      <c r="D67" t="s">
+        <v>2</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67" t="s">
+        <v>3</v>
+      </c>
+      <c r="G67">
+        <v>4</v>
+      </c>
+      <c r="H67" t="s">
+        <v>4</v>
+      </c>
+      <c r="I67">
+        <v>1000</v>
+      </c>
+      <c r="K67">
+        <f>AVERAGE($G$1:G67)</f>
+        <v>-30.402985074626866</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1</v>
+      </c>
+      <c r="D68" t="s">
+        <v>2</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68" t="s">
+        <v>3</v>
+      </c>
+      <c r="G68">
+        <v>7</v>
+      </c>
+      <c r="H68" t="s">
+        <v>4</v>
+      </c>
+      <c r="I68">
+        <v>1000</v>
+      </c>
+      <c r="K68">
+        <f>AVERAGE($G$1:G68)</f>
+        <v>-29.852941176470587</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1</v>
+      </c>
+      <c r="D69" t="s">
+        <v>2</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69" t="s">
+        <v>3</v>
+      </c>
+      <c r="G69">
+        <v>8</v>
+      </c>
+      <c r="H69" t="s">
+        <v>4</v>
+      </c>
+      <c r="I69">
+        <v>1000</v>
+      </c>
+      <c r="K69">
+        <f>AVERAGE($G$1:G69)</f>
+        <v>-29.304347826086957</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1</v>
+      </c>
+      <c r="D70" t="s">
+        <v>2</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70" t="s">
+        <v>3</v>
+      </c>
+      <c r="G70">
+        <v>-33</v>
+      </c>
+      <c r="H70" t="s">
+        <v>4</v>
+      </c>
+      <c r="I70">
+        <v>1000</v>
+      </c>
+      <c r="K70">
+        <f>AVERAGE($G$1:G70)</f>
+        <v>-29.357142857142858</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1</v>
+      </c>
+      <c r="D71" t="s">
+        <v>2</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71" t="s">
+        <v>3</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71" t="s">
+        <v>4</v>
+      </c>
+      <c r="I71">
+        <v>924</v>
+      </c>
+      <c r="K71">
+        <f>AVERAGE($G$1:G71)</f>
+        <v>-28.929577464788732</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1</v>
+      </c>
+      <c r="D72" t="s">
+        <v>2</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72" t="s">
+        <v>3</v>
+      </c>
+      <c r="G72">
+        <v>-5</v>
+      </c>
+      <c r="H72" t="s">
+        <v>4</v>
+      </c>
+      <c r="I72">
+        <v>1000</v>
+      </c>
+      <c r="K72">
+        <f>AVERAGE($G$1:G72)</f>
+        <v>-28.597222222222221</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>0</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1</v>
+      </c>
+      <c r="D73" t="s">
+        <v>2</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73" t="s">
+        <v>3</v>
+      </c>
+      <c r="G73">
+        <v>-4</v>
+      </c>
+      <c r="H73" t="s">
+        <v>4</v>
+      </c>
+      <c r="I73">
+        <v>1000</v>
+      </c>
+      <c r="K73">
+        <f>AVERAGE($G$1:G73)</f>
+        <v>-28.260273972602739</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>0</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1</v>
+      </c>
+      <c r="D74" t="s">
+        <v>2</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74" t="s">
+        <v>3</v>
+      </c>
+      <c r="G74">
+        <v>3</v>
+      </c>
+      <c r="H74" t="s">
+        <v>4</v>
+      </c>
+      <c r="I74">
+        <v>1000</v>
+      </c>
+      <c r="K74">
+        <f>AVERAGE($G$1:G74)</f>
+        <v>-27.837837837837839</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1</v>
+      </c>
+      <c r="D75" t="s">
+        <v>2</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75" t="s">
+        <v>3</v>
+      </c>
+      <c r="G75">
+        <v>6</v>
+      </c>
+      <c r="H75" t="s">
+        <v>4</v>
+      </c>
+      <c r="I75">
+        <v>1000</v>
+      </c>
+      <c r="K75">
+        <f>AVERAGE($G$1:G75)</f>
+        <v>-27.386666666666667</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>0</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1</v>
+      </c>
+      <c r="D76" t="s">
+        <v>2</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76" t="s">
+        <v>3</v>
+      </c>
+      <c r="G76">
+        <v>7</v>
+      </c>
+      <c r="H76" t="s">
+        <v>4</v>
+      </c>
+      <c r="I76">
+        <v>883</v>
+      </c>
+      <c r="K76">
+        <f>AVERAGE($G$1:G76)</f>
+        <v>-26.934210526315791</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1</v>
+      </c>
+      <c r="D77" t="s">
+        <v>2</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77" t="s">
+        <v>3</v>
+      </c>
+      <c r="G77">
+        <v>-16</v>
+      </c>
+      <c r="H77" t="s">
+        <v>4</v>
+      </c>
+      <c r="I77">
+        <v>1000</v>
+      </c>
+      <c r="K77">
+        <f>AVERAGE($G$1:G77)</f>
+        <v>-26.792207792207794</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1</v>
+      </c>
+      <c r="D78" t="s">
+        <v>2</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78" t="s">
+        <v>3</v>
+      </c>
+      <c r="G78">
+        <v>-30</v>
+      </c>
+      <c r="H78" t="s">
+        <v>4</v>
+      </c>
+      <c r="I78">
+        <v>1000</v>
+      </c>
+      <c r="K78">
+        <f>AVERAGE($G$1:G78)</f>
+        <v>-26.833333333333332</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>0</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1</v>
+      </c>
+      <c r="D79" t="s">
+        <v>2</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79" t="s">
+        <v>3</v>
+      </c>
+      <c r="G79">
+        <v>8</v>
+      </c>
+      <c r="H79" t="s">
+        <v>4</v>
+      </c>
+      <c r="I79">
+        <v>1000</v>
+      </c>
+      <c r="K79">
+        <f>AVERAGE($G$1:G79)</f>
+        <v>-26.39240506329114</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>0</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1</v>
+      </c>
+      <c r="D80" t="s">
+        <v>2</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80" t="s">
+        <v>3</v>
+      </c>
+      <c r="G80">
+        <v>-66</v>
+      </c>
+      <c r="H80" t="s">
+        <v>4</v>
+      </c>
+      <c r="I80">
+        <v>1000</v>
+      </c>
+      <c r="K80">
+        <f>AVERAGE($G$1:G80)</f>
+        <v>-26.887499999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>0</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1</v>
+      </c>
+      <c r="D81" t="s">
+        <v>2</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81" t="s">
+        <v>3</v>
+      </c>
+      <c r="G81">
+        <v>2</v>
+      </c>
+      <c r="H81" t="s">
+        <v>4</v>
+      </c>
+      <c r="I81">
+        <v>1000</v>
+      </c>
+      <c r="K81">
+        <f>AVERAGE($G$1:G81)</f>
+        <v>-26.530864197530864</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>0</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1</v>
+      </c>
+      <c r="D82" t="s">
+        <v>2</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82" t="s">
+        <v>3</v>
+      </c>
+      <c r="G82">
+        <v>4</v>
+      </c>
+      <c r="H82" t="s">
+        <v>4</v>
+      </c>
+      <c r="I82">
+        <v>1000</v>
+      </c>
+      <c r="K82">
+        <f>AVERAGE($G$1:G82)</f>
+        <v>-26.158536585365855</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>0</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1</v>
+      </c>
+      <c r="D83" t="s">
+        <v>2</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83">
+        <v>-107</v>
+      </c>
+      <c r="H83" t="s">
+        <v>4</v>
+      </c>
+      <c r="I83">
+        <v>1000</v>
+      </c>
+      <c r="K83">
+        <f>AVERAGE($G$1:G83)</f>
+        <v>-27.132530120481928</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>0</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1</v>
+      </c>
+      <c r="D84" t="s">
+        <v>2</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84" t="s">
+        <v>3</v>
+      </c>
+      <c r="G84">
+        <v>10</v>
+      </c>
+      <c r="H84" t="s">
+        <v>4</v>
+      </c>
+      <c r="I84">
+        <v>1000</v>
+      </c>
+      <c r="K84">
+        <f>AVERAGE($G$1:G84)</f>
+        <v>-26.69047619047619</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>0</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1</v>
+      </c>
+      <c r="D85" t="s">
+        <v>2</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85" t="s">
+        <v>3</v>
+      </c>
+      <c r="G85">
+        <v>7</v>
+      </c>
+      <c r="H85" t="s">
+        <v>4</v>
+      </c>
+      <c r="I85">
+        <v>928</v>
+      </c>
+      <c r="K85">
+        <f>AVERAGE($G$1:G85)</f>
+        <v>-26.294117647058822</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>0</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1</v>
+      </c>
+      <c r="D86" t="s">
+        <v>2</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86" t="s">
+        <v>3</v>
+      </c>
+      <c r="G86">
+        <v>10</v>
+      </c>
+      <c r="H86" t="s">
+        <v>4</v>
+      </c>
+      <c r="I86">
+        <v>556</v>
+      </c>
+      <c r="K86">
+        <f>AVERAGE($G$1:G86)</f>
+        <v>-25.872093023255815</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>0</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1</v>
+      </c>
+      <c r="D87" t="s">
+        <v>2</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87" t="s">
+        <v>3</v>
+      </c>
+      <c r="G87">
+        <v>-9</v>
+      </c>
+      <c r="H87" t="s">
+        <v>4</v>
+      </c>
+      <c r="I87">
+        <v>1000</v>
+      </c>
+      <c r="K87">
+        <f>AVERAGE($G$1:G87)</f>
+        <v>-25.678160919540229</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>0</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1</v>
+      </c>
+      <c r="D88" t="s">
+        <v>2</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88" t="s">
+        <v>3</v>
+      </c>
+      <c r="G88">
+        <v>4</v>
+      </c>
+      <c r="H88" t="s">
+        <v>4</v>
+      </c>
+      <c r="I88">
+        <v>1000</v>
+      </c>
+      <c r="K88">
+        <f>AVERAGE($G$1:G88)</f>
+        <v>-25.34090909090909</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>0</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1</v>
+      </c>
+      <c r="D89" t="s">
+        <v>2</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89" t="s">
+        <v>3</v>
+      </c>
+      <c r="G89">
+        <v>2</v>
+      </c>
+      <c r="H89" t="s">
+        <v>4</v>
+      </c>
+      <c r="I89">
+        <v>1000</v>
+      </c>
+      <c r="K89">
+        <f>AVERAGE($G$1:G89)</f>
+        <v>-25.033707865168541</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>0</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1</v>
+      </c>
+      <c r="D90" t="s">
+        <v>2</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90" t="s">
+        <v>3</v>
+      </c>
+      <c r="G90">
+        <v>7</v>
+      </c>
+      <c r="H90" t="s">
+        <v>4</v>
+      </c>
+      <c r="I90">
+        <v>1000</v>
+      </c>
+      <c r="K90">
+        <f>AVERAGE($G$1:G90)</f>
+        <v>-24.677777777777777</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>0</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1</v>
+      </c>
+      <c r="D91" t="s">
+        <v>2</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91">
+        <v>-6</v>
+      </c>
+      <c r="H91" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91">
+        <v>1000</v>
+      </c>
+      <c r="K91">
+        <f>AVERAGE($G$1:G91)</f>
+        <v>-24.472527472527471</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>0</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1</v>
+      </c>
+      <c r="D92" t="s">
+        <v>2</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92" t="s">
+        <v>3</v>
+      </c>
+      <c r="G92">
+        <v>10</v>
+      </c>
+      <c r="H92" t="s">
+        <v>4</v>
+      </c>
+      <c r="I92">
+        <v>1000</v>
+      </c>
+      <c r="K92">
+        <f>AVERAGE($G$1:G92)</f>
+        <v>-24.097826086956523</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>0</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1</v>
+      </c>
+      <c r="D93" t="s">
+        <v>2</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93" t="s">
+        <v>3</v>
+      </c>
+      <c r="G93">
+        <v>7</v>
+      </c>
+      <c r="H93" t="s">
+        <v>4</v>
+      </c>
+      <c r="I93">
+        <v>1000</v>
+      </c>
+      <c r="K93">
+        <f>AVERAGE($G$1:G93)</f>
+        <v>-23.763440860215052</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>0</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1</v>
+      </c>
+      <c r="D94" t="s">
+        <v>2</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94" t="s">
+        <v>3</v>
+      </c>
+      <c r="G94">
+        <v>9</v>
+      </c>
+      <c r="H94" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94">
+        <v>1000</v>
+      </c>
+      <c r="K94">
+        <f>AVERAGE($G$1:G94)</f>
+        <v>-23.414893617021278</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>0</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1</v>
+      </c>
+      <c r="D95" t="s">
+        <v>2</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95" t="s">
+        <v>3</v>
+      </c>
+      <c r="G95">
+        <v>11</v>
+      </c>
+      <c r="H95" t="s">
+        <v>4</v>
+      </c>
+      <c r="I95">
+        <v>1000</v>
+      </c>
+      <c r="K95">
+        <f>AVERAGE($G$1:G95)</f>
+        <v>-23.05263157894737</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>0</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1</v>
+      </c>
+      <c r="D96" t="s">
+        <v>2</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96" t="s">
+        <v>3</v>
+      </c>
+      <c r="G96">
+        <v>6</v>
+      </c>
+      <c r="H96" t="s">
+        <v>4</v>
+      </c>
+      <c r="I96">
+        <v>1000</v>
+      </c>
+      <c r="K96">
+        <f>AVERAGE($G$1:G96)</f>
+        <v>-22.75</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>0</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1</v>
+      </c>
+      <c r="D97" t="s">
+        <v>2</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97" t="s">
+        <v>3</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="H97" t="s">
+        <v>4</v>
+      </c>
+      <c r="I97">
+        <v>889</v>
+      </c>
+      <c r="K97">
+        <f>AVERAGE($G$1:G97)</f>
+        <v>-22.505154639175259</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1</v>
+      </c>
+      <c r="D98" t="s">
+        <v>2</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98" t="s">
+        <v>3</v>
+      </c>
+      <c r="G98">
+        <v>10</v>
+      </c>
+      <c r="H98" t="s">
+        <v>4</v>
+      </c>
+      <c r="I98">
+        <v>1000</v>
+      </c>
+      <c r="K98">
+        <f>AVERAGE($G$1:G98)</f>
+        <v>-22.173469387755102</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>0</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1</v>
+      </c>
+      <c r="D99" t="s">
+        <v>2</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99" t="s">
+        <v>3</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99" t="s">
+        <v>4</v>
+      </c>
+      <c r="I99">
+        <v>1000</v>
+      </c>
+      <c r="K99">
+        <f>AVERAGE($G$1:G99)</f>
+        <v>-21.949494949494948</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>0</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1</v>
+      </c>
+      <c r="D100" t="s">
+        <v>2</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100" t="s">
+        <v>3</v>
+      </c>
+      <c r="G100">
+        <v>-8</v>
+      </c>
+      <c r="H100" t="s">
+        <v>4</v>
+      </c>
+      <c r="I100">
+        <v>1000</v>
+      </c>
+      <c r="K100">
+        <f>AVERAGE($G$1:G100)</f>
+        <v>-21.81</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="B101" t="s">
+        <v>0</v>
+      </c>
+      <c r="C101" t="s">
+        <v>1</v>
+      </c>
+      <c r="D101" t="s">
+        <v>2</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101" t="s">
+        <v>3</v>
+      </c>
+      <c r="G101">
+        <v>-14</v>
+      </c>
+      <c r="H101" t="s">
+        <v>4</v>
+      </c>
+      <c r="I101">
+        <v>1000</v>
+      </c>
+      <c r="K101">
+        <f>AVERAGE($G$1:G101)</f>
+        <v>-21.732673267326732</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101:I101"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="11" max="11" width="18.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1">
+        <v>34</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1">
+        <v>1000</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2">
+        <v>465</v>
+      </c>
+      <c r="K2">
+        <f>AVERAGE($G$1:G2)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>962</v>
+      </c>
+      <c r="K3">
+        <f>AVERAGE($G$1:G3)</f>
+        <v>19.333333333333332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>589</v>
+      </c>
+      <c r="K4">
+        <f>AVERAGE($G$1:G4)</f>
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>1000</v>
+      </c>
+      <c r="K5">
+        <f>AVERAGE($G$1:G5)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>1000</v>
+      </c>
+      <c r="K6">
+        <f>AVERAGE($G$1:G6)</f>
+        <v>15.333333333333334</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>1000</v>
+      </c>
+      <c r="K7">
+        <f>AVERAGE($G$1:G7)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>1000</v>
+      </c>
+      <c r="K8">
+        <f>AVERAGE($G$1:G8)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>18</v>
+      </c>
+      <c r="H9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <v>1000</v>
+      </c>
+      <c r="K9">
+        <f>AVERAGE($G$1:G9)</f>
+        <v>14.444444444444445</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <v>1000</v>
+      </c>
+      <c r="K10">
+        <f>AVERAGE($G$1:G10)</f>
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <v>762</v>
+      </c>
+      <c r="K11">
+        <f>AVERAGE($G$1:G11)</f>
+        <v>13.454545454545455</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>18</v>
+      </c>
+      <c r="H12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12">
+        <v>581</v>
+      </c>
+      <c r="K12">
+        <f>AVERAGE($G$1:G12)</f>
+        <v>13.833333333333334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>8</v>
+      </c>
+      <c r="H13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13">
+        <v>587</v>
+      </c>
+      <c r="K13">
+        <f>AVERAGE($G$1:G13)</f>
+        <v>13.384615384615385</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>12</v>
+      </c>
+      <c r="H14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <v>598</v>
+      </c>
+      <c r="K14">
+        <f>AVERAGE($G$1:G14)</f>
+        <v>13.285714285714286</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>12</v>
+      </c>
+      <c r="H15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15">
+        <v>472</v>
+      </c>
+      <c r="K15">
+        <f>AVERAGE($G$1:G15)</f>
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16">
+        <v>303</v>
+      </c>
+      <c r="K16">
+        <f>AVERAGE($G$1:G16)</f>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>36</v>
+      </c>
+      <c r="H17" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17">
+        <v>927</v>
+      </c>
+      <c r="K17">
+        <f>AVERAGE($G$1:G17)</f>
+        <v>13.882352941176471</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>8</v>
+      </c>
+      <c r="H18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18">
+        <v>444</v>
+      </c>
+      <c r="K18">
+        <f>AVERAGE($G$1:G18)</f>
+        <v>13.555555555555555</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>14</v>
+      </c>
+      <c r="H19" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19">
+        <v>525</v>
+      </c>
+      <c r="K19">
+        <f>AVERAGE($G$1:G19)</f>
+        <v>13.578947368421053</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20">
+        <v>762</v>
+      </c>
+      <c r="K20">
+        <f>AVERAGE($G$1:G20)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <v>8</v>
+      </c>
+      <c r="H21" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21">
+        <v>655</v>
+      </c>
+      <c r="K21">
+        <f>AVERAGE($G$1:G21)</f>
+        <v>12.761904761904763</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>14</v>
+      </c>
+      <c r="H22" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22">
+        <v>559</v>
+      </c>
+      <c r="K22">
+        <f>AVERAGE($G$1:G22)</f>
+        <v>12.818181818181818</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <v>10</v>
+      </c>
+      <c r="H23" t="s">
+        <v>4</v>
+      </c>
+      <c r="I23">
+        <v>374</v>
+      </c>
+      <c r="K23">
+        <f>AVERAGE($G$1:G23)</f>
+        <v>12.695652173913043</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24">
+        <v>640</v>
+      </c>
+      <c r="K24">
+        <f>AVERAGE($G$1:G24)</f>
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25">
+        <v>18</v>
+      </c>
+      <c r="H25" t="s">
+        <v>4</v>
+      </c>
+      <c r="I25">
+        <v>1000</v>
+      </c>
+      <c r="K25">
+        <f>AVERAGE($G$1:G25)</f>
+        <v>12.48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>10</v>
+      </c>
+      <c r="H26" t="s">
+        <v>4</v>
+      </c>
+      <c r="I26">
+        <v>813</v>
+      </c>
+      <c r="K26">
+        <f>AVERAGE($G$1:G26)</f>
+        <v>12.384615384615385</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27">
+        <v>16</v>
+      </c>
+      <c r="H27" t="s">
+        <v>4</v>
+      </c>
+      <c r="I27">
+        <v>819</v>
+      </c>
+      <c r="K27">
+        <f>AVERAGE($G$1:G27)</f>
+        <v>12.518518518518519</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <v>12</v>
+      </c>
+      <c r="H28" t="s">
+        <v>4</v>
+      </c>
+      <c r="I28">
+        <v>815</v>
+      </c>
+      <c r="K28">
+        <f>AVERAGE($G$1:G28)</f>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29">
+        <v>10</v>
+      </c>
+      <c r="H29" t="s">
+        <v>4</v>
+      </c>
+      <c r="I29">
+        <v>435</v>
+      </c>
+      <c r="K29">
+        <f>AVERAGE($G$1:G29)</f>
+        <v>12.413793103448276</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30">
+        <v>10</v>
+      </c>
+      <c r="H30" t="s">
+        <v>4</v>
+      </c>
+      <c r="I30">
+        <v>1000</v>
+      </c>
+      <c r="K30">
+        <f>AVERAGE($G$1:G30)</f>
+        <v>12.333333333333334</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31">
+        <v>8</v>
+      </c>
+      <c r="H31" t="s">
+        <v>4</v>
+      </c>
+      <c r="I31">
+        <v>412</v>
+      </c>
+      <c r="K31">
+        <f>AVERAGE($G$1:G31)</f>
+        <v>12.193548387096774</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32">
+        <v>8</v>
+      </c>
+      <c r="H32" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32">
+        <v>1000</v>
+      </c>
+      <c r="K32">
+        <f>AVERAGE($G$1:G32)</f>
+        <v>12.0625</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33">
+        <v>22</v>
+      </c>
+      <c r="H33" t="s">
+        <v>4</v>
+      </c>
+      <c r="I33">
+        <v>1000</v>
+      </c>
+      <c r="K33">
+        <f>AVERAGE($G$1:G33)</f>
+        <v>12.363636363636363</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34">
+        <v>4</v>
+      </c>
+      <c r="H34" t="s">
+        <v>4</v>
+      </c>
+      <c r="I34">
+        <v>506</v>
+      </c>
+      <c r="K34">
+        <f>AVERAGE($G$1:G34)</f>
+        <v>12.117647058823529</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35">
+        <v>10</v>
+      </c>
+      <c r="H35" t="s">
+        <v>4</v>
+      </c>
+      <c r="I35">
+        <v>418</v>
+      </c>
+      <c r="K35">
+        <f>AVERAGE($G$1:G35)</f>
+        <v>12.057142857142857</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36">
+        <v>26</v>
+      </c>
+      <c r="H36" t="s">
+        <v>4</v>
+      </c>
+      <c r="I36">
+        <v>358</v>
+      </c>
+      <c r="K36">
+        <f>AVERAGE($G$1:G36)</f>
+        <v>12.444444444444445</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37" t="s">
+        <v>3</v>
+      </c>
+      <c r="G37">
+        <v>18</v>
+      </c>
+      <c r="H37" t="s">
+        <v>4</v>
+      </c>
+      <c r="I37">
+        <v>908</v>
+      </c>
+      <c r="K37">
+        <f>AVERAGE($G$1:G37)</f>
+        <v>12.594594594594595</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38">
+        <v>24</v>
+      </c>
+      <c r="H38" t="s">
+        <v>4</v>
+      </c>
+      <c r="I38">
+        <v>1000</v>
+      </c>
+      <c r="K38">
+        <f>AVERAGE($G$1:G38)</f>
+        <v>12.894736842105264</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39" t="s">
+        <v>3</v>
+      </c>
+      <c r="G39">
+        <v>42</v>
+      </c>
+      <c r="H39" t="s">
+        <v>4</v>
+      </c>
+      <c r="I39">
+        <v>1000</v>
+      </c>
+      <c r="K39">
+        <f>AVERAGE($G$1:G39)</f>
+        <v>13.641025641025641</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>3</v>
+      </c>
+      <c r="G40">
+        <v>10</v>
+      </c>
+      <c r="H40" t="s">
+        <v>4</v>
+      </c>
+      <c r="I40">
+        <v>546</v>
+      </c>
+      <c r="K40">
+        <f>AVERAGE($G$1:G40)</f>
+        <v>13.55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41">
+        <v>6</v>
+      </c>
+      <c r="H41" t="s">
+        <v>4</v>
+      </c>
+      <c r="I41">
+        <v>1000</v>
+      </c>
+      <c r="K41">
+        <f>AVERAGE($G$1:G41)</f>
+        <v>13.365853658536585</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42">
+        <v>18</v>
+      </c>
+      <c r="H42" t="s">
+        <v>4</v>
+      </c>
+      <c r="I42">
+        <v>650</v>
+      </c>
+      <c r="K42">
+        <f>AVERAGE($G$1:G42)</f>
+        <v>13.476190476190476</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43">
+        <v>16</v>
+      </c>
+      <c r="H43" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43">
+        <v>776</v>
+      </c>
+      <c r="K43">
+        <f>AVERAGE($G$1:G43)</f>
+        <v>13.534883720930232</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44">
+        <v>12</v>
+      </c>
+      <c r="H44" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44">
+        <v>1000</v>
+      </c>
+      <c r="K44">
+        <f>AVERAGE($G$1:G44)</f>
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G45">
+        <v>12</v>
+      </c>
+      <c r="H45" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45">
+        <v>1000</v>
+      </c>
+      <c r="K45">
+        <f>AVERAGE($G$1:G45)</f>
+        <v>13.466666666666667</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46" t="s">
+        <v>3</v>
+      </c>
+      <c r="G46">
+        <v>14</v>
+      </c>
+      <c r="H46" t="s">
+        <v>4</v>
+      </c>
+      <c r="I46">
+        <v>750</v>
+      </c>
+      <c r="K46">
+        <f>AVERAGE($G$1:G46)</f>
+        <v>13.478260869565217</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47">
+        <v>12</v>
+      </c>
+      <c r="H47" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47">
+        <v>775</v>
+      </c>
+      <c r="K47">
+        <f>AVERAGE($G$1:G47)</f>
+        <v>13.446808510638299</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48">
+        <v>24</v>
+      </c>
+      <c r="H48" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48">
+        <v>1000</v>
+      </c>
+      <c r="K48">
+        <f>AVERAGE($G$1:G48)</f>
+        <v>13.666666666666666</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49">
+        <v>8</v>
+      </c>
+      <c r="H49" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49">
+        <v>429</v>
+      </c>
+      <c r="K49">
+        <f>AVERAGE($G$1:G49)</f>
+        <v>13.551020408163266</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50" t="s">
+        <v>3</v>
+      </c>
+      <c r="G50">
+        <v>24</v>
+      </c>
+      <c r="H50" t="s">
+        <v>4</v>
+      </c>
+      <c r="I50">
+        <v>1000</v>
+      </c>
+      <c r="K50">
+        <f>AVERAGE($G$1:G50)</f>
+        <v>13.76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51" t="s">
+        <v>3</v>
+      </c>
+      <c r="G51">
+        <v>6</v>
+      </c>
+      <c r="H51" t="s">
+        <v>4</v>
+      </c>
+      <c r="I51">
+        <v>395</v>
+      </c>
+      <c r="K51">
+        <f>AVERAGE($G$1:G51)</f>
+        <v>13.607843137254902</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52">
+        <v>22</v>
+      </c>
+      <c r="H52" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52">
+        <v>828</v>
+      </c>
+      <c r="K52">
+        <f>AVERAGE($G$1:G52)</f>
+        <v>13.76923076923077</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53" t="s">
+        <v>3</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+      <c r="H53" t="s">
+        <v>4</v>
+      </c>
+      <c r="I53">
+        <v>625</v>
+      </c>
+      <c r="K53">
+        <f>AVERAGE($G$1:G53)</f>
+        <v>13.547169811320755</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54" t="s">
+        <v>3</v>
+      </c>
+      <c r="G54">
+        <v>8</v>
+      </c>
+      <c r="H54" t="s">
+        <v>4</v>
+      </c>
+      <c r="I54">
+        <v>736</v>
+      </c>
+      <c r="K54">
+        <f>AVERAGE($G$1:G54)</f>
+        <v>13.444444444444445</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55" t="s">
+        <v>3</v>
+      </c>
+      <c r="G55">
+        <v>12</v>
+      </c>
+      <c r="H55" t="s">
+        <v>4</v>
+      </c>
+      <c r="I55">
+        <v>1000</v>
+      </c>
+      <c r="K55">
+        <f>AVERAGE($G$1:G55)</f>
+        <v>13.418181818181818</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56" t="s">
+        <v>3</v>
+      </c>
+      <c r="G56">
+        <v>14</v>
+      </c>
+      <c r="H56" t="s">
+        <v>4</v>
+      </c>
+      <c r="I56">
+        <v>1000</v>
+      </c>
+      <c r="K56">
+        <f>AVERAGE($G$1:G56)</f>
+        <v>13.428571428571429</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57">
+        <v>14</v>
+      </c>
+      <c r="H57" t="s">
+        <v>4</v>
+      </c>
+      <c r="I57">
+        <v>1000</v>
+      </c>
+      <c r="K57">
+        <f>AVERAGE($G$1:G57)</f>
+        <v>13.43859649122807</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58" t="s">
+        <v>2</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58">
+        <v>20</v>
+      </c>
+      <c r="H58" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58">
+        <v>499</v>
+      </c>
+      <c r="K58">
+        <f>AVERAGE($G$1:G58)</f>
+        <v>13.551724137931034</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s">
+        <v>2</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59" t="s">
+        <v>3</v>
+      </c>
+      <c r="G59">
+        <v>2</v>
+      </c>
+      <c r="H59" t="s">
+        <v>4</v>
+      </c>
+      <c r="I59">
+        <v>625</v>
+      </c>
+      <c r="K59">
+        <f>AVERAGE($G$1:G59)</f>
+        <v>13.35593220338983</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60" t="s">
+        <v>3</v>
+      </c>
+      <c r="G60">
+        <v>10</v>
+      </c>
+      <c r="H60" t="s">
+        <v>4</v>
+      </c>
+      <c r="I60">
+        <v>1000</v>
+      </c>
+      <c r="K60">
+        <f>AVERAGE($G$1:G60)</f>
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61" t="s">
+        <v>2</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61" t="s">
+        <v>3</v>
+      </c>
+      <c r="G61">
+        <v>10</v>
+      </c>
+      <c r="H61" t="s">
+        <v>4</v>
+      </c>
+      <c r="I61">
+        <v>1000</v>
+      </c>
+      <c r="K61">
+        <f>AVERAGE($G$1:G61)</f>
+        <v>13.245901639344263</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1</v>
+      </c>
+      <c r="D62" t="s">
+        <v>2</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62">
+        <v>10</v>
+      </c>
+      <c r="H62" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62">
+        <v>1000</v>
+      </c>
+      <c r="K62">
+        <f>AVERAGE($G$1:G62)</f>
+        <v>13.193548387096774</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" t="s">
+        <v>2</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63" t="s">
+        <v>3</v>
+      </c>
+      <c r="G63">
+        <v>2</v>
+      </c>
+      <c r="H63" t="s">
+        <v>4</v>
+      </c>
+      <c r="I63">
+        <v>454</v>
+      </c>
+      <c r="K63">
+        <f>AVERAGE($G$1:G63)</f>
+        <v>13.015873015873016</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1</v>
+      </c>
+      <c r="D64" t="s">
+        <v>2</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64" t="s">
+        <v>3</v>
+      </c>
+      <c r="G64">
+        <v>10</v>
+      </c>
+      <c r="H64" t="s">
+        <v>4</v>
+      </c>
+      <c r="I64">
+        <v>422</v>
+      </c>
+      <c r="K64">
+        <f>AVERAGE($G$1:G64)</f>
+        <v>12.96875</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1</v>
+      </c>
+      <c r="D65" t="s">
+        <v>2</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65" t="s">
+        <v>3</v>
+      </c>
+      <c r="G65">
+        <v>6</v>
+      </c>
+      <c r="H65" t="s">
+        <v>4</v>
+      </c>
+      <c r="I65">
+        <v>491</v>
+      </c>
+      <c r="K65">
+        <f>AVERAGE($G$1:G65)</f>
+        <v>12.861538461538462</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1</v>
+      </c>
+      <c r="D66" t="s">
+        <v>2</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66" t="s">
+        <v>3</v>
+      </c>
+      <c r="G66">
+        <v>12</v>
+      </c>
+      <c r="H66" t="s">
+        <v>4</v>
+      </c>
+      <c r="I66">
+        <v>1000</v>
+      </c>
+      <c r="K66">
+        <f>AVERAGE($G$1:G66)</f>
+        <v>12.848484848484848</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1</v>
+      </c>
+      <c r="D67" t="s">
+        <v>2</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67" t="s">
+        <v>3</v>
+      </c>
+      <c r="G67">
+        <v>12</v>
+      </c>
+      <c r="H67" t="s">
+        <v>4</v>
+      </c>
+      <c r="I67">
+        <v>569</v>
+      </c>
+      <c r="K67">
+        <f>AVERAGE($G$1:G67)</f>
+        <v>12.835820895522389</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1</v>
+      </c>
+      <c r="D68" t="s">
+        <v>2</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68" t="s">
+        <v>3</v>
+      </c>
+      <c r="G68">
+        <v>14</v>
+      </c>
+      <c r="H68" t="s">
+        <v>4</v>
+      </c>
+      <c r="I68">
+        <v>864</v>
+      </c>
+      <c r="K68">
+        <f>AVERAGE($G$1:G68)</f>
+        <v>12.852941176470589</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1</v>
+      </c>
+      <c r="D69" t="s">
+        <v>2</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69" t="s">
+        <v>3</v>
+      </c>
+      <c r="G69">
+        <v>4</v>
+      </c>
+      <c r="H69" t="s">
+        <v>4</v>
+      </c>
+      <c r="I69">
+        <v>495</v>
+      </c>
+      <c r="K69">
+        <f>AVERAGE($G$1:G69)</f>
+        <v>12.72463768115942</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1</v>
+      </c>
+      <c r="D70" t="s">
+        <v>2</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70" t="s">
+        <v>3</v>
+      </c>
+      <c r="G70">
+        <v>4</v>
+      </c>
+      <c r="H70" t="s">
+        <v>4</v>
+      </c>
+      <c r="I70">
+        <v>1000</v>
+      </c>
+      <c r="K70">
+        <f>AVERAGE($G$1:G70)</f>
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1</v>
+      </c>
+      <c r="D71" t="s">
+        <v>2</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71" t="s">
+        <v>3</v>
+      </c>
+      <c r="G71">
+        <v>6</v>
+      </c>
+      <c r="H71" t="s">
+        <v>4</v>
+      </c>
+      <c r="I71">
+        <v>646</v>
+      </c>
+      <c r="K71">
+        <f>AVERAGE($G$1:G71)</f>
+        <v>12.507042253521126</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1</v>
+      </c>
+      <c r="D72" t="s">
+        <v>2</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72" t="s">
+        <v>3</v>
+      </c>
+      <c r="G72">
+        <v>30</v>
+      </c>
+      <c r="H72" t="s">
+        <v>4</v>
+      </c>
+      <c r="I72">
+        <v>1000</v>
+      </c>
+      <c r="K72">
+        <f>AVERAGE($G$1:G72)</f>
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>0</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1</v>
+      </c>
+      <c r="D73" t="s">
+        <v>2</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73" t="s">
+        <v>3</v>
+      </c>
+      <c r="G73">
+        <v>18</v>
+      </c>
+      <c r="H73" t="s">
+        <v>4</v>
+      </c>
+      <c r="I73">
+        <v>456</v>
+      </c>
+      <c r="K73">
+        <f>AVERAGE($G$1:G73)</f>
+        <v>12.821917808219178</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>0</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1</v>
+      </c>
+      <c r="D74" t="s">
+        <v>2</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74" t="s">
+        <v>3</v>
+      </c>
+      <c r="G74">
+        <v>24</v>
+      </c>
+      <c r="H74" t="s">
+        <v>4</v>
+      </c>
+      <c r="I74">
+        <v>490</v>
+      </c>
+      <c r="K74">
+        <f>AVERAGE($G$1:G74)</f>
+        <v>12.972972972972974</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1</v>
+      </c>
+      <c r="D75" t="s">
+        <v>2</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75" t="s">
+        <v>3</v>
+      </c>
+      <c r="G75">
+        <v>14</v>
+      </c>
+      <c r="H75" t="s">
+        <v>4</v>
+      </c>
+      <c r="I75">
+        <v>564</v>
+      </c>
+      <c r="K75">
+        <f>AVERAGE($G$1:G75)</f>
+        <v>12.986666666666666</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>0</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1</v>
+      </c>
+      <c r="D76" t="s">
+        <v>2</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76" t="s">
+        <v>3</v>
+      </c>
+      <c r="G76">
+        <v>2</v>
+      </c>
+      <c r="H76" t="s">
+        <v>4</v>
+      </c>
+      <c r="I76">
+        <v>1000</v>
+      </c>
+      <c r="K76">
+        <f>AVERAGE($G$1:G76)</f>
+        <v>12.842105263157896</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1</v>
+      </c>
+      <c r="D77" t="s">
+        <v>2</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77" t="s">
+        <v>3</v>
+      </c>
+      <c r="G77">
+        <v>16</v>
+      </c>
+      <c r="H77" t="s">
+        <v>4</v>
+      </c>
+      <c r="I77">
+        <v>929</v>
+      </c>
+      <c r="K77">
+        <f>AVERAGE($G$1:G77)</f>
+        <v>12.883116883116884</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1</v>
+      </c>
+      <c r="D78" t="s">
+        <v>2</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78" t="s">
+        <v>3</v>
+      </c>
+      <c r="G78">
+        <v>8</v>
+      </c>
+      <c r="H78" t="s">
+        <v>4</v>
+      </c>
+      <c r="I78">
+        <v>491</v>
+      </c>
+      <c r="K78">
+        <f>AVERAGE($G$1:G78)</f>
+        <v>12.820512820512821</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>0</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1</v>
+      </c>
+      <c r="D79" t="s">
+        <v>2</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79" t="s">
+        <v>3</v>
+      </c>
+      <c r="G79">
+        <v>14</v>
+      </c>
+      <c r="H79" t="s">
+        <v>4</v>
+      </c>
+      <c r="I79">
+        <v>651</v>
+      </c>
+      <c r="K79">
+        <f>AVERAGE($G$1:G79)</f>
+        <v>12.835443037974683</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>0</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1</v>
+      </c>
+      <c r="D80" t="s">
+        <v>2</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80" t="s">
+        <v>3</v>
+      </c>
+      <c r="G80">
+        <v>6</v>
+      </c>
+      <c r="H80" t="s">
+        <v>4</v>
+      </c>
+      <c r="I80">
+        <v>800</v>
+      </c>
+      <c r="K80">
+        <f>AVERAGE($G$1:G80)</f>
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>0</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1</v>
+      </c>
+      <c r="D81" t="s">
+        <v>2</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81" t="s">
+        <v>3</v>
+      </c>
+      <c r="G81">
+        <v>6</v>
+      </c>
+      <c r="H81" t="s">
+        <v>4</v>
+      </c>
+      <c r="I81">
+        <v>281</v>
+      </c>
+      <c r="K81">
+        <f>AVERAGE($G$1:G81)</f>
+        <v>12.666666666666666</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>0</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1</v>
+      </c>
+      <c r="D82" t="s">
+        <v>2</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82" t="s">
+        <v>3</v>
+      </c>
+      <c r="G82">
+        <v>10</v>
+      </c>
+      <c r="H82" t="s">
+        <v>4</v>
+      </c>
+      <c r="I82">
+        <v>400</v>
+      </c>
+      <c r="K82">
+        <f>AVERAGE($G$1:G82)</f>
+        <v>12.634146341463415</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>0</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1</v>
+      </c>
+      <c r="D83" t="s">
+        <v>2</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83">
+        <v>10</v>
+      </c>
+      <c r="H83" t="s">
+        <v>4</v>
+      </c>
+      <c r="I83">
+        <v>308</v>
+      </c>
+      <c r="K83">
+        <f>AVERAGE($G$1:G83)</f>
+        <v>12.602409638554217</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>0</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1</v>
+      </c>
+      <c r="D84" t="s">
+        <v>2</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84" t="s">
+        <v>3</v>
+      </c>
+      <c r="G84">
+        <v>28</v>
+      </c>
+      <c r="H84" t="s">
+        <v>4</v>
+      </c>
+      <c r="I84">
+        <v>596</v>
+      </c>
+      <c r="K84">
+        <f>AVERAGE($G$1:G84)</f>
+        <v>12.785714285714286</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>0</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1</v>
+      </c>
+      <c r="D85" t="s">
+        <v>2</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85" t="s">
+        <v>3</v>
+      </c>
+      <c r="G85">
+        <v>18</v>
+      </c>
+      <c r="H85" t="s">
+        <v>4</v>
+      </c>
+      <c r="I85">
+        <v>994</v>
+      </c>
+      <c r="K85">
+        <f>AVERAGE($G$1:G85)</f>
+        <v>12.847058823529412</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>0</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1</v>
+      </c>
+      <c r="D86" t="s">
+        <v>2</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86" t="s">
+        <v>3</v>
+      </c>
+      <c r="G86">
+        <v>2</v>
+      </c>
+      <c r="H86" t="s">
+        <v>4</v>
+      </c>
+      <c r="I86">
+        <v>640</v>
+      </c>
+      <c r="K86">
+        <f>AVERAGE($G$1:G86)</f>
+        <v>12.720930232558139</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>0</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1</v>
+      </c>
+      <c r="D87" t="s">
+        <v>2</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87" t="s">
+        <v>3</v>
+      </c>
+      <c r="G87">
+        <v>2</v>
+      </c>
+      <c r="H87" t="s">
+        <v>4</v>
+      </c>
+      <c r="I87">
+        <v>640</v>
+      </c>
+      <c r="K87">
+        <f>AVERAGE($G$1:G87)</f>
+        <v>12.597701149425287</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>0</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1</v>
+      </c>
+      <c r="D88" t="s">
+        <v>2</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88" t="s">
+        <v>3</v>
+      </c>
+      <c r="G88">
+        <v>18</v>
+      </c>
+      <c r="H88" t="s">
+        <v>4</v>
+      </c>
+      <c r="I88">
+        <v>830</v>
+      </c>
+      <c r="K88">
+        <f>AVERAGE($G$1:G88)</f>
+        <v>12.659090909090908</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>0</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1</v>
+      </c>
+      <c r="D89" t="s">
+        <v>2</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89" t="s">
+        <v>3</v>
+      </c>
+      <c r="G89">
+        <v>32</v>
+      </c>
+      <c r="H89" t="s">
+        <v>4</v>
+      </c>
+      <c r="I89">
+        <v>956</v>
+      </c>
+      <c r="K89">
+        <f>AVERAGE($G$1:G89)</f>
+        <v>12.876404494382022</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>0</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1</v>
+      </c>
+      <c r="D90" t="s">
+        <v>2</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90" t="s">
+        <v>3</v>
+      </c>
+      <c r="G90">
+        <v>14</v>
+      </c>
+      <c r="H90" t="s">
+        <v>4</v>
+      </c>
+      <c r="I90">
+        <v>628</v>
+      </c>
+      <c r="K90">
+        <f>AVERAGE($G$1:G90)</f>
+        <v>12.888888888888889</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>0</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1</v>
+      </c>
+      <c r="D91" t="s">
+        <v>2</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91">
+        <v>32</v>
+      </c>
+      <c r="H91" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91">
+        <v>1000</v>
+      </c>
+      <c r="K91">
+        <f>AVERAGE($G$1:G91)</f>
+        <v>13.098901098901099</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>0</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1</v>
+      </c>
+      <c r="D92" t="s">
+        <v>2</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92" t="s">
+        <v>3</v>
+      </c>
+      <c r="G92">
+        <v>18</v>
+      </c>
+      <c r="H92" t="s">
+        <v>4</v>
+      </c>
+      <c r="I92">
+        <v>552</v>
+      </c>
+      <c r="K92">
+        <f>AVERAGE($G$1:G92)</f>
+        <v>13.152173913043478</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>0</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1</v>
+      </c>
+      <c r="D93" t="s">
+        <v>2</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93" t="s">
+        <v>3</v>
+      </c>
+      <c r="G93">
+        <v>4</v>
+      </c>
+      <c r="H93" t="s">
+        <v>4</v>
+      </c>
+      <c r="I93">
+        <v>1000</v>
+      </c>
+      <c r="K93">
+        <f>AVERAGE($G$1:G93)</f>
+        <v>13.053763440860216</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>0</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1</v>
+      </c>
+      <c r="D94" t="s">
+        <v>2</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94" t="s">
+        <v>3</v>
+      </c>
+      <c r="G94">
+        <v>18</v>
+      </c>
+      <c r="H94" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94">
+        <v>627</v>
+      </c>
+      <c r="K94">
+        <f>AVERAGE($G$1:G94)</f>
+        <v>13.106382978723405</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>0</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1</v>
+      </c>
+      <c r="D95" t="s">
+        <v>2</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95" t="s">
+        <v>3</v>
+      </c>
+      <c r="G95">
+        <v>12</v>
+      </c>
+      <c r="H95" t="s">
+        <v>4</v>
+      </c>
+      <c r="I95">
+        <v>1000</v>
+      </c>
+      <c r="K95">
+        <f>AVERAGE($G$1:G95)</f>
+        <v>13.094736842105263</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>0</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1</v>
+      </c>
+      <c r="D96" t="s">
+        <v>2</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96" t="s">
+        <v>3</v>
+      </c>
+      <c r="G96">
+        <v>10</v>
+      </c>
+      <c r="H96" t="s">
+        <v>4</v>
+      </c>
+      <c r="I96">
+        <v>1000</v>
+      </c>
+      <c r="K96">
+        <f>AVERAGE($G$1:G96)</f>
+        <v>13.0625</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>0</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1</v>
+      </c>
+      <c r="D97" t="s">
+        <v>2</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97" t="s">
+        <v>3</v>
+      </c>
+      <c r="G97">
+        <v>10</v>
+      </c>
+      <c r="H97" t="s">
+        <v>4</v>
+      </c>
+      <c r="I97">
+        <v>753</v>
+      </c>
+      <c r="K97">
+        <f>AVERAGE($G$1:G97)</f>
+        <v>13.030927835051546</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1</v>
+      </c>
+      <c r="D98" t="s">
+        <v>2</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98" t="s">
+        <v>3</v>
+      </c>
+      <c r="G98">
+        <v>8</v>
+      </c>
+      <c r="H98" t="s">
+        <v>4</v>
+      </c>
+      <c r="I98">
+        <v>413</v>
+      </c>
+      <c r="K98">
+        <f>AVERAGE($G$1:G98)</f>
+        <v>12.979591836734693</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>0</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1</v>
+      </c>
+      <c r="D99" t="s">
+        <v>2</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99" t="s">
+        <v>3</v>
+      </c>
+      <c r="G99">
+        <v>22</v>
+      </c>
+      <c r="H99" t="s">
+        <v>4</v>
+      </c>
+      <c r="I99">
+        <v>1000</v>
+      </c>
+      <c r="K99">
+        <f>AVERAGE($G$1:G99)</f>
+        <v>13.070707070707071</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>0</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1</v>
+      </c>
+      <c r="D100" t="s">
+        <v>2</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100" t="s">
+        <v>3</v>
+      </c>
+      <c r="G100">
+        <v>6</v>
+      </c>
+      <c r="H100" t="s">
+        <v>4</v>
+      </c>
+      <c r="I100">
+        <v>645</v>
+      </c>
+      <c r="K100">
+        <f>AVERAGE($G$1:G100)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="B101" t="s">
+        <v>0</v>
+      </c>
+      <c r="C101" t="s">
+        <v>1</v>
+      </c>
+      <c r="D101" t="s">
+        <v>2</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101" t="s">
+        <v>3</v>
+      </c>
+      <c r="G101">
+        <v>10</v>
+      </c>
+      <c r="H101" t="s">
+        <v>4</v>
+      </c>
+      <c r="I101">
+        <v>411</v>
+      </c>
+      <c r="K101">
+        <f>AVERAGE($G$1:G101)</f>
+        <v>12.970297029702971</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/res_averages.xlsx
+++ b/res_averages.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="-5600" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="25600" yWindow="-5600" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Pacman Test" sheetId="1" r:id="rId1"/>
     <sheet name="Infection Test" sheetId="2" r:id="rId2"/>
     <sheet name="Butterflies Test" sheetId="3" r:id="rId3"/>
+    <sheet name="Zelda Test" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2025" uniqueCount="7">
   <si>
     <t>Result</t>
   </si>
@@ -98,8 +99,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -125,7 +130,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="25">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -136,6 +141,8 @@
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -146,6 +153,8 @@
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -7410,7 +7419,3360 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="11" max="11" width="18.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1">
+        <v>34</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1">
+        <v>1000</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2">
+        <v>465</v>
+      </c>
+      <c r="K2">
+        <f>AVERAGE($G$1:G2)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>962</v>
+      </c>
+      <c r="K3">
+        <f>AVERAGE($G$1:G3)</f>
+        <v>19.333333333333332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>589</v>
+      </c>
+      <c r="K4">
+        <f>AVERAGE($G$1:G4)</f>
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>1000</v>
+      </c>
+      <c r="K5">
+        <f>AVERAGE($G$1:G5)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>1000</v>
+      </c>
+      <c r="K6">
+        <f>AVERAGE($G$1:G6)</f>
+        <v>15.333333333333334</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>1000</v>
+      </c>
+      <c r="K7">
+        <f>AVERAGE($G$1:G7)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>1000</v>
+      </c>
+      <c r="K8">
+        <f>AVERAGE($G$1:G8)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>18</v>
+      </c>
+      <c r="H9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <v>1000</v>
+      </c>
+      <c r="K9">
+        <f>AVERAGE($G$1:G9)</f>
+        <v>14.444444444444445</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <v>1000</v>
+      </c>
+      <c r="K10">
+        <f>AVERAGE($G$1:G10)</f>
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <v>762</v>
+      </c>
+      <c r="K11">
+        <f>AVERAGE($G$1:G11)</f>
+        <v>13.454545454545455</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>18</v>
+      </c>
+      <c r="H12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12">
+        <v>581</v>
+      </c>
+      <c r="K12">
+        <f>AVERAGE($G$1:G12)</f>
+        <v>13.833333333333334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>8</v>
+      </c>
+      <c r="H13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13">
+        <v>587</v>
+      </c>
+      <c r="K13">
+        <f>AVERAGE($G$1:G13)</f>
+        <v>13.384615384615385</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>12</v>
+      </c>
+      <c r="H14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <v>598</v>
+      </c>
+      <c r="K14">
+        <f>AVERAGE($G$1:G14)</f>
+        <v>13.285714285714286</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>12</v>
+      </c>
+      <c r="H15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15">
+        <v>472</v>
+      </c>
+      <c r="K15">
+        <f>AVERAGE($G$1:G15)</f>
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16">
+        <v>303</v>
+      </c>
+      <c r="K16">
+        <f>AVERAGE($G$1:G16)</f>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>36</v>
+      </c>
+      <c r="H17" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17">
+        <v>927</v>
+      </c>
+      <c r="K17">
+        <f>AVERAGE($G$1:G17)</f>
+        <v>13.882352941176471</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>8</v>
+      </c>
+      <c r="H18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18">
+        <v>444</v>
+      </c>
+      <c r="K18">
+        <f>AVERAGE($G$1:G18)</f>
+        <v>13.555555555555555</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>14</v>
+      </c>
+      <c r="H19" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19">
+        <v>525</v>
+      </c>
+      <c r="K19">
+        <f>AVERAGE($G$1:G19)</f>
+        <v>13.578947368421053</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20">
+        <v>762</v>
+      </c>
+      <c r="K20">
+        <f>AVERAGE($G$1:G20)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <v>8</v>
+      </c>
+      <c r="H21" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21">
+        <v>655</v>
+      </c>
+      <c r="K21">
+        <f>AVERAGE($G$1:G21)</f>
+        <v>12.761904761904763</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>14</v>
+      </c>
+      <c r="H22" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22">
+        <v>559</v>
+      </c>
+      <c r="K22">
+        <f>AVERAGE($G$1:G22)</f>
+        <v>12.818181818181818</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <v>10</v>
+      </c>
+      <c r="H23" t="s">
+        <v>4</v>
+      </c>
+      <c r="I23">
+        <v>374</v>
+      </c>
+      <c r="K23">
+        <f>AVERAGE($G$1:G23)</f>
+        <v>12.695652173913043</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24">
+        <v>640</v>
+      </c>
+      <c r="K24">
+        <f>AVERAGE($G$1:G24)</f>
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25">
+        <v>18</v>
+      </c>
+      <c r="H25" t="s">
+        <v>4</v>
+      </c>
+      <c r="I25">
+        <v>1000</v>
+      </c>
+      <c r="K25">
+        <f>AVERAGE($G$1:G25)</f>
+        <v>12.48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>10</v>
+      </c>
+      <c r="H26" t="s">
+        <v>4</v>
+      </c>
+      <c r="I26">
+        <v>813</v>
+      </c>
+      <c r="K26">
+        <f>AVERAGE($G$1:G26)</f>
+        <v>12.384615384615385</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27">
+        <v>16</v>
+      </c>
+      <c r="H27" t="s">
+        <v>4</v>
+      </c>
+      <c r="I27">
+        <v>819</v>
+      </c>
+      <c r="K27">
+        <f>AVERAGE($G$1:G27)</f>
+        <v>12.518518518518519</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <v>12</v>
+      </c>
+      <c r="H28" t="s">
+        <v>4</v>
+      </c>
+      <c r="I28">
+        <v>815</v>
+      </c>
+      <c r="K28">
+        <f>AVERAGE($G$1:G28)</f>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29">
+        <v>10</v>
+      </c>
+      <c r="H29" t="s">
+        <v>4</v>
+      </c>
+      <c r="I29">
+        <v>435</v>
+      </c>
+      <c r="K29">
+        <f>AVERAGE($G$1:G29)</f>
+        <v>12.413793103448276</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30">
+        <v>10</v>
+      </c>
+      <c r="H30" t="s">
+        <v>4</v>
+      </c>
+      <c r="I30">
+        <v>1000</v>
+      </c>
+      <c r="K30">
+        <f>AVERAGE($G$1:G30)</f>
+        <v>12.333333333333334</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31">
+        <v>8</v>
+      </c>
+      <c r="H31" t="s">
+        <v>4</v>
+      </c>
+      <c r="I31">
+        <v>412</v>
+      </c>
+      <c r="K31">
+        <f>AVERAGE($G$1:G31)</f>
+        <v>12.193548387096774</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32">
+        <v>8</v>
+      </c>
+      <c r="H32" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32">
+        <v>1000</v>
+      </c>
+      <c r="K32">
+        <f>AVERAGE($G$1:G32)</f>
+        <v>12.0625</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33">
+        <v>22</v>
+      </c>
+      <c r="H33" t="s">
+        <v>4</v>
+      </c>
+      <c r="I33">
+        <v>1000</v>
+      </c>
+      <c r="K33">
+        <f>AVERAGE($G$1:G33)</f>
+        <v>12.363636363636363</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34">
+        <v>4</v>
+      </c>
+      <c r="H34" t="s">
+        <v>4</v>
+      </c>
+      <c r="I34">
+        <v>506</v>
+      </c>
+      <c r="K34">
+        <f>AVERAGE($G$1:G34)</f>
+        <v>12.117647058823529</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35">
+        <v>10</v>
+      </c>
+      <c r="H35" t="s">
+        <v>4</v>
+      </c>
+      <c r="I35">
+        <v>418</v>
+      </c>
+      <c r="K35">
+        <f>AVERAGE($G$1:G35)</f>
+        <v>12.057142857142857</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36">
+        <v>26</v>
+      </c>
+      <c r="H36" t="s">
+        <v>4</v>
+      </c>
+      <c r="I36">
+        <v>358</v>
+      </c>
+      <c r="K36">
+        <f>AVERAGE($G$1:G36)</f>
+        <v>12.444444444444445</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37" t="s">
+        <v>3</v>
+      </c>
+      <c r="G37">
+        <v>18</v>
+      </c>
+      <c r="H37" t="s">
+        <v>4</v>
+      </c>
+      <c r="I37">
+        <v>908</v>
+      </c>
+      <c r="K37">
+        <f>AVERAGE($G$1:G37)</f>
+        <v>12.594594594594595</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38">
+        <v>24</v>
+      </c>
+      <c r="H38" t="s">
+        <v>4</v>
+      </c>
+      <c r="I38">
+        <v>1000</v>
+      </c>
+      <c r="K38">
+        <f>AVERAGE($G$1:G38)</f>
+        <v>12.894736842105264</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39" t="s">
+        <v>3</v>
+      </c>
+      <c r="G39">
+        <v>42</v>
+      </c>
+      <c r="H39" t="s">
+        <v>4</v>
+      </c>
+      <c r="I39">
+        <v>1000</v>
+      </c>
+      <c r="K39">
+        <f>AVERAGE($G$1:G39)</f>
+        <v>13.641025641025641</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>3</v>
+      </c>
+      <c r="G40">
+        <v>10</v>
+      </c>
+      <c r="H40" t="s">
+        <v>4</v>
+      </c>
+      <c r="I40">
+        <v>546</v>
+      </c>
+      <c r="K40">
+        <f>AVERAGE($G$1:G40)</f>
+        <v>13.55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41">
+        <v>6</v>
+      </c>
+      <c r="H41" t="s">
+        <v>4</v>
+      </c>
+      <c r="I41">
+        <v>1000</v>
+      </c>
+      <c r="K41">
+        <f>AVERAGE($G$1:G41)</f>
+        <v>13.365853658536585</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42">
+        <v>18</v>
+      </c>
+      <c r="H42" t="s">
+        <v>4</v>
+      </c>
+      <c r="I42">
+        <v>650</v>
+      </c>
+      <c r="K42">
+        <f>AVERAGE($G$1:G42)</f>
+        <v>13.476190476190476</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43">
+        <v>16</v>
+      </c>
+      <c r="H43" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43">
+        <v>776</v>
+      </c>
+      <c r="K43">
+        <f>AVERAGE($G$1:G43)</f>
+        <v>13.534883720930232</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44">
+        <v>12</v>
+      </c>
+      <c r="H44" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44">
+        <v>1000</v>
+      </c>
+      <c r="K44">
+        <f>AVERAGE($G$1:G44)</f>
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G45">
+        <v>12</v>
+      </c>
+      <c r="H45" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45">
+        <v>1000</v>
+      </c>
+      <c r="K45">
+        <f>AVERAGE($G$1:G45)</f>
+        <v>13.466666666666667</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46" t="s">
+        <v>3</v>
+      </c>
+      <c r="G46">
+        <v>14</v>
+      </c>
+      <c r="H46" t="s">
+        <v>4</v>
+      </c>
+      <c r="I46">
+        <v>750</v>
+      </c>
+      <c r="K46">
+        <f>AVERAGE($G$1:G46)</f>
+        <v>13.478260869565217</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47">
+        <v>12</v>
+      </c>
+      <c r="H47" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47">
+        <v>775</v>
+      </c>
+      <c r="K47">
+        <f>AVERAGE($G$1:G47)</f>
+        <v>13.446808510638299</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48">
+        <v>24</v>
+      </c>
+      <c r="H48" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48">
+        <v>1000</v>
+      </c>
+      <c r="K48">
+        <f>AVERAGE($G$1:G48)</f>
+        <v>13.666666666666666</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49">
+        <v>8</v>
+      </c>
+      <c r="H49" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49">
+        <v>429</v>
+      </c>
+      <c r="K49">
+        <f>AVERAGE($G$1:G49)</f>
+        <v>13.551020408163266</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50" t="s">
+        <v>3</v>
+      </c>
+      <c r="G50">
+        <v>24</v>
+      </c>
+      <c r="H50" t="s">
+        <v>4</v>
+      </c>
+      <c r="I50">
+        <v>1000</v>
+      </c>
+      <c r="K50">
+        <f>AVERAGE($G$1:G50)</f>
+        <v>13.76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51" t="s">
+        <v>3</v>
+      </c>
+      <c r="G51">
+        <v>6</v>
+      </c>
+      <c r="H51" t="s">
+        <v>4</v>
+      </c>
+      <c r="I51">
+        <v>395</v>
+      </c>
+      <c r="K51">
+        <f>AVERAGE($G$1:G51)</f>
+        <v>13.607843137254902</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52">
+        <v>22</v>
+      </c>
+      <c r="H52" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52">
+        <v>828</v>
+      </c>
+      <c r="K52">
+        <f>AVERAGE($G$1:G52)</f>
+        <v>13.76923076923077</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53" t="s">
+        <v>3</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+      <c r="H53" t="s">
+        <v>4</v>
+      </c>
+      <c r="I53">
+        <v>625</v>
+      </c>
+      <c r="K53">
+        <f>AVERAGE($G$1:G53)</f>
+        <v>13.547169811320755</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54" t="s">
+        <v>3</v>
+      </c>
+      <c r="G54">
+        <v>8</v>
+      </c>
+      <c r="H54" t="s">
+        <v>4</v>
+      </c>
+      <c r="I54">
+        <v>736</v>
+      </c>
+      <c r="K54">
+        <f>AVERAGE($G$1:G54)</f>
+        <v>13.444444444444445</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55" t="s">
+        <v>3</v>
+      </c>
+      <c r="G55">
+        <v>12</v>
+      </c>
+      <c r="H55" t="s">
+        <v>4</v>
+      </c>
+      <c r="I55">
+        <v>1000</v>
+      </c>
+      <c r="K55">
+        <f>AVERAGE($G$1:G55)</f>
+        <v>13.418181818181818</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56" t="s">
+        <v>3</v>
+      </c>
+      <c r="G56">
+        <v>14</v>
+      </c>
+      <c r="H56" t="s">
+        <v>4</v>
+      </c>
+      <c r="I56">
+        <v>1000</v>
+      </c>
+      <c r="K56">
+        <f>AVERAGE($G$1:G56)</f>
+        <v>13.428571428571429</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57">
+        <v>14</v>
+      </c>
+      <c r="H57" t="s">
+        <v>4</v>
+      </c>
+      <c r="I57">
+        <v>1000</v>
+      </c>
+      <c r="K57">
+        <f>AVERAGE($G$1:G57)</f>
+        <v>13.43859649122807</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58" t="s">
+        <v>2</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58">
+        <v>20</v>
+      </c>
+      <c r="H58" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58">
+        <v>499</v>
+      </c>
+      <c r="K58">
+        <f>AVERAGE($G$1:G58)</f>
+        <v>13.551724137931034</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s">
+        <v>2</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59" t="s">
+        <v>3</v>
+      </c>
+      <c r="G59">
+        <v>2</v>
+      </c>
+      <c r="H59" t="s">
+        <v>4</v>
+      </c>
+      <c r="I59">
+        <v>625</v>
+      </c>
+      <c r="K59">
+        <f>AVERAGE($G$1:G59)</f>
+        <v>13.35593220338983</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60" t="s">
+        <v>3</v>
+      </c>
+      <c r="G60">
+        <v>10</v>
+      </c>
+      <c r="H60" t="s">
+        <v>4</v>
+      </c>
+      <c r="I60">
+        <v>1000</v>
+      </c>
+      <c r="K60">
+        <f>AVERAGE($G$1:G60)</f>
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61" t="s">
+        <v>2</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61" t="s">
+        <v>3</v>
+      </c>
+      <c r="G61">
+        <v>10</v>
+      </c>
+      <c r="H61" t="s">
+        <v>4</v>
+      </c>
+      <c r="I61">
+        <v>1000</v>
+      </c>
+      <c r="K61">
+        <f>AVERAGE($G$1:G61)</f>
+        <v>13.245901639344263</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1</v>
+      </c>
+      <c r="D62" t="s">
+        <v>2</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62">
+        <v>10</v>
+      </c>
+      <c r="H62" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62">
+        <v>1000</v>
+      </c>
+      <c r="K62">
+        <f>AVERAGE($G$1:G62)</f>
+        <v>13.193548387096774</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" t="s">
+        <v>2</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63" t="s">
+        <v>3</v>
+      </c>
+      <c r="G63">
+        <v>2</v>
+      </c>
+      <c r="H63" t="s">
+        <v>4</v>
+      </c>
+      <c r="I63">
+        <v>454</v>
+      </c>
+      <c r="K63">
+        <f>AVERAGE($G$1:G63)</f>
+        <v>13.015873015873016</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1</v>
+      </c>
+      <c r="D64" t="s">
+        <v>2</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64" t="s">
+        <v>3</v>
+      </c>
+      <c r="G64">
+        <v>10</v>
+      </c>
+      <c r="H64" t="s">
+        <v>4</v>
+      </c>
+      <c r="I64">
+        <v>422</v>
+      </c>
+      <c r="K64">
+        <f>AVERAGE($G$1:G64)</f>
+        <v>12.96875</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1</v>
+      </c>
+      <c r="D65" t="s">
+        <v>2</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65" t="s">
+        <v>3</v>
+      </c>
+      <c r="G65">
+        <v>6</v>
+      </c>
+      <c r="H65" t="s">
+        <v>4</v>
+      </c>
+      <c r="I65">
+        <v>491</v>
+      </c>
+      <c r="K65">
+        <f>AVERAGE($G$1:G65)</f>
+        <v>12.861538461538462</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1</v>
+      </c>
+      <c r="D66" t="s">
+        <v>2</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66" t="s">
+        <v>3</v>
+      </c>
+      <c r="G66">
+        <v>12</v>
+      </c>
+      <c r="H66" t="s">
+        <v>4</v>
+      </c>
+      <c r="I66">
+        <v>1000</v>
+      </c>
+      <c r="K66">
+        <f>AVERAGE($G$1:G66)</f>
+        <v>12.848484848484848</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1</v>
+      </c>
+      <c r="D67" t="s">
+        <v>2</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67" t="s">
+        <v>3</v>
+      </c>
+      <c r="G67">
+        <v>12</v>
+      </c>
+      <c r="H67" t="s">
+        <v>4</v>
+      </c>
+      <c r="I67">
+        <v>569</v>
+      </c>
+      <c r="K67">
+        <f>AVERAGE($G$1:G67)</f>
+        <v>12.835820895522389</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1</v>
+      </c>
+      <c r="D68" t="s">
+        <v>2</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68" t="s">
+        <v>3</v>
+      </c>
+      <c r="G68">
+        <v>14</v>
+      </c>
+      <c r="H68" t="s">
+        <v>4</v>
+      </c>
+      <c r="I68">
+        <v>864</v>
+      </c>
+      <c r="K68">
+        <f>AVERAGE($G$1:G68)</f>
+        <v>12.852941176470589</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1</v>
+      </c>
+      <c r="D69" t="s">
+        <v>2</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69" t="s">
+        <v>3</v>
+      </c>
+      <c r="G69">
+        <v>4</v>
+      </c>
+      <c r="H69" t="s">
+        <v>4</v>
+      </c>
+      <c r="I69">
+        <v>495</v>
+      </c>
+      <c r="K69">
+        <f>AVERAGE($G$1:G69)</f>
+        <v>12.72463768115942</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1</v>
+      </c>
+      <c r="D70" t="s">
+        <v>2</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70" t="s">
+        <v>3</v>
+      </c>
+      <c r="G70">
+        <v>4</v>
+      </c>
+      <c r="H70" t="s">
+        <v>4</v>
+      </c>
+      <c r="I70">
+        <v>1000</v>
+      </c>
+      <c r="K70">
+        <f>AVERAGE($G$1:G70)</f>
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1</v>
+      </c>
+      <c r="D71" t="s">
+        <v>2</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71" t="s">
+        <v>3</v>
+      </c>
+      <c r="G71">
+        <v>6</v>
+      </c>
+      <c r="H71" t="s">
+        <v>4</v>
+      </c>
+      <c r="I71">
+        <v>646</v>
+      </c>
+      <c r="K71">
+        <f>AVERAGE($G$1:G71)</f>
+        <v>12.507042253521126</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1</v>
+      </c>
+      <c r="D72" t="s">
+        <v>2</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72" t="s">
+        <v>3</v>
+      </c>
+      <c r="G72">
+        <v>30</v>
+      </c>
+      <c r="H72" t="s">
+        <v>4</v>
+      </c>
+      <c r="I72">
+        <v>1000</v>
+      </c>
+      <c r="K72">
+        <f>AVERAGE($G$1:G72)</f>
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>0</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1</v>
+      </c>
+      <c r="D73" t="s">
+        <v>2</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73" t="s">
+        <v>3</v>
+      </c>
+      <c r="G73">
+        <v>18</v>
+      </c>
+      <c r="H73" t="s">
+        <v>4</v>
+      </c>
+      <c r="I73">
+        <v>456</v>
+      </c>
+      <c r="K73">
+        <f>AVERAGE($G$1:G73)</f>
+        <v>12.821917808219178</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>0</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1</v>
+      </c>
+      <c r="D74" t="s">
+        <v>2</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74" t="s">
+        <v>3</v>
+      </c>
+      <c r="G74">
+        <v>24</v>
+      </c>
+      <c r="H74" t="s">
+        <v>4</v>
+      </c>
+      <c r="I74">
+        <v>490</v>
+      </c>
+      <c r="K74">
+        <f>AVERAGE($G$1:G74)</f>
+        <v>12.972972972972974</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1</v>
+      </c>
+      <c r="D75" t="s">
+        <v>2</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75" t="s">
+        <v>3</v>
+      </c>
+      <c r="G75">
+        <v>14</v>
+      </c>
+      <c r="H75" t="s">
+        <v>4</v>
+      </c>
+      <c r="I75">
+        <v>564</v>
+      </c>
+      <c r="K75">
+        <f>AVERAGE($G$1:G75)</f>
+        <v>12.986666666666666</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>0</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1</v>
+      </c>
+      <c r="D76" t="s">
+        <v>2</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76" t="s">
+        <v>3</v>
+      </c>
+      <c r="G76">
+        <v>2</v>
+      </c>
+      <c r="H76" t="s">
+        <v>4</v>
+      </c>
+      <c r="I76">
+        <v>1000</v>
+      </c>
+      <c r="K76">
+        <f>AVERAGE($G$1:G76)</f>
+        <v>12.842105263157896</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1</v>
+      </c>
+      <c r="D77" t="s">
+        <v>2</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77" t="s">
+        <v>3</v>
+      </c>
+      <c r="G77">
+        <v>16</v>
+      </c>
+      <c r="H77" t="s">
+        <v>4</v>
+      </c>
+      <c r="I77">
+        <v>929</v>
+      </c>
+      <c r="K77">
+        <f>AVERAGE($G$1:G77)</f>
+        <v>12.883116883116884</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1</v>
+      </c>
+      <c r="D78" t="s">
+        <v>2</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78" t="s">
+        <v>3</v>
+      </c>
+      <c r="G78">
+        <v>8</v>
+      </c>
+      <c r="H78" t="s">
+        <v>4</v>
+      </c>
+      <c r="I78">
+        <v>491</v>
+      </c>
+      <c r="K78">
+        <f>AVERAGE($G$1:G78)</f>
+        <v>12.820512820512821</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>0</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1</v>
+      </c>
+      <c r="D79" t="s">
+        <v>2</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79" t="s">
+        <v>3</v>
+      </c>
+      <c r="G79">
+        <v>14</v>
+      </c>
+      <c r="H79" t="s">
+        <v>4</v>
+      </c>
+      <c r="I79">
+        <v>651</v>
+      </c>
+      <c r="K79">
+        <f>AVERAGE($G$1:G79)</f>
+        <v>12.835443037974683</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>0</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1</v>
+      </c>
+      <c r="D80" t="s">
+        <v>2</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80" t="s">
+        <v>3</v>
+      </c>
+      <c r="G80">
+        <v>6</v>
+      </c>
+      <c r="H80" t="s">
+        <v>4</v>
+      </c>
+      <c r="I80">
+        <v>800</v>
+      </c>
+      <c r="K80">
+        <f>AVERAGE($G$1:G80)</f>
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>0</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1</v>
+      </c>
+      <c r="D81" t="s">
+        <v>2</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81" t="s">
+        <v>3</v>
+      </c>
+      <c r="G81">
+        <v>6</v>
+      </c>
+      <c r="H81" t="s">
+        <v>4</v>
+      </c>
+      <c r="I81">
+        <v>281</v>
+      </c>
+      <c r="K81">
+        <f>AVERAGE($G$1:G81)</f>
+        <v>12.666666666666666</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>0</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1</v>
+      </c>
+      <c r="D82" t="s">
+        <v>2</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82" t="s">
+        <v>3</v>
+      </c>
+      <c r="G82">
+        <v>10</v>
+      </c>
+      <c r="H82" t="s">
+        <v>4</v>
+      </c>
+      <c r="I82">
+        <v>400</v>
+      </c>
+      <c r="K82">
+        <f>AVERAGE($G$1:G82)</f>
+        <v>12.634146341463415</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>0</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1</v>
+      </c>
+      <c r="D83" t="s">
+        <v>2</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83">
+        <v>10</v>
+      </c>
+      <c r="H83" t="s">
+        <v>4</v>
+      </c>
+      <c r="I83">
+        <v>308</v>
+      </c>
+      <c r="K83">
+        <f>AVERAGE($G$1:G83)</f>
+        <v>12.602409638554217</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>0</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1</v>
+      </c>
+      <c r="D84" t="s">
+        <v>2</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84" t="s">
+        <v>3</v>
+      </c>
+      <c r="G84">
+        <v>28</v>
+      </c>
+      <c r="H84" t="s">
+        <v>4</v>
+      </c>
+      <c r="I84">
+        <v>596</v>
+      </c>
+      <c r="K84">
+        <f>AVERAGE($G$1:G84)</f>
+        <v>12.785714285714286</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>0</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1</v>
+      </c>
+      <c r="D85" t="s">
+        <v>2</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85" t="s">
+        <v>3</v>
+      </c>
+      <c r="G85">
+        <v>18</v>
+      </c>
+      <c r="H85" t="s">
+        <v>4</v>
+      </c>
+      <c r="I85">
+        <v>994</v>
+      </c>
+      <c r="K85">
+        <f>AVERAGE($G$1:G85)</f>
+        <v>12.847058823529412</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>0</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1</v>
+      </c>
+      <c r="D86" t="s">
+        <v>2</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86" t="s">
+        <v>3</v>
+      </c>
+      <c r="G86">
+        <v>2</v>
+      </c>
+      <c r="H86" t="s">
+        <v>4</v>
+      </c>
+      <c r="I86">
+        <v>640</v>
+      </c>
+      <c r="K86">
+        <f>AVERAGE($G$1:G86)</f>
+        <v>12.720930232558139</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>0</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1</v>
+      </c>
+      <c r="D87" t="s">
+        <v>2</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87" t="s">
+        <v>3</v>
+      </c>
+      <c r="G87">
+        <v>2</v>
+      </c>
+      <c r="H87" t="s">
+        <v>4</v>
+      </c>
+      <c r="I87">
+        <v>640</v>
+      </c>
+      <c r="K87">
+        <f>AVERAGE($G$1:G87)</f>
+        <v>12.597701149425287</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>0</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1</v>
+      </c>
+      <c r="D88" t="s">
+        <v>2</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88" t="s">
+        <v>3</v>
+      </c>
+      <c r="G88">
+        <v>18</v>
+      </c>
+      <c r="H88" t="s">
+        <v>4</v>
+      </c>
+      <c r="I88">
+        <v>830</v>
+      </c>
+      <c r="K88">
+        <f>AVERAGE($G$1:G88)</f>
+        <v>12.659090909090908</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>0</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1</v>
+      </c>
+      <c r="D89" t="s">
+        <v>2</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89" t="s">
+        <v>3</v>
+      </c>
+      <c r="G89">
+        <v>32</v>
+      </c>
+      <c r="H89" t="s">
+        <v>4</v>
+      </c>
+      <c r="I89">
+        <v>956</v>
+      </c>
+      <c r="K89">
+        <f>AVERAGE($G$1:G89)</f>
+        <v>12.876404494382022</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>0</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1</v>
+      </c>
+      <c r="D90" t="s">
+        <v>2</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90" t="s">
+        <v>3</v>
+      </c>
+      <c r="G90">
+        <v>14</v>
+      </c>
+      <c r="H90" t="s">
+        <v>4</v>
+      </c>
+      <c r="I90">
+        <v>628</v>
+      </c>
+      <c r="K90">
+        <f>AVERAGE($G$1:G90)</f>
+        <v>12.888888888888889</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>0</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1</v>
+      </c>
+      <c r="D91" t="s">
+        <v>2</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91">
+        <v>32</v>
+      </c>
+      <c r="H91" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91">
+        <v>1000</v>
+      </c>
+      <c r="K91">
+        <f>AVERAGE($G$1:G91)</f>
+        <v>13.098901098901099</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>0</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1</v>
+      </c>
+      <c r="D92" t="s">
+        <v>2</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92" t="s">
+        <v>3</v>
+      </c>
+      <c r="G92">
+        <v>18</v>
+      </c>
+      <c r="H92" t="s">
+        <v>4</v>
+      </c>
+      <c r="I92">
+        <v>552</v>
+      </c>
+      <c r="K92">
+        <f>AVERAGE($G$1:G92)</f>
+        <v>13.152173913043478</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>0</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1</v>
+      </c>
+      <c r="D93" t="s">
+        <v>2</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93" t="s">
+        <v>3</v>
+      </c>
+      <c r="G93">
+        <v>4</v>
+      </c>
+      <c r="H93" t="s">
+        <v>4</v>
+      </c>
+      <c r="I93">
+        <v>1000</v>
+      </c>
+      <c r="K93">
+        <f>AVERAGE($G$1:G93)</f>
+        <v>13.053763440860216</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>0</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1</v>
+      </c>
+      <c r="D94" t="s">
+        <v>2</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94" t="s">
+        <v>3</v>
+      </c>
+      <c r="G94">
+        <v>18</v>
+      </c>
+      <c r="H94" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94">
+        <v>627</v>
+      </c>
+      <c r="K94">
+        <f>AVERAGE($G$1:G94)</f>
+        <v>13.106382978723405</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>0</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1</v>
+      </c>
+      <c r="D95" t="s">
+        <v>2</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95" t="s">
+        <v>3</v>
+      </c>
+      <c r="G95">
+        <v>12</v>
+      </c>
+      <c r="H95" t="s">
+        <v>4</v>
+      </c>
+      <c r="I95">
+        <v>1000</v>
+      </c>
+      <c r="K95">
+        <f>AVERAGE($G$1:G95)</f>
+        <v>13.094736842105263</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>0</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1</v>
+      </c>
+      <c r="D96" t="s">
+        <v>2</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96" t="s">
+        <v>3</v>
+      </c>
+      <c r="G96">
+        <v>10</v>
+      </c>
+      <c r="H96" t="s">
+        <v>4</v>
+      </c>
+      <c r="I96">
+        <v>1000</v>
+      </c>
+      <c r="K96">
+        <f>AVERAGE($G$1:G96)</f>
+        <v>13.0625</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>0</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1</v>
+      </c>
+      <c r="D97" t="s">
+        <v>2</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97" t="s">
+        <v>3</v>
+      </c>
+      <c r="G97">
+        <v>10</v>
+      </c>
+      <c r="H97" t="s">
+        <v>4</v>
+      </c>
+      <c r="I97">
+        <v>753</v>
+      </c>
+      <c r="K97">
+        <f>AVERAGE($G$1:G97)</f>
+        <v>13.030927835051546</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1</v>
+      </c>
+      <c r="D98" t="s">
+        <v>2</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98" t="s">
+        <v>3</v>
+      </c>
+      <c r="G98">
+        <v>8</v>
+      </c>
+      <c r="H98" t="s">
+        <v>4</v>
+      </c>
+      <c r="I98">
+        <v>413</v>
+      </c>
+      <c r="K98">
+        <f>AVERAGE($G$1:G98)</f>
+        <v>12.979591836734693</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>0</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1</v>
+      </c>
+      <c r="D99" t="s">
+        <v>2</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99" t="s">
+        <v>3</v>
+      </c>
+      <c r="G99">
+        <v>22</v>
+      </c>
+      <c r="H99" t="s">
+        <v>4</v>
+      </c>
+      <c r="I99">
+        <v>1000</v>
+      </c>
+      <c r="K99">
+        <f>AVERAGE($G$1:G99)</f>
+        <v>13.070707070707071</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>0</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1</v>
+      </c>
+      <c r="D100" t="s">
+        <v>2</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100" t="s">
+        <v>3</v>
+      </c>
+      <c r="G100">
+        <v>6</v>
+      </c>
+      <c r="H100" t="s">
+        <v>4</v>
+      </c>
+      <c r="I100">
+        <v>645</v>
+      </c>
+      <c r="K100">
+        <f>AVERAGE($G$1:G100)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="B101" t="s">
+        <v>0</v>
+      </c>
+      <c r="C101" t="s">
+        <v>1</v>
+      </c>
+      <c r="D101" t="s">
+        <v>2</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101" t="s">
+        <v>3</v>
+      </c>
+      <c r="G101">
+        <v>10</v>
+      </c>
+      <c r="H101" t="s">
+        <v>4</v>
+      </c>
+      <c r="I101">
+        <v>411</v>
+      </c>
+      <c r="K101">
+        <f>AVERAGE($G$1:G101)</f>
+        <v>12.970297029702971</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B101" sqref="B101:I101"/>
     </sheetView>
   </sheetViews>
@@ -7439,13 +10801,13 @@
         <v>3</v>
       </c>
       <c r="G1">
-        <v>34</v>
+        <v>-1</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
       </c>
       <c r="I1">
-        <v>1000</v>
+        <v>911</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>5</v>
@@ -7471,17 +10833,17 @@
         <v>3</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="H2" t="s">
         <v>4</v>
       </c>
       <c r="I2">
-        <v>465</v>
+        <v>343</v>
       </c>
       <c r="K2">
         <f>AVERAGE($G$1:G2)</f>
-        <v>19</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -7504,17 +10866,17 @@
         <v>3</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="H3" t="s">
         <v>4</v>
       </c>
       <c r="I3">
-        <v>962</v>
+        <v>763</v>
       </c>
       <c r="K3">
         <f>AVERAGE($G$1:G3)</f>
-        <v>19.333333333333332</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -7537,17 +10899,17 @@
         <v>3</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="H4" t="s">
         <v>4</v>
       </c>
       <c r="I4">
-        <v>589</v>
+        <v>763</v>
       </c>
       <c r="K4">
         <f>AVERAGE($G$1:G4)</f>
-        <v>17.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -7570,7 +10932,7 @@
         <v>3</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H5" t="s">
         <v>4</v>
@@ -7580,7 +10942,7 @@
       </c>
       <c r="K5">
         <f>AVERAGE($G$1:G5)</f>
-        <v>16</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -7603,7 +10965,7 @@
         <v>3</v>
       </c>
       <c r="G6">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H6" t="s">
         <v>4</v>
@@ -7613,7 +10975,7 @@
       </c>
       <c r="K6">
         <f>AVERAGE($G$1:G6)</f>
-        <v>15.333333333333334</v>
+        <v>-0.66666666666666663</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -7636,17 +10998,17 @@
         <v>3</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="H7" t="s">
         <v>4</v>
       </c>
       <c r="I7">
-        <v>1000</v>
+        <v>763</v>
       </c>
       <c r="K7">
         <f>AVERAGE($G$1:G7)</f>
-        <v>14</v>
+        <v>-0.7142857142857143</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -7669,7 +11031,7 @@
         <v>3</v>
       </c>
       <c r="G8">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H8" t="s">
         <v>4</v>
@@ -7679,7 +11041,7 @@
       </c>
       <c r="K8">
         <f>AVERAGE($G$1:G8)</f>
-        <v>14</v>
+        <v>-0.625</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -7702,7 +11064,7 @@
         <v>3</v>
       </c>
       <c r="G9">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H9" t="s">
         <v>4</v>
@@ -7712,7 +11074,7 @@
       </c>
       <c r="K9">
         <f>AVERAGE($G$1:G9)</f>
-        <v>14.444444444444445</v>
+        <v>-0.55555555555555558</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -7735,7 +11097,7 @@
         <v>3</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="H10" t="s">
         <v>4</v>
@@ -7745,7 +11107,7 @@
       </c>
       <c r="K10">
         <f>AVERAGE($G$1:G10)</f>
-        <v>14.4</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -7768,17 +11130,17 @@
         <v>3</v>
       </c>
       <c r="G11">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="H11" t="s">
         <v>4</v>
       </c>
       <c r="I11">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="K11">
         <f>AVERAGE($G$1:G11)</f>
-        <v>13.454545454545455</v>
+        <v>-0.36363636363636365</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -7801,17 +11163,17 @@
         <v>3</v>
       </c>
       <c r="G12">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H12" t="s">
         <v>4</v>
       </c>
       <c r="I12">
-        <v>581</v>
+        <v>1000</v>
       </c>
       <c r="K12">
         <f>AVERAGE($G$1:G12)</f>
-        <v>13.833333333333334</v>
+        <v>-0.33333333333333331</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -7834,17 +11196,17 @@
         <v>3</v>
       </c>
       <c r="G13">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H13" t="s">
         <v>4</v>
       </c>
       <c r="I13">
-        <v>587</v>
+        <v>1000</v>
       </c>
       <c r="K13">
         <f>AVERAGE($G$1:G13)</f>
-        <v>13.384615384615385</v>
+        <v>-0.15384615384615385</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -7867,17 +11229,17 @@
         <v>3</v>
       </c>
       <c r="G14">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="H14" t="s">
         <v>4</v>
       </c>
       <c r="I14">
-        <v>598</v>
+        <v>935</v>
       </c>
       <c r="K14">
         <f>AVERAGE($G$1:G14)</f>
-        <v>13.285714285714286</v>
+        <v>-0.21428571428571427</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -7900,17 +11262,17 @@
         <v>3</v>
       </c>
       <c r="G15">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H15" t="s">
         <v>4</v>
       </c>
       <c r="I15">
-        <v>472</v>
+        <v>1000</v>
       </c>
       <c r="K15">
         <f>AVERAGE($G$1:G15)</f>
-        <v>13.2</v>
+        <v>-6.6666666666666666E-2</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -7933,17 +11295,17 @@
         <v>3</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="H16" t="s">
         <v>4</v>
       </c>
       <c r="I16">
-        <v>303</v>
+        <v>763</v>
       </c>
       <c r="K16">
         <f>AVERAGE($G$1:G16)</f>
-        <v>12.5</v>
+        <v>-0.125</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -7966,17 +11328,17 @@
         <v>3</v>
       </c>
       <c r="G17">
-        <v>36</v>
+        <v>-1</v>
       </c>
       <c r="H17" t="s">
         <v>4</v>
       </c>
       <c r="I17">
-        <v>927</v>
+        <v>279</v>
       </c>
       <c r="K17">
         <f>AVERAGE($G$1:G17)</f>
-        <v>13.882352941176471</v>
+        <v>-0.17647058823529413</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -7999,17 +11361,17 @@
         <v>3</v>
       </c>
       <c r="G18">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="H18" t="s">
         <v>4</v>
       </c>
       <c r="I18">
-        <v>444</v>
+        <v>279</v>
       </c>
       <c r="K18">
         <f>AVERAGE($G$1:G18)</f>
-        <v>13.555555555555555</v>
+        <v>-0.22222222222222221</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -8032,17 +11394,17 @@
         <v>3</v>
       </c>
       <c r="G19">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="H19" t="s">
         <v>4</v>
       </c>
       <c r="I19">
-        <v>525</v>
+        <v>279</v>
       </c>
       <c r="K19">
         <f>AVERAGE($G$1:G19)</f>
-        <v>13.578947368421053</v>
+        <v>-0.26315789473684209</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -8065,17 +11427,17 @@
         <v>3</v>
       </c>
       <c r="G20">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="H20" t="s">
         <v>4</v>
       </c>
       <c r="I20">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="K20">
         <f>AVERAGE($G$1:G20)</f>
-        <v>13</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -8098,17 +11460,17 @@
         <v>3</v>
       </c>
       <c r="G21">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H21" t="s">
         <v>4</v>
       </c>
       <c r="I21">
-        <v>655</v>
+        <v>1000</v>
       </c>
       <c r="K21">
         <f>AVERAGE($G$1:G21)</f>
-        <v>12.761904761904763</v>
+        <v>-0.19047619047619047</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -8131,17 +11493,17 @@
         <v>3</v>
       </c>
       <c r="G22">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="H22" t="s">
         <v>4</v>
       </c>
       <c r="I22">
-        <v>559</v>
+        <v>763</v>
       </c>
       <c r="K22">
         <f>AVERAGE($G$1:G22)</f>
-        <v>12.818181818181818</v>
+        <v>-0.22727272727272727</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -8164,17 +11526,17 @@
         <v>3</v>
       </c>
       <c r="G23">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H23" t="s">
         <v>4</v>
       </c>
       <c r="I23">
-        <v>374</v>
+        <v>763</v>
       </c>
       <c r="K23">
         <f>AVERAGE($G$1:G23)</f>
-        <v>12.695652173913043</v>
+        <v>-0.2608695652173913</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -8197,17 +11559,17 @@
         <v>3</v>
       </c>
       <c r="G24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H24" t="s">
         <v>4</v>
       </c>
       <c r="I24">
-        <v>640</v>
+        <v>1000</v>
       </c>
       <c r="K24">
         <f>AVERAGE($G$1:G24)</f>
-        <v>12.25</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -8230,7 +11592,7 @@
         <v>3</v>
       </c>
       <c r="G25">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H25" t="s">
         <v>4</v>
@@ -8240,7 +11602,7 @@
       </c>
       <c r="K25">
         <f>AVERAGE($G$1:G25)</f>
-        <v>12.48</v>
+        <v>-0.24</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -8263,17 +11625,17 @@
         <v>3</v>
       </c>
       <c r="G26">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H26" t="s">
         <v>4</v>
       </c>
       <c r="I26">
-        <v>813</v>
+        <v>759</v>
       </c>
       <c r="K26">
         <f>AVERAGE($G$1:G26)</f>
-        <v>12.384615384615385</v>
+        <v>-0.26923076923076922</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -8296,17 +11658,17 @@
         <v>3</v>
       </c>
       <c r="G27">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H27" t="s">
         <v>4</v>
       </c>
       <c r="I27">
-        <v>819</v>
+        <v>1000</v>
       </c>
       <c r="K27">
         <f>AVERAGE($G$1:G27)</f>
-        <v>12.518518518518519</v>
+        <v>-0.25925925925925924</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -8329,17 +11691,17 @@
         <v>3</v>
       </c>
       <c r="G28">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="H28" t="s">
         <v>4</v>
       </c>
       <c r="I28">
-        <v>815</v>
+        <v>763</v>
       </c>
       <c r="K28">
         <f>AVERAGE($G$1:G28)</f>
-        <v>12.5</v>
+        <v>-0.2857142857142857</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -8362,17 +11724,17 @@
         <v>3</v>
       </c>
       <c r="G29">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H29" t="s">
         <v>4</v>
       </c>
       <c r="I29">
-        <v>435</v>
+        <v>1000</v>
       </c>
       <c r="K29">
         <f>AVERAGE($G$1:G29)</f>
-        <v>12.413793103448276</v>
+        <v>-0.27586206896551724</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -8395,17 +11757,17 @@
         <v>3</v>
       </c>
       <c r="G30">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H30" t="s">
         <v>4</v>
       </c>
       <c r="I30">
-        <v>1000</v>
+        <v>763</v>
       </c>
       <c r="K30">
         <f>AVERAGE($G$1:G30)</f>
-        <v>12.333333333333334</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -8428,17 +11790,17 @@
         <v>3</v>
       </c>
       <c r="G31">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H31" t="s">
         <v>4</v>
       </c>
       <c r="I31">
-        <v>412</v>
+        <v>1000</v>
       </c>
       <c r="K31">
         <f>AVERAGE($G$1:G31)</f>
-        <v>12.193548387096774</v>
+        <v>-0.22580645161290322</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -8461,17 +11823,17 @@
         <v>3</v>
       </c>
       <c r="G32">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="H32" t="s">
         <v>4</v>
       </c>
       <c r="I32">
-        <v>1000</v>
+        <v>911</v>
       </c>
       <c r="K32">
         <f>AVERAGE($G$1:G32)</f>
-        <v>12.0625</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -8494,17 +11856,17 @@
         <v>3</v>
       </c>
       <c r="G33">
-        <v>22</v>
+        <v>-1</v>
       </c>
       <c r="H33" t="s">
         <v>4</v>
       </c>
       <c r="I33">
-        <v>1000</v>
+        <v>303</v>
       </c>
       <c r="K33">
         <f>AVERAGE($G$1:G33)</f>
-        <v>12.363636363636363</v>
+        <v>-0.27272727272727271</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -8527,17 +11889,17 @@
         <v>3</v>
       </c>
       <c r="G34">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="H34" t="s">
         <v>4</v>
       </c>
       <c r="I34">
-        <v>506</v>
+        <v>763</v>
       </c>
       <c r="K34">
         <f>AVERAGE($G$1:G34)</f>
-        <v>12.117647058823529</v>
+        <v>-0.29411764705882354</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -8560,17 +11922,17 @@
         <v>3</v>
       </c>
       <c r="G35">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H35" t="s">
         <v>4</v>
       </c>
       <c r="I35">
-        <v>418</v>
+        <v>1000</v>
       </c>
       <c r="K35">
         <f>AVERAGE($G$1:G35)</f>
-        <v>12.057142857142857</v>
+        <v>-0.22857142857142856</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -8593,17 +11955,17 @@
         <v>3</v>
       </c>
       <c r="G36">
-        <v>26</v>
+        <v>-1</v>
       </c>
       <c r="H36" t="s">
         <v>4</v>
       </c>
       <c r="I36">
-        <v>358</v>
+        <v>771</v>
       </c>
       <c r="K36">
         <f>AVERAGE($G$1:G36)</f>
-        <v>12.444444444444445</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -8626,17 +11988,17 @@
         <v>3</v>
       </c>
       <c r="G37">
-        <v>18</v>
+        <v>-1</v>
       </c>
       <c r="H37" t="s">
         <v>4</v>
       </c>
       <c r="I37">
-        <v>908</v>
+        <v>763</v>
       </c>
       <c r="K37">
         <f>AVERAGE($G$1:G37)</f>
-        <v>12.594594594594595</v>
+        <v>-0.27027027027027029</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -8659,17 +12021,17 @@
         <v>3</v>
       </c>
       <c r="G38">
-        <v>24</v>
+        <v>-1</v>
       </c>
       <c r="H38" t="s">
         <v>4</v>
       </c>
       <c r="I38">
-        <v>1000</v>
+        <v>763</v>
       </c>
       <c r="K38">
         <f>AVERAGE($G$1:G38)</f>
-        <v>12.894736842105264</v>
+        <v>-0.28947368421052633</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -8692,17 +12054,17 @@
         <v>3</v>
       </c>
       <c r="G39">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="H39" t="s">
         <v>4</v>
       </c>
       <c r="I39">
-        <v>1000</v>
+        <v>679</v>
       </c>
       <c r="K39">
         <f>AVERAGE($G$1:G39)</f>
-        <v>13.641025641025641</v>
+        <v>-0.25641025641025639</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -8725,17 +12087,17 @@
         <v>3</v>
       </c>
       <c r="G40">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H40" t="s">
         <v>4</v>
       </c>
       <c r="I40">
-        <v>546</v>
+        <v>451</v>
       </c>
       <c r="K40">
         <f>AVERAGE($G$1:G40)</f>
-        <v>13.55</v>
+        <v>-0.22500000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -8758,7 +12120,7 @@
         <v>3</v>
       </c>
       <c r="G41">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H41" t="s">
         <v>4</v>
@@ -8768,7 +12130,7 @@
       </c>
       <c r="K41">
         <f>AVERAGE($G$1:G41)</f>
-        <v>13.365853658536585</v>
+        <v>-0.17073170731707318</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -8791,17 +12153,17 @@
         <v>3</v>
       </c>
       <c r="G42">
-        <v>18</v>
+        <v>-1</v>
       </c>
       <c r="H42" t="s">
         <v>4</v>
       </c>
       <c r="I42">
-        <v>650</v>
+        <v>759</v>
       </c>
       <c r="K42">
         <f>AVERAGE($G$1:G42)</f>
-        <v>13.476190476190476</v>
+        <v>-0.19047619047619047</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -8824,17 +12186,17 @@
         <v>3</v>
       </c>
       <c r="G43">
-        <v>16</v>
+        <v>-1</v>
       </c>
       <c r="H43" t="s">
         <v>4</v>
       </c>
       <c r="I43">
-        <v>776</v>
+        <v>763</v>
       </c>
       <c r="K43">
         <f>AVERAGE($G$1:G43)</f>
-        <v>13.534883720930232</v>
+        <v>-0.20930232558139536</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -8857,7 +12219,7 @@
         <v>3</v>
       </c>
       <c r="G44">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H44" t="s">
         <v>4</v>
@@ -8867,7 +12229,7 @@
       </c>
       <c r="K44">
         <f>AVERAGE($G$1:G44)</f>
-        <v>13.5</v>
+        <v>-0.15909090909090909</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -8890,17 +12252,17 @@
         <v>3</v>
       </c>
       <c r="G45">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="H45" t="s">
         <v>4</v>
       </c>
       <c r="I45">
-        <v>1000</v>
+        <v>763</v>
       </c>
       <c r="K45">
         <f>AVERAGE($G$1:G45)</f>
-        <v>13.466666666666667</v>
+        <v>-0.17777777777777778</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -8923,17 +12285,17 @@
         <v>3</v>
       </c>
       <c r="G46">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H46" t="s">
         <v>4</v>
       </c>
       <c r="I46">
-        <v>750</v>
+        <v>691</v>
       </c>
       <c r="K46">
         <f>AVERAGE($G$1:G46)</f>
-        <v>13.478260869565217</v>
+        <v>-0.15217391304347827</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -8956,17 +12318,17 @@
         <v>3</v>
       </c>
       <c r="G47">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H47" t="s">
         <v>4</v>
       </c>
       <c r="I47">
-        <v>775</v>
+        <v>547</v>
       </c>
       <c r="K47">
         <f>AVERAGE($G$1:G47)</f>
-        <v>13.446808510638299</v>
+        <v>-0.1276595744680851</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -8989,17 +12351,17 @@
         <v>3</v>
       </c>
       <c r="G48">
-        <v>24</v>
+        <v>-1</v>
       </c>
       <c r="H48" t="s">
         <v>4</v>
       </c>
       <c r="I48">
-        <v>1000</v>
+        <v>763</v>
       </c>
       <c r="K48">
         <f>AVERAGE($G$1:G48)</f>
-        <v>13.666666666666666</v>
+        <v>-0.14583333333333334</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -9022,17 +12384,17 @@
         <v>3</v>
       </c>
       <c r="G49">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="H49" t="s">
         <v>4</v>
       </c>
       <c r="I49">
-        <v>429</v>
+        <v>911</v>
       </c>
       <c r="K49">
         <f>AVERAGE($G$1:G49)</f>
-        <v>13.551020408163266</v>
+        <v>-0.16326530612244897</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -9055,17 +12417,17 @@
         <v>3</v>
       </c>
       <c r="G50">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="H50" t="s">
         <v>4</v>
       </c>
       <c r="I50">
-        <v>1000</v>
+        <v>463</v>
       </c>
       <c r="K50">
         <f>AVERAGE($G$1:G50)</f>
-        <v>13.76</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -9088,17 +12450,17 @@
         <v>3</v>
       </c>
       <c r="G51">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H51" t="s">
         <v>4</v>
       </c>
       <c r="I51">
-        <v>395</v>
+        <v>1000</v>
       </c>
       <c r="K51">
         <f>AVERAGE($G$1:G51)</f>
-        <v>13.607843137254902</v>
+        <v>-5.8823529411764705E-2</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -9121,17 +12483,17 @@
         <v>3</v>
       </c>
       <c r="G52">
-        <v>22</v>
+        <v>-1</v>
       </c>
       <c r="H52" t="s">
         <v>4</v>
       </c>
       <c r="I52">
-        <v>828</v>
+        <v>955</v>
       </c>
       <c r="K52">
         <f>AVERAGE($G$1:G52)</f>
-        <v>13.76923076923077</v>
+        <v>-7.6923076923076927E-2</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -9160,11 +12522,11 @@
         <v>4</v>
       </c>
       <c r="I53">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="K53">
         <f>AVERAGE($G$1:G53)</f>
-        <v>13.547169811320755</v>
+        <v>-3.7735849056603772E-2</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -9187,17 +12549,17 @@
         <v>3</v>
       </c>
       <c r="G54">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="H54" t="s">
         <v>4</v>
       </c>
       <c r="I54">
-        <v>736</v>
+        <v>955</v>
       </c>
       <c r="K54">
         <f>AVERAGE($G$1:G54)</f>
-        <v>13.444444444444445</v>
+        <v>-5.5555555555555552E-2</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -9220,17 +12582,17 @@
         <v>3</v>
       </c>
       <c r="G55">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="H55" t="s">
         <v>4</v>
       </c>
       <c r="I55">
-        <v>1000</v>
+        <v>455</v>
       </c>
       <c r="K55">
         <f>AVERAGE($G$1:G55)</f>
-        <v>13.418181818181818</v>
+        <v>-7.2727272727272724E-2</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -9253,7 +12615,7 @@
         <v>3</v>
       </c>
       <c r="G56">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H56" t="s">
         <v>4</v>
@@ -9263,7 +12625,7 @@
       </c>
       <c r="K56">
         <f>AVERAGE($G$1:G56)</f>
-        <v>13.428571428571429</v>
+        <v>-7.1428571428571425E-2</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -9286,17 +12648,17 @@
         <v>3</v>
       </c>
       <c r="G57">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="H57" t="s">
         <v>4</v>
       </c>
       <c r="I57">
-        <v>1000</v>
+        <v>303</v>
       </c>
       <c r="K57">
         <f>AVERAGE($G$1:G57)</f>
-        <v>13.43859649122807</v>
+        <v>-8.771929824561403E-2</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -9319,17 +12681,17 @@
         <v>3</v>
       </c>
       <c r="G58">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="H58" t="s">
         <v>4</v>
       </c>
       <c r="I58">
-        <v>499</v>
+        <v>1000</v>
       </c>
       <c r="K58">
         <f>AVERAGE($G$1:G58)</f>
-        <v>13.551724137931034</v>
+        <v>-5.1724137931034482E-2</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -9358,11 +12720,11 @@
         <v>4</v>
       </c>
       <c r="I59">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="K59">
         <f>AVERAGE($G$1:G59)</f>
-        <v>13.35593220338983</v>
+        <v>-1.6949152542372881E-2</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -9385,17 +12747,17 @@
         <v>3</v>
       </c>
       <c r="G60">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H60" t="s">
         <v>4</v>
       </c>
       <c r="I60">
-        <v>1000</v>
+        <v>763</v>
       </c>
       <c r="K60">
         <f>AVERAGE($G$1:G60)</f>
-        <v>13.3</v>
+        <v>-3.3333333333333333E-2</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -9418,17 +12780,17 @@
         <v>3</v>
       </c>
       <c r="G61">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H61" t="s">
         <v>4</v>
       </c>
       <c r="I61">
-        <v>1000</v>
+        <v>771</v>
       </c>
       <c r="K61">
         <f>AVERAGE($G$1:G61)</f>
-        <v>13.245901639344263</v>
+        <v>-4.9180327868852458E-2</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -9451,7 +12813,7 @@
         <v>3</v>
       </c>
       <c r="G62">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H62" t="s">
         <v>4</v>
@@ -9461,7 +12823,7 @@
       </c>
       <c r="K62">
         <f>AVERAGE($G$1:G62)</f>
-        <v>13.193548387096774</v>
+        <v>-1.6129032258064516E-2</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -9484,17 +12846,17 @@
         <v>3</v>
       </c>
       <c r="G63">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="H63" t="s">
         <v>4</v>
       </c>
       <c r="I63">
-        <v>454</v>
+        <v>279</v>
       </c>
       <c r="K63">
         <f>AVERAGE($G$1:G63)</f>
-        <v>13.015873015873016</v>
+        <v>-3.1746031746031744E-2</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -9517,17 +12879,17 @@
         <v>3</v>
       </c>
       <c r="G64">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H64" t="s">
         <v>4</v>
       </c>
       <c r="I64">
-        <v>422</v>
+        <v>455</v>
       </c>
       <c r="K64">
         <f>AVERAGE($G$1:G64)</f>
-        <v>12.96875</v>
+        <v>-4.6875E-2</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -9550,17 +12912,17 @@
         <v>3</v>
       </c>
       <c r="G65">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="H65" t="s">
         <v>4</v>
       </c>
       <c r="I65">
-        <v>491</v>
+        <v>451</v>
       </c>
       <c r="K65">
         <f>AVERAGE($G$1:G65)</f>
-        <v>12.861538461538462</v>
+        <v>-6.1538461538461542E-2</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -9583,17 +12945,17 @@
         <v>3</v>
       </c>
       <c r="G66">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="H66" t="s">
         <v>4</v>
       </c>
       <c r="I66">
-        <v>1000</v>
+        <v>703</v>
       </c>
       <c r="K66">
         <f>AVERAGE($G$1:G66)</f>
-        <v>12.848484848484848</v>
+        <v>-7.575757575757576E-2</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -9616,17 +12978,17 @@
         <v>3</v>
       </c>
       <c r="G67">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H67" t="s">
         <v>4</v>
       </c>
       <c r="I67">
-        <v>569</v>
+        <v>1000</v>
       </c>
       <c r="K67">
         <f>AVERAGE($G$1:G67)</f>
-        <v>12.835820895522389</v>
+        <v>-7.4626865671641784E-2</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -9649,17 +13011,17 @@
         <v>3</v>
       </c>
       <c r="G68">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="H68" t="s">
         <v>4</v>
       </c>
       <c r="I68">
-        <v>864</v>
+        <v>955</v>
       </c>
       <c r="K68">
         <f>AVERAGE($G$1:G68)</f>
-        <v>12.852941176470589</v>
+        <v>-8.8235294117647065E-2</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -9682,17 +13044,17 @@
         <v>3</v>
       </c>
       <c r="G69">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H69" t="s">
         <v>4</v>
       </c>
       <c r="I69">
-        <v>495</v>
+        <v>1000</v>
       </c>
       <c r="K69">
         <f>AVERAGE($G$1:G69)</f>
-        <v>12.72463768115942</v>
+        <v>-8.6956521739130432E-2</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -9715,7 +13077,7 @@
         <v>3</v>
       </c>
       <c r="G70">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H70" t="s">
         <v>4</v>
@@ -9725,7 +13087,7 @@
       </c>
       <c r="K70">
         <f>AVERAGE($G$1:G70)</f>
-        <v>12.6</v>
+        <v>-5.7142857142857141E-2</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -9748,17 +13110,17 @@
         <v>3</v>
       </c>
       <c r="G71">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="H71" t="s">
         <v>4</v>
       </c>
       <c r="I71">
-        <v>646</v>
+        <v>187</v>
       </c>
       <c r="K71">
         <f>AVERAGE($G$1:G71)</f>
-        <v>12.507042253521126</v>
+        <v>-7.0422535211267609E-2</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -9781,17 +13143,17 @@
         <v>3</v>
       </c>
       <c r="G72">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="H72" t="s">
         <v>4</v>
       </c>
       <c r="I72">
-        <v>1000</v>
+        <v>779</v>
       </c>
       <c r="K72">
         <f>AVERAGE($G$1:G72)</f>
-        <v>12.75</v>
+        <v>-5.5555555555555552E-2</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -9814,17 +13176,17 @@
         <v>3</v>
       </c>
       <c r="G73">
-        <v>18</v>
+        <v>-1</v>
       </c>
       <c r="H73" t="s">
         <v>4</v>
       </c>
       <c r="I73">
-        <v>456</v>
+        <v>303</v>
       </c>
       <c r="K73">
         <f>AVERAGE($G$1:G73)</f>
-        <v>12.821917808219178</v>
+        <v>-6.8493150684931503E-2</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -9847,17 +13209,17 @@
         <v>3</v>
       </c>
       <c r="G74">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="H74" t="s">
         <v>4</v>
       </c>
       <c r="I74">
-        <v>490</v>
+        <v>1000</v>
       </c>
       <c r="K74">
         <f>AVERAGE($G$1:G74)</f>
-        <v>12.972972972972974</v>
+        <v>-4.0540540540540543E-2</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -9880,17 +13242,17 @@
         <v>3</v>
       </c>
       <c r="G75">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="H75" t="s">
         <v>4</v>
       </c>
       <c r="I75">
-        <v>564</v>
+        <v>455</v>
       </c>
       <c r="K75">
         <f>AVERAGE($G$1:G75)</f>
-        <v>12.986666666666666</v>
+        <v>-5.3333333333333337E-2</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -9923,7 +13285,7 @@
       </c>
       <c r="K76">
         <f>AVERAGE($G$1:G76)</f>
-        <v>12.842105263157896</v>
+        <v>-2.6315789473684209E-2</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -9946,17 +13308,17 @@
         <v>3</v>
       </c>
       <c r="G77">
-        <v>16</v>
+        <v>-1</v>
       </c>
       <c r="H77" t="s">
         <v>4</v>
       </c>
       <c r="I77">
-        <v>929</v>
+        <v>763</v>
       </c>
       <c r="K77">
         <f>AVERAGE($G$1:G77)</f>
-        <v>12.883116883116884</v>
+        <v>-3.896103896103896E-2</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -9979,17 +13341,17 @@
         <v>3</v>
       </c>
       <c r="G78">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H78" t="s">
         <v>4</v>
       </c>
       <c r="I78">
-        <v>491</v>
+        <v>1000</v>
       </c>
       <c r="K78">
         <f>AVERAGE($G$1:G78)</f>
-        <v>12.820512820512821</v>
+        <v>-1.282051282051282E-2</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -10012,17 +13374,17 @@
         <v>3</v>
       </c>
       <c r="G79">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="H79" t="s">
         <v>4</v>
       </c>
       <c r="I79">
-        <v>651</v>
+        <v>772</v>
       </c>
       <c r="K79">
         <f>AVERAGE($G$1:G79)</f>
-        <v>12.835443037974683</v>
+        <v>-2.5316455696202531E-2</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -10045,17 +13407,17 @@
         <v>3</v>
       </c>
       <c r="G80">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="H80" t="s">
         <v>4</v>
       </c>
       <c r="I80">
-        <v>800</v>
+        <v>455</v>
       </c>
       <c r="K80">
         <f>AVERAGE($G$1:G80)</f>
-        <v>12.75</v>
+        <v>-3.7499999999999999E-2</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -10078,17 +13440,17 @@
         <v>3</v>
       </c>
       <c r="G81">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="H81" t="s">
         <v>4</v>
       </c>
       <c r="I81">
-        <v>281</v>
+        <v>915</v>
       </c>
       <c r="K81">
         <f>AVERAGE($G$1:G81)</f>
-        <v>12.666666666666666</v>
+        <v>-4.9382716049382713E-2</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -10111,17 +13473,17 @@
         <v>3</v>
       </c>
       <c r="G82">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H82" t="s">
         <v>4</v>
       </c>
       <c r="I82">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="K82">
         <f>AVERAGE($G$1:G82)</f>
-        <v>12.634146341463415</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -10144,17 +13506,17 @@
         <v>3</v>
       </c>
       <c r="G83">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H83" t="s">
         <v>4</v>
       </c>
       <c r="I83">
-        <v>308</v>
+        <v>715</v>
       </c>
       <c r="K83">
         <f>AVERAGE($G$1:G83)</f>
-        <v>12.602409638554217</v>
+        <v>1.2048192771084338E-2</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -10177,17 +13539,17 @@
         <v>3</v>
       </c>
       <c r="G84">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="H84" t="s">
         <v>4</v>
       </c>
       <c r="I84">
-        <v>596</v>
+        <v>1000</v>
       </c>
       <c r="K84">
         <f>AVERAGE($G$1:G84)</f>
-        <v>12.785714285714286</v>
+        <v>1.1904761904761904E-2</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -10210,17 +13572,17 @@
         <v>3</v>
       </c>
       <c r="G85">
-        <v>18</v>
+        <v>-1</v>
       </c>
       <c r="H85" t="s">
         <v>4</v>
       </c>
       <c r="I85">
-        <v>994</v>
+        <v>771</v>
       </c>
       <c r="K85">
         <f>AVERAGE($G$1:G85)</f>
-        <v>12.847058823529412</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -10243,17 +13605,17 @@
         <v>3</v>
       </c>
       <c r="G86">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="H86" t="s">
         <v>4</v>
       </c>
       <c r="I86">
-        <v>640</v>
+        <v>763</v>
       </c>
       <c r="K86">
         <f>AVERAGE($G$1:G86)</f>
-        <v>12.720930232558139</v>
+        <v>-1.1627906976744186E-2</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -10276,17 +13638,17 @@
         <v>3</v>
       </c>
       <c r="G87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H87" t="s">
         <v>4</v>
       </c>
       <c r="I87">
-        <v>640</v>
+        <v>1000</v>
       </c>
       <c r="K87">
         <f>AVERAGE($G$1:G87)</f>
-        <v>12.597701149425287</v>
+        <v>-1.1494252873563218E-2</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -10309,17 +13671,17 @@
         <v>3</v>
       </c>
       <c r="G88">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H88" t="s">
         <v>4</v>
       </c>
       <c r="I88">
-        <v>830</v>
+        <v>1000</v>
       </c>
       <c r="K88">
         <f>AVERAGE($G$1:G88)</f>
-        <v>12.659090909090908</v>
+        <v>-1.1363636363636364E-2</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -10342,17 +13704,17 @@
         <v>3</v>
       </c>
       <c r="G89">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="H89" t="s">
         <v>4</v>
       </c>
       <c r="I89">
-        <v>956</v>
+        <v>1000</v>
       </c>
       <c r="K89">
         <f>AVERAGE($G$1:G89)</f>
-        <v>12.876404494382022</v>
+        <v>-1.1235955056179775E-2</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -10375,17 +13737,17 @@
         <v>3</v>
       </c>
       <c r="G90">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="H90" t="s">
         <v>4</v>
       </c>
       <c r="I90">
-        <v>628</v>
+        <v>1000</v>
       </c>
       <c r="K90">
         <f>AVERAGE($G$1:G90)</f>
-        <v>12.888888888888889</v>
+        <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -10408,17 +13770,17 @@
         <v>3</v>
       </c>
       <c r="G91">
-        <v>32</v>
+        <v>-1</v>
       </c>
       <c r="H91" t="s">
         <v>4</v>
       </c>
       <c r="I91">
-        <v>1000</v>
+        <v>955</v>
       </c>
       <c r="K91">
         <f>AVERAGE($G$1:G91)</f>
-        <v>13.098901098901099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -10441,17 +13803,17 @@
         <v>3</v>
       </c>
       <c r="G92">
-        <v>18</v>
+        <v>-1</v>
       </c>
       <c r="H92" t="s">
         <v>4</v>
       </c>
       <c r="I92">
-        <v>552</v>
+        <v>951</v>
       </c>
       <c r="K92">
         <f>AVERAGE($G$1:G92)</f>
-        <v>13.152173913043478</v>
+        <v>-1.0869565217391304E-2</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -10474,17 +13836,17 @@
         <v>3</v>
       </c>
       <c r="G93">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="H93" t="s">
         <v>4</v>
       </c>
       <c r="I93">
-        <v>1000</v>
+        <v>455</v>
       </c>
       <c r="K93">
         <f>AVERAGE($G$1:G93)</f>
-        <v>13.053763440860216</v>
+        <v>-2.1505376344086023E-2</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -10507,17 +13869,17 @@
         <v>3</v>
       </c>
       <c r="G94">
-        <v>18</v>
+        <v>-1</v>
       </c>
       <c r="H94" t="s">
         <v>4</v>
       </c>
       <c r="I94">
-        <v>627</v>
+        <v>455</v>
       </c>
       <c r="K94">
         <f>AVERAGE($G$1:G94)</f>
-        <v>13.106382978723405</v>
+        <v>-3.1914893617021274E-2</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -10540,17 +13902,17 @@
         <v>3</v>
       </c>
       <c r="G95">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H95" t="s">
         <v>4</v>
       </c>
       <c r="I95">
-        <v>1000</v>
+        <v>599</v>
       </c>
       <c r="K95">
         <f>AVERAGE($G$1:G95)</f>
-        <v>13.094736842105263</v>
+        <v>-2.1052631578947368E-2</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -10573,17 +13935,17 @@
         <v>3</v>
       </c>
       <c r="G96">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H96" t="s">
         <v>4</v>
       </c>
       <c r="I96">
-        <v>1000</v>
+        <v>763</v>
       </c>
       <c r="K96">
         <f>AVERAGE($G$1:G96)</f>
-        <v>13.0625</v>
+        <v>-3.125E-2</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -10606,17 +13968,17 @@
         <v>3</v>
       </c>
       <c r="G97">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H97" t="s">
         <v>4</v>
       </c>
       <c r="I97">
-        <v>753</v>
+        <v>1000</v>
       </c>
       <c r="K97">
         <f>AVERAGE($G$1:G97)</f>
-        <v>13.030927835051546</v>
+        <v>-1.0309278350515464E-2</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -10639,17 +14001,17 @@
         <v>3</v>
       </c>
       <c r="G98">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H98" t="s">
         <v>4</v>
       </c>
       <c r="I98">
-        <v>413</v>
+        <v>1000</v>
       </c>
       <c r="K98">
         <f>AVERAGE($G$1:G98)</f>
-        <v>12.979591836734693</v>
+        <v>1.020408163265306E-2</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -10672,17 +14034,17 @@
         <v>3</v>
       </c>
       <c r="G99">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="H99" t="s">
         <v>4</v>
       </c>
       <c r="I99">
-        <v>1000</v>
+        <v>327</v>
       </c>
       <c r="K99">
         <f>AVERAGE($G$1:G99)</f>
-        <v>13.070707070707071</v>
+        <v>2.0202020202020204E-2</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -10705,17 +14067,17 @@
         <v>3</v>
       </c>
       <c r="G100">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H100" t="s">
         <v>4</v>
       </c>
       <c r="I100">
-        <v>645</v>
+        <v>1000</v>
       </c>
       <c r="K100">
         <f>AVERAGE($G$1:G100)</f>
-        <v>13</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -10735,17 +14097,17 @@
         <v>3</v>
       </c>
       <c r="G101">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H101" t="s">
         <v>4</v>
       </c>
       <c r="I101">
-        <v>411</v>
+        <v>1000</v>
       </c>
       <c r="K101">
         <f>AVERAGE($G$1:G101)</f>
-        <v>12.970297029702971</v>
+        <v>5.9405940594059403E-2</v>
       </c>
     </row>
   </sheetData>

--- a/res_averages.xlsx
+++ b/res_averages.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="-5600" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="25600" yWindow="-5600" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Pacman Test" sheetId="1" r:id="rId1"/>
@@ -99,8 +99,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -130,7 +134,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="29">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -143,6 +147,8 @@
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -155,6 +161,8 @@
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4066,8 +4074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4095,7 +4103,7 @@
         <v>3</v>
       </c>
       <c r="G1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
@@ -4127,7 +4135,7 @@
         <v>3</v>
       </c>
       <c r="G2">
-        <v>-2</v>
+        <v>-14</v>
       </c>
       <c r="H2" t="s">
         <v>4</v>
@@ -4137,7 +4145,7 @@
       </c>
       <c r="K2">
         <f>AVERAGE($G$1:G2)</f>
-        <v>0</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -4160,7 +4168,7 @@
         <v>3</v>
       </c>
       <c r="G3">
-        <v>-48</v>
+        <v>2</v>
       </c>
       <c r="H3" t="s">
         <v>4</v>
@@ -4170,7 +4178,7 @@
       </c>
       <c r="K3">
         <f>AVERAGE($G$1:G3)</f>
-        <v>-16</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -4193,7 +4201,7 @@
         <v>3</v>
       </c>
       <c r="G4">
-        <v>-139</v>
+        <v>6</v>
       </c>
       <c r="H4" t="s">
         <v>4</v>
@@ -4203,7 +4211,7 @@
       </c>
       <c r="K4">
         <f>AVERAGE($G$1:G4)</f>
-        <v>-46.75</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -4226,7 +4234,7 @@
         <v>3</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="H5" t="s">
         <v>4</v>
@@ -4236,7 +4244,7 @@
       </c>
       <c r="K5">
         <f>AVERAGE($G$1:G5)</f>
-        <v>-37</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -4259,7 +4267,7 @@
         <v>3</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>-31</v>
       </c>
       <c r="H6" t="s">
         <v>4</v>
@@ -4269,7 +4277,7 @@
       </c>
       <c r="K6">
         <f>AVERAGE($G$1:G6)</f>
-        <v>-30.833333333333332</v>
+        <v>-6.5</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -4292,7 +4300,7 @@
         <v>3</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H7" t="s">
         <v>4</v>
@@ -4302,7 +4310,7 @@
       </c>
       <c r="K7">
         <f>AVERAGE($G$1:G7)</f>
-        <v>-26.285714285714285</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -4325,7 +4333,7 @@
         <v>3</v>
       </c>
       <c r="G8">
-        <v>-341</v>
+        <v>-19</v>
       </c>
       <c r="H8" t="s">
         <v>4</v>
@@ -4335,7 +4343,7 @@
       </c>
       <c r="K8">
         <f>AVERAGE($G$1:G8)</f>
-        <v>-65.625</v>
+        <v>-6.75</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -4358,7 +4366,7 @@
         <v>3</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>-70</v>
       </c>
       <c r="H9" t="s">
         <v>4</v>
@@ -4368,7 +4376,7 @@
       </c>
       <c r="K9">
         <f>AVERAGE($G$1:G9)</f>
-        <v>-58.111111111111114</v>
+        <v>-13.777777777777779</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -4391,7 +4399,7 @@
         <v>3</v>
       </c>
       <c r="G10">
-        <v>-190</v>
+        <v>-23</v>
       </c>
       <c r="H10" t="s">
         <v>4</v>
@@ -4401,7 +4409,7 @@
       </c>
       <c r="K10">
         <f>AVERAGE($G$1:G10)</f>
-        <v>-71.3</v>
+        <v>-14.7</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -4424,7 +4432,7 @@
         <v>3</v>
       </c>
       <c r="G11">
-        <v>-2</v>
+        <v>-21</v>
       </c>
       <c r="H11" t="s">
         <v>4</v>
@@ -4434,7 +4442,7 @@
       </c>
       <c r="K11">
         <f>AVERAGE($G$1:G11)</f>
-        <v>-65</v>
+        <v>-15.272727272727273</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -4457,7 +4465,7 @@
         <v>3</v>
       </c>
       <c r="G12">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H12" t="s">
         <v>4</v>
@@ -4467,7 +4475,7 @@
       </c>
       <c r="K12">
         <f>AVERAGE($G$1:G12)</f>
-        <v>-58.25</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -4484,23 +4492,23 @@
         <v>2</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="s">
         <v>3</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="H13" t="s">
         <v>4</v>
       </c>
       <c r="I13">
-        <v>865</v>
+        <v>1000</v>
       </c>
       <c r="K13">
         <f>AVERAGE($G$1:G13)</f>
-        <v>-53.692307692307693</v>
+        <v>-13.153846153846153</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -4523,7 +4531,7 @@
         <v>3</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>-25</v>
       </c>
       <c r="H14" t="s">
         <v>4</v>
@@ -4533,7 +4541,7 @@
       </c>
       <c r="K14">
         <f>AVERAGE($G$1:G14)</f>
-        <v>-49.785714285714285</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -4556,7 +4564,7 @@
         <v>3</v>
       </c>
       <c r="G15">
-        <v>-208</v>
+        <v>2</v>
       </c>
       <c r="H15" t="s">
         <v>4</v>
@@ -4566,7 +4574,7 @@
       </c>
       <c r="K15">
         <f>AVERAGE($G$1:G15)</f>
-        <v>-60.333333333333336</v>
+        <v>-12.933333333333334</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -4599,7 +4607,7 @@
       </c>
       <c r="K16">
         <f>AVERAGE($G$1:G16)</f>
-        <v>-56.4375</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -4622,7 +4630,7 @@
         <v>3</v>
       </c>
       <c r="G17">
-        <v>-33</v>
+        <v>1</v>
       </c>
       <c r="H17" t="s">
         <v>4</v>
@@ -4632,7 +4640,7 @@
       </c>
       <c r="K17">
         <f>AVERAGE($G$1:G17)</f>
-        <v>-55.058823529411768</v>
+        <v>-11.235294117647058</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -4655,7 +4663,7 @@
         <v>3</v>
       </c>
       <c r="G18">
-        <v>-17</v>
+        <v>-3</v>
       </c>
       <c r="H18" t="s">
         <v>4</v>
@@ -4665,7 +4673,7 @@
       </c>
       <c r="K18">
         <f>AVERAGE($G$1:G18)</f>
-        <v>-52.944444444444443</v>
+        <v>-10.777777777777779</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -4688,7 +4696,7 @@
         <v>3</v>
       </c>
       <c r="G19">
-        <v>-14</v>
+        <v>-2</v>
       </c>
       <c r="H19" t="s">
         <v>4</v>
@@ -4698,7 +4706,7 @@
       </c>
       <c r="K19">
         <f>AVERAGE($G$1:G19)</f>
-        <v>-50.89473684210526</v>
+        <v>-10.315789473684211</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -4721,7 +4729,7 @@
         <v>3</v>
       </c>
       <c r="G20">
-        <v>-36</v>
+        <v>0</v>
       </c>
       <c r="H20" t="s">
         <v>4</v>
@@ -4731,7 +4739,7 @@
       </c>
       <c r="K20">
         <f>AVERAGE($G$1:G20)</f>
-        <v>-50.15</v>
+        <v>-9.8000000000000007</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -4754,7 +4762,7 @@
         <v>3</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="s">
         <v>4</v>
@@ -4764,7 +4772,7 @@
       </c>
       <c r="K21">
         <f>AVERAGE($G$1:G21)</f>
-        <v>-47.761904761904759</v>
+        <v>-9.2857142857142865</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -4787,7 +4795,7 @@
         <v>3</v>
       </c>
       <c r="G22">
-        <v>-10</v>
+        <v>4</v>
       </c>
       <c r="H22" t="s">
         <v>4</v>
@@ -4797,7 +4805,7 @@
       </c>
       <c r="K22">
         <f>AVERAGE($G$1:G22)</f>
-        <v>-46.045454545454547</v>
+        <v>-8.6818181818181817</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -4820,7 +4828,7 @@
         <v>3</v>
       </c>
       <c r="G23">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="H23" t="s">
         <v>4</v>
@@ -4830,7 +4838,7 @@
       </c>
       <c r="K23">
         <f>AVERAGE($G$1:G23)</f>
-        <v>-44.304347826086953</v>
+        <v>-8.304347826086957</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -4853,7 +4861,7 @@
         <v>3</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="H24" t="s">
         <v>4</v>
@@ -4863,7 +4871,7 @@
       </c>
       <c r="K24">
         <f>AVERAGE($G$1:G24)</f>
-        <v>-42.458333333333336</v>
+        <v>-8.5416666666666661</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -4886,7 +4894,7 @@
         <v>3</v>
       </c>
       <c r="G25">
-        <v>-221</v>
+        <v>0</v>
       </c>
       <c r="H25" t="s">
         <v>4</v>
@@ -4896,7 +4904,7 @@
       </c>
       <c r="K25">
         <f>AVERAGE($G$1:G25)</f>
-        <v>-49.6</v>
+        <v>-8.1999999999999993</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -4919,7 +4927,7 @@
         <v>3</v>
       </c>
       <c r="G26">
-        <v>-1</v>
+        <v>-67</v>
       </c>
       <c r="H26" t="s">
         <v>4</v>
@@ -4929,7 +4937,7 @@
       </c>
       <c r="K26">
         <f>AVERAGE($G$1:G26)</f>
-        <v>-47.730769230769234</v>
+        <v>-10.461538461538462</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -4952,7 +4960,7 @@
         <v>3</v>
       </c>
       <c r="G27">
-        <v>-204</v>
+        <v>2</v>
       </c>
       <c r="H27" t="s">
         <v>4</v>
@@ -4962,7 +4970,7 @@
       </c>
       <c r="K27">
         <f>AVERAGE($G$1:G27)</f>
-        <v>-53.518518518518519</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -4985,7 +4993,7 @@
         <v>3</v>
       </c>
       <c r="G28">
-        <v>-124</v>
+        <v>-31</v>
       </c>
       <c r="H28" t="s">
         <v>4</v>
@@ -4995,7 +5003,7 @@
       </c>
       <c r="K28">
         <f>AVERAGE($G$1:G28)</f>
-        <v>-56.035714285714285</v>
+        <v>-10.75</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -5028,7 +5036,7 @@
       </c>
       <c r="K29">
         <f>AVERAGE($G$1:G29)</f>
-        <v>-54.103448275862071</v>
+        <v>-10.379310344827585</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -5051,7 +5059,7 @@
         <v>3</v>
       </c>
       <c r="G30">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H30" t="s">
         <v>4</v>
@@ -5061,7 +5069,7 @@
       </c>
       <c r="K30">
         <f>AVERAGE($G$1:G30)</f>
-        <v>-52.033333333333331</v>
+        <v>-10.033333333333333</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -5084,7 +5092,7 @@
         <v>3</v>
       </c>
       <c r="G31">
-        <v>-20</v>
+        <v>2</v>
       </c>
       <c r="H31" t="s">
         <v>4</v>
@@ -5094,7 +5102,7 @@
       </c>
       <c r="K31">
         <f>AVERAGE($G$1:G31)</f>
-        <v>-51</v>
+        <v>-9.6451612903225801</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -5117,7 +5125,7 @@
         <v>3</v>
       </c>
       <c r="G32">
-        <v>4</v>
+        <v>-3</v>
       </c>
       <c r="H32" t="s">
         <v>4</v>
@@ -5127,7 +5135,7 @@
       </c>
       <c r="K32">
         <f>AVERAGE($G$1:G32)</f>
-        <v>-49.28125</v>
+        <v>-9.4375</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -5160,7 +5168,7 @@
       </c>
       <c r="K33">
         <f>AVERAGE($G$1:G33)</f>
-        <v>-47.727272727272727</v>
+        <v>-9.0909090909090917</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -5177,23 +5185,23 @@
         <v>2</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" t="s">
         <v>3</v>
       </c>
       <c r="G34">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H34" t="s">
         <v>4</v>
       </c>
       <c r="I34">
-        <v>927</v>
+        <v>1000</v>
       </c>
       <c r="K34">
         <f>AVERAGE($G$1:G34)</f>
-        <v>-46.205882352941174</v>
+        <v>-8.8235294117647065</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -5216,7 +5224,7 @@
         <v>3</v>
       </c>
       <c r="G35">
-        <v>-27</v>
+        <v>2</v>
       </c>
       <c r="H35" t="s">
         <v>4</v>
@@ -5226,7 +5234,7 @@
       </c>
       <c r="K35">
         <f>AVERAGE($G$1:G35)</f>
-        <v>-45.657142857142858</v>
+        <v>-8.5142857142857142</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -5243,23 +5251,23 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" t="s">
         <v>3</v>
       </c>
       <c r="G36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H36" t="s">
         <v>4</v>
       </c>
       <c r="I36">
-        <v>1000</v>
+        <v>887</v>
       </c>
       <c r="K36">
         <f>AVERAGE($G$1:G36)</f>
-        <v>-44.277777777777779</v>
+        <v>-8.2222222222222214</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -5282,7 +5290,7 @@
         <v>3</v>
       </c>
       <c r="G37">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H37" t="s">
         <v>4</v>
@@ -5292,7 +5300,7 @@
       </c>
       <c r="K37">
         <f>AVERAGE($G$1:G37)</f>
-        <v>-43.027027027027025</v>
+        <v>-7.8108108108108105</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -5315,7 +5323,7 @@
         <v>3</v>
       </c>
       <c r="G38">
-        <v>-6</v>
+        <v>4</v>
       </c>
       <c r="H38" t="s">
         <v>4</v>
@@ -5325,7 +5333,7 @@
       </c>
       <c r="K38">
         <f>AVERAGE($G$1:G38)</f>
-        <v>-42.05263157894737</v>
+        <v>-7.5</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -5348,7 +5356,7 @@
         <v>3</v>
       </c>
       <c r="G39">
-        <v>-86</v>
+        <v>-1</v>
       </c>
       <c r="H39" t="s">
         <v>4</v>
@@ -5358,7 +5366,7 @@
       </c>
       <c r="K39">
         <f>AVERAGE($G$1:G39)</f>
-        <v>-43.179487179487182</v>
+        <v>-7.333333333333333</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -5381,7 +5389,7 @@
         <v>3</v>
       </c>
       <c r="G40">
-        <v>-7</v>
+        <v>-9</v>
       </c>
       <c r="H40" t="s">
         <v>4</v>
@@ -5391,7 +5399,7 @@
       </c>
       <c r="K40">
         <f>AVERAGE($G$1:G40)</f>
-        <v>-42.274999999999999</v>
+        <v>-7.375</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -5408,23 +5416,23 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" t="s">
         <v>3</v>
       </c>
       <c r="G41">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H41" t="s">
         <v>4</v>
       </c>
       <c r="I41">
-        <v>1000</v>
+        <v>764</v>
       </c>
       <c r="K41">
         <f>AVERAGE($G$1:G41)</f>
-        <v>-41.146341463414636</v>
+        <v>-7.1707317073170733</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -5441,23 +5449,23 @@
         <v>2</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="s">
         <v>3</v>
       </c>
       <c r="G42">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H42" t="s">
         <v>4</v>
       </c>
       <c r="I42">
-        <v>769</v>
+        <v>1000</v>
       </c>
       <c r="K42">
         <f>AVERAGE($G$1:G42)</f>
-        <v>-39.904761904761905</v>
+        <v>-6.8095238095238093</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -5480,7 +5488,7 @@
         <v>3</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="H43" t="s">
         <v>4</v>
@@ -5490,7 +5498,7 @@
       </c>
       <c r="K43">
         <f>AVERAGE($G$1:G43)</f>
-        <v>-38.97674418604651</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -5513,7 +5521,7 @@
         <v>3</v>
       </c>
       <c r="G44">
-        <v>-52</v>
+        <v>4</v>
       </c>
       <c r="H44" t="s">
         <v>4</v>
@@ -5523,7 +5531,7 @@
       </c>
       <c r="K44">
         <f>AVERAGE($G$1:G44)</f>
-        <v>-39.272727272727273</v>
+        <v>-6.75</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -5546,7 +5554,7 @@
         <v>3</v>
       </c>
       <c r="G45">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H45" t="s">
         <v>4</v>
@@ -5556,7 +5564,7 @@
       </c>
       <c r="K45">
         <f>AVERAGE($G$1:G45)</f>
-        <v>-38.177777777777777</v>
+        <v>-6.5111111111111111</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -5579,7 +5587,7 @@
         <v>3</v>
       </c>
       <c r="G46">
-        <v>-199</v>
+        <v>7</v>
       </c>
       <c r="H46" t="s">
         <v>4</v>
@@ -5589,7 +5597,7 @@
       </c>
       <c r="K46">
         <f>AVERAGE($G$1:G46)</f>
-        <v>-41.673913043478258</v>
+        <v>-6.2173913043478262</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -5606,23 +5614,23 @@
         <v>2</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="s">
         <v>3</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" t="s">
         <v>4</v>
       </c>
       <c r="I47">
-        <v>710</v>
+        <v>1000</v>
       </c>
       <c r="K47">
         <f>AVERAGE($G$1:G47)</f>
-        <v>-40.765957446808514</v>
+        <v>-6.0851063829787231</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -5645,7 +5653,7 @@
         <v>3</v>
       </c>
       <c r="G48">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H48" t="s">
         <v>4</v>
@@ -5655,7 +5663,7 @@
       </c>
       <c r="K48">
         <f>AVERAGE($G$1:G48)</f>
-        <v>-39.9375</v>
+        <v>-5.833333333333333</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -5678,7 +5686,7 @@
         <v>3</v>
       </c>
       <c r="G49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H49" t="s">
         <v>4</v>
@@ -5688,7 +5696,7 @@
       </c>
       <c r="K49">
         <f>AVERAGE($G$1:G49)</f>
-        <v>-39.061224489795919</v>
+        <v>-5.6734693877551017</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -5721,7 +5729,7 @@
       </c>
       <c r="K50">
         <f>AVERAGE($G$1:G50)</f>
-        <v>-38.28</v>
+        <v>-5.56</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -5744,7 +5752,7 @@
         <v>3</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H51" t="s">
         <v>4</v>
@@ -5754,7 +5762,7 @@
       </c>
       <c r="K51">
         <f>AVERAGE($G$1:G51)</f>
-        <v>-37.529411764705884</v>
+        <v>-5.3725490196078427</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -5777,7 +5785,7 @@
         <v>3</v>
       </c>
       <c r="G52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H52" t="s">
         <v>4</v>
@@ -5787,7 +5795,7 @@
       </c>
       <c r="K52">
         <f>AVERAGE($G$1:G52)</f>
-        <v>-36.769230769230766</v>
+        <v>-5.2692307692307692</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -5820,7 +5828,7 @@
       </c>
       <c r="K53">
         <f>AVERAGE($G$1:G53)</f>
-        <v>-36.075471698113205</v>
+        <v>-5.1698113207547172</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -5843,7 +5851,7 @@
         <v>3</v>
       </c>
       <c r="G54">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H54" t="s">
         <v>4</v>
@@ -5853,7 +5861,7 @@
       </c>
       <c r="K54">
         <f>AVERAGE($G$1:G54)</f>
-        <v>-35.148148148148145</v>
+        <v>-5.0740740740740744</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -5876,7 +5884,7 @@
         <v>3</v>
       </c>
       <c r="G55">
-        <v>-90</v>
+        <v>0</v>
       </c>
       <c r="H55" t="s">
         <v>4</v>
@@ -5886,7 +5894,7 @@
       </c>
       <c r="K55">
         <f>AVERAGE($G$1:G55)</f>
-        <v>-36.145454545454548</v>
+        <v>-4.9818181818181815</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -5903,23 +5911,23 @@
         <v>2</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" t="s">
         <v>3</v>
       </c>
       <c r="G56">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H56" t="s">
         <v>4</v>
       </c>
       <c r="I56">
-        <v>1000</v>
+        <v>633</v>
       </c>
       <c r="K56">
         <f>AVERAGE($G$1:G56)</f>
-        <v>-35.464285714285715</v>
+        <v>-4.8214285714285712</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -5942,7 +5950,7 @@
         <v>3</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H57" t="s">
         <v>4</v>
@@ -5952,7 +5960,7 @@
       </c>
       <c r="K57">
         <f>AVERAGE($G$1:G57)</f>
-        <v>-34.842105263157897</v>
+        <v>-4.6315789473684212</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -5975,7 +5983,7 @@
         <v>3</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H58" t="s">
         <v>4</v>
@@ -5985,7 +5993,7 @@
       </c>
       <c r="K58">
         <f>AVERAGE($G$1:G58)</f>
-        <v>-34.241379310344826</v>
+        <v>-4.4827586206896548</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -6002,23 +6010,23 @@
         <v>2</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59" t="s">
         <v>3</v>
       </c>
       <c r="G59">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H59" t="s">
         <v>4</v>
       </c>
       <c r="I59">
-        <v>756</v>
+        <v>1000</v>
       </c>
       <c r="K59">
         <f>AVERAGE($G$1:G59)</f>
-        <v>-33.559322033898304</v>
+        <v>-4.3728813559322033</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -6041,7 +6049,7 @@
         <v>3</v>
       </c>
       <c r="G60">
-        <v>-76</v>
+        <v>8</v>
       </c>
       <c r="H60" t="s">
         <v>4</v>
@@ -6051,7 +6059,7 @@
       </c>
       <c r="K60">
         <f>AVERAGE($G$1:G60)</f>
-        <v>-34.266666666666666</v>
+        <v>-4.166666666666667</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -6074,7 +6082,7 @@
         <v>3</v>
       </c>
       <c r="G61">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H61" t="s">
         <v>4</v>
@@ -6084,7 +6092,7 @@
       </c>
       <c r="K61">
         <f>AVERAGE($G$1:G61)</f>
-        <v>-33.721311475409834</v>
+        <v>-4.0983606557377046</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -6107,7 +6115,7 @@
         <v>3</v>
       </c>
       <c r="G62">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H62" t="s">
         <v>4</v>
@@ -6117,7 +6125,7 @@
       </c>
       <c r="K62">
         <f>AVERAGE($G$1:G62)</f>
-        <v>-33.08064516129032</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -6140,7 +6148,7 @@
         <v>3</v>
       </c>
       <c r="G63">
-        <v>-5</v>
+        <v>8</v>
       </c>
       <c r="H63" t="s">
         <v>4</v>
@@ -6150,7 +6158,7 @@
       </c>
       <c r="K63">
         <f>AVERAGE($G$1:G63)</f>
-        <v>-32.634920634920633</v>
+        <v>-3.8095238095238093</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -6173,7 +6181,7 @@
         <v>3</v>
       </c>
       <c r="G64">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H64" t="s">
         <v>4</v>
@@ -6183,7 +6191,7 @@
       </c>
       <c r="K64">
         <f>AVERAGE($G$1:G64)</f>
-        <v>-32.015625</v>
+        <v>-3.71875</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -6206,7 +6214,7 @@
         <v>3</v>
       </c>
       <c r="G65">
-        <v>2</v>
+        <v>-14</v>
       </c>
       <c r="H65" t="s">
         <v>4</v>
@@ -6216,7 +6224,7 @@
       </c>
       <c r="K65">
         <f>AVERAGE($G$1:G65)</f>
-        <v>-31.492307692307691</v>
+        <v>-3.8769230769230769</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -6233,23 +6241,23 @@
         <v>2</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66" t="s">
         <v>3</v>
       </c>
       <c r="G66">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H66" t="s">
         <v>4</v>
       </c>
       <c r="I66">
-        <v>974</v>
+        <v>1000</v>
       </c>
       <c r="K66">
         <f>AVERAGE($G$1:G66)</f>
-        <v>-30.924242424242426</v>
+        <v>-3.8181818181818183</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -6272,7 +6280,7 @@
         <v>3</v>
       </c>
       <c r="G67">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H67" t="s">
         <v>4</v>
@@ -6282,7 +6290,7 @@
       </c>
       <c r="K67">
         <f>AVERAGE($G$1:G67)</f>
-        <v>-30.402985074626866</v>
+        <v>-3.6417910447761193</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -6305,7 +6313,7 @@
         <v>3</v>
       </c>
       <c r="G68">
-        <v>7</v>
+        <v>-4</v>
       </c>
       <c r="H68" t="s">
         <v>4</v>
@@ -6315,7 +6323,7 @@
       </c>
       <c r="K68">
         <f>AVERAGE($G$1:G68)</f>
-        <v>-29.852941176470587</v>
+        <v>-3.6470588235294117</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -6338,7 +6346,7 @@
         <v>3</v>
       </c>
       <c r="G69">
-        <v>8</v>
+        <v>-6</v>
       </c>
       <c r="H69" t="s">
         <v>4</v>
@@ -6348,7 +6356,7 @@
       </c>
       <c r="K69">
         <f>AVERAGE($G$1:G69)</f>
-        <v>-29.304347826086957</v>
+        <v>-3.681159420289855</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -6371,7 +6379,7 @@
         <v>3</v>
       </c>
       <c r="G70">
-        <v>-33</v>
+        <v>0</v>
       </c>
       <c r="H70" t="s">
         <v>4</v>
@@ -6381,7 +6389,7 @@
       </c>
       <c r="K70">
         <f>AVERAGE($G$1:G70)</f>
-        <v>-29.357142857142858</v>
+        <v>-3.6285714285714286</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -6398,23 +6406,23 @@
         <v>2</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" t="s">
         <v>3</v>
       </c>
       <c r="G71">
-        <v>1</v>
+        <v>-28</v>
       </c>
       <c r="H71" t="s">
         <v>4</v>
       </c>
       <c r="I71">
-        <v>924</v>
+        <v>1000</v>
       </c>
       <c r="K71">
         <f>AVERAGE($G$1:G71)</f>
-        <v>-28.929577464788732</v>
+        <v>-3.971830985915493</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -6437,7 +6445,7 @@
         <v>3</v>
       </c>
       <c r="G72">
-        <v>-5</v>
+        <v>-28</v>
       </c>
       <c r="H72" t="s">
         <v>4</v>
@@ -6447,7 +6455,7 @@
       </c>
       <c r="K72">
         <f>AVERAGE($G$1:G72)</f>
-        <v>-28.597222222222221</v>
+        <v>-4.3055555555555554</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -6470,7 +6478,7 @@
         <v>3</v>
       </c>
       <c r="G73">
-        <v>-4</v>
+        <v>-17</v>
       </c>
       <c r="H73" t="s">
         <v>4</v>
@@ -6480,7 +6488,7 @@
       </c>
       <c r="K73">
         <f>AVERAGE($G$1:G73)</f>
-        <v>-28.260273972602739</v>
+        <v>-4.4794520547945202</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -6503,7 +6511,7 @@
         <v>3</v>
       </c>
       <c r="G74">
-        <v>3</v>
+        <v>-38</v>
       </c>
       <c r="H74" t="s">
         <v>4</v>
@@ -6513,7 +6521,7 @@
       </c>
       <c r="K74">
         <f>AVERAGE($G$1:G74)</f>
-        <v>-27.837837837837839</v>
+        <v>-4.9324324324324325</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -6536,7 +6544,7 @@
         <v>3</v>
       </c>
       <c r="G75">
-        <v>6</v>
+        <v>-40</v>
       </c>
       <c r="H75" t="s">
         <v>4</v>
@@ -6546,7 +6554,7 @@
       </c>
       <c r="K75">
         <f>AVERAGE($G$1:G75)</f>
-        <v>-27.386666666666667</v>
+        <v>-5.4</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -6563,23 +6571,23 @@
         <v>2</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76" t="s">
         <v>3</v>
       </c>
       <c r="G76">
-        <v>7</v>
+        <v>-28</v>
       </c>
       <c r="H76" t="s">
         <v>4</v>
       </c>
       <c r="I76">
-        <v>883</v>
+        <v>1000</v>
       </c>
       <c r="K76">
         <f>AVERAGE($G$1:G76)</f>
-        <v>-26.934210526315791</v>
+        <v>-5.6973684210526319</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -6602,7 +6610,7 @@
         <v>3</v>
       </c>
       <c r="G77">
-        <v>-16</v>
+        <v>6</v>
       </c>
       <c r="H77" t="s">
         <v>4</v>
@@ -6612,7 +6620,7 @@
       </c>
       <c r="K77">
         <f>AVERAGE($G$1:G77)</f>
-        <v>-26.792207792207794</v>
+        <v>-5.5454545454545459</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -6635,7 +6643,7 @@
         <v>3</v>
       </c>
       <c r="G78">
-        <v>-30</v>
+        <v>-22</v>
       </c>
       <c r="H78" t="s">
         <v>4</v>
@@ -6645,7 +6653,7 @@
       </c>
       <c r="K78">
         <f>AVERAGE($G$1:G78)</f>
-        <v>-26.833333333333332</v>
+        <v>-5.7564102564102564</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -6668,7 +6676,7 @@
         <v>3</v>
       </c>
       <c r="G79">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H79" t="s">
         <v>4</v>
@@ -6678,7 +6686,7 @@
       </c>
       <c r="K79">
         <f>AVERAGE($G$1:G79)</f>
-        <v>-26.39240506329114</v>
+        <v>-5.6582278481012658</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -6701,7 +6709,7 @@
         <v>3</v>
       </c>
       <c r="G80">
-        <v>-66</v>
+        <v>-16</v>
       </c>
       <c r="H80" t="s">
         <v>4</v>
@@ -6711,7 +6719,7 @@
       </c>
       <c r="K80">
         <f>AVERAGE($G$1:G80)</f>
-        <v>-26.887499999999999</v>
+        <v>-5.7874999999999996</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -6744,7 +6752,7 @@
       </c>
       <c r="K81">
         <f>AVERAGE($G$1:G81)</f>
-        <v>-26.530864197530864</v>
+        <v>-5.6913580246913584</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -6767,7 +6775,7 @@
         <v>3</v>
       </c>
       <c r="G82">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H82" t="s">
         <v>4</v>
@@ -6777,7 +6785,7 @@
       </c>
       <c r="K82">
         <f>AVERAGE($G$1:G82)</f>
-        <v>-26.158536585365855</v>
+        <v>-5.6219512195121952</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -6800,7 +6808,7 @@
         <v>3</v>
       </c>
       <c r="G83">
-        <v>-107</v>
+        <v>-34</v>
       </c>
       <c r="H83" t="s">
         <v>4</v>
@@ -6810,7 +6818,7 @@
       </c>
       <c r="K83">
         <f>AVERAGE($G$1:G83)</f>
-        <v>-27.132530120481928</v>
+        <v>-5.9638554216867474</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -6833,7 +6841,7 @@
         <v>3</v>
       </c>
       <c r="G84">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H84" t="s">
         <v>4</v>
@@ -6843,7 +6851,7 @@
       </c>
       <c r="K84">
         <f>AVERAGE($G$1:G84)</f>
-        <v>-26.69047619047619</v>
+        <v>-5.8928571428571432</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -6860,23 +6868,23 @@
         <v>2</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85" t="s">
         <v>3</v>
       </c>
       <c r="G85">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H85" t="s">
         <v>4</v>
       </c>
       <c r="I85">
-        <v>928</v>
+        <v>1000</v>
       </c>
       <c r="K85">
         <f>AVERAGE($G$1:G85)</f>
-        <v>-26.294117647058822</v>
+        <v>-5.776470588235294</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -6893,23 +6901,23 @@
         <v>2</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86" t="s">
         <v>3</v>
       </c>
       <c r="G86">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H86" t="s">
         <v>4</v>
       </c>
       <c r="I86">
-        <v>556</v>
+        <v>1000</v>
       </c>
       <c r="K86">
         <f>AVERAGE($G$1:G86)</f>
-        <v>-25.872093023255815</v>
+        <v>-5.6860465116279073</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -6932,7 +6940,7 @@
         <v>3</v>
       </c>
       <c r="G87">
-        <v>-9</v>
+        <v>4</v>
       </c>
       <c r="H87" t="s">
         <v>4</v>
@@ -6942,7 +6950,7 @@
       </c>
       <c r="K87">
         <f>AVERAGE($G$1:G87)</f>
-        <v>-25.678160919540229</v>
+        <v>-5.5747126436781613</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -6965,7 +6973,7 @@
         <v>3</v>
       </c>
       <c r="G88">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H88" t="s">
         <v>4</v>
@@ -6975,7 +6983,7 @@
       </c>
       <c r="K88">
         <f>AVERAGE($G$1:G88)</f>
-        <v>-25.34090909090909</v>
+        <v>-5.4772727272727275</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -6998,7 +7006,7 @@
         <v>3</v>
       </c>
       <c r="G89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H89" t="s">
         <v>4</v>
@@ -7008,7 +7016,7 @@
       </c>
       <c r="K89">
         <f>AVERAGE($G$1:G89)</f>
-        <v>-25.033707865168541</v>
+        <v>-5.404494382022472</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -7031,7 +7039,7 @@
         <v>3</v>
       </c>
       <c r="G90">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H90" t="s">
         <v>4</v>
@@ -7041,7 +7049,7 @@
       </c>
       <c r="K90">
         <f>AVERAGE($G$1:G90)</f>
-        <v>-24.677777777777777</v>
+        <v>-5.2555555555555555</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -7064,7 +7072,7 @@
         <v>3</v>
       </c>
       <c r="G91">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="H91" t="s">
         <v>4</v>
@@ -7074,7 +7082,7 @@
       </c>
       <c r="K91">
         <f>AVERAGE($G$1:G91)</f>
-        <v>-24.472527472527471</v>
+        <v>-5.197802197802198</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -7097,7 +7105,7 @@
         <v>3</v>
       </c>
       <c r="G92">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H92" t="s">
         <v>4</v>
@@ -7107,7 +7115,7 @@
       </c>
       <c r="K92">
         <f>AVERAGE($G$1:G92)</f>
-        <v>-24.097826086956523</v>
+        <v>-5.1413043478260869</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -7130,7 +7138,7 @@
         <v>3</v>
       </c>
       <c r="G93">
-        <v>7</v>
+        <v>-11</v>
       </c>
       <c r="H93" t="s">
         <v>4</v>
@@ -7140,7 +7148,7 @@
       </c>
       <c r="K93">
         <f>AVERAGE($G$1:G93)</f>
-        <v>-23.763440860215052</v>
+        <v>-5.204301075268817</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -7163,7 +7171,7 @@
         <v>3</v>
       </c>
       <c r="G94">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H94" t="s">
         <v>4</v>
@@ -7173,7 +7181,7 @@
       </c>
       <c r="K94">
         <f>AVERAGE($G$1:G94)</f>
-        <v>-23.414893617021278</v>
+        <v>-5.1382978723404253</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -7196,7 +7204,7 @@
         <v>3</v>
       </c>
       <c r="G95">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H95" t="s">
         <v>4</v>
@@ -7206,7 +7214,7 @@
       </c>
       <c r="K95">
         <f>AVERAGE($G$1:G95)</f>
-        <v>-23.05263157894737</v>
+        <v>-5.0842105263157897</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -7229,7 +7237,7 @@
         <v>3</v>
       </c>
       <c r="G96">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H96" t="s">
         <v>4</v>
@@ -7239,7 +7247,7 @@
       </c>
       <c r="K96">
         <f>AVERAGE($G$1:G96)</f>
-        <v>-22.75</v>
+        <v>-5.03125</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -7262,17 +7270,17 @@
         <v>3</v>
       </c>
       <c r="G97">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H97" t="s">
         <v>4</v>
       </c>
       <c r="I97">
-        <v>889</v>
+        <v>877</v>
       </c>
       <c r="K97">
         <f>AVERAGE($G$1:G97)</f>
-        <v>-22.505154639175259</v>
+        <v>-4.9484536082474229</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -7295,7 +7303,7 @@
         <v>3</v>
       </c>
       <c r="G98">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H98" t="s">
         <v>4</v>
@@ -7305,7 +7313,7 @@
       </c>
       <c r="K98">
         <f>AVERAGE($G$1:G98)</f>
-        <v>-22.173469387755102</v>
+        <v>-4.8367346938775508</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -7328,7 +7336,7 @@
         <v>3</v>
       </c>
       <c r="G99">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H99" t="s">
         <v>4</v>
@@ -7338,7 +7346,7 @@
       </c>
       <c r="K99">
         <f>AVERAGE($G$1:G99)</f>
-        <v>-21.949494949494948</v>
+        <v>-4.7474747474747474</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -7355,53 +7363,53 @@
         <v>2</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100" t="s">
         <v>3</v>
       </c>
       <c r="G100">
-        <v>-8</v>
+        <v>1</v>
       </c>
       <c r="H100" t="s">
         <v>4</v>
       </c>
       <c r="I100">
-        <v>1000</v>
+        <v>723</v>
       </c>
       <c r="K100">
         <f>AVERAGE($G$1:G100)</f>
-        <v>-21.81</v>
+        <v>-4.6900000000000004</v>
       </c>
     </row>
     <row r="101" spans="1:11">
+      <c r="A101" t="s">
+        <v>0</v>
+      </c>
       <c r="B101" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C101" t="s">
-        <v>1</v>
-      </c>
-      <c r="D101" t="s">
-        <v>2</v>
-      </c>
-      <c r="E101">
-        <v>0</v>
-      </c>
-      <c r="F101" t="s">
-        <v>3</v>
-      </c>
-      <c r="G101">
-        <v>-14</v>
-      </c>
-      <c r="H101" t="s">
-        <v>4</v>
-      </c>
-      <c r="I101">
+        <v>2</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101" t="s">
+        <v>3</v>
+      </c>
+      <c r="F101">
+        <v>-23</v>
+      </c>
+      <c r="G101" t="s">
+        <v>4</v>
+      </c>
+      <c r="H101">
         <v>1000</v>
       </c>
       <c r="K101">
         <f>AVERAGE($G$1:G101)</f>
-        <v>-21.732673267326732</v>
+        <v>-4.6900000000000004</v>
       </c>
     </row>
   </sheetData>
@@ -7419,8 +7427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101:I101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7448,7 +7456,7 @@
         <v>3</v>
       </c>
       <c r="G1">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
@@ -7480,17 +7488,17 @@
         <v>3</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
         <v>4</v>
       </c>
       <c r="I2">
-        <v>465</v>
+        <v>1000</v>
       </c>
       <c r="K2">
         <f>AVERAGE($G$1:G2)</f>
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -7513,17 +7521,17 @@
         <v>3</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="H3" t="s">
         <v>4</v>
       </c>
       <c r="I3">
-        <v>962</v>
+        <v>562</v>
       </c>
       <c r="K3">
         <f>AVERAGE($G$1:G3)</f>
-        <v>19.333333333333332</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -7546,17 +7554,17 @@
         <v>3</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H4" t="s">
         <v>4</v>
       </c>
       <c r="I4">
-        <v>589</v>
+        <v>619</v>
       </c>
       <c r="K4">
         <f>AVERAGE($G$1:G4)</f>
-        <v>17.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -7579,7 +7587,7 @@
         <v>3</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H5" t="s">
         <v>4</v>
@@ -7589,7 +7597,7 @@
       </c>
       <c r="K5">
         <f>AVERAGE($G$1:G5)</f>
-        <v>16</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -7612,17 +7620,17 @@
         <v>3</v>
       </c>
       <c r="G6">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="H6" t="s">
         <v>4</v>
       </c>
       <c r="I6">
-        <v>1000</v>
+        <v>966</v>
       </c>
       <c r="K6">
         <f>AVERAGE($G$1:G6)</f>
-        <v>15.333333333333334</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -7651,11 +7659,11 @@
         <v>4</v>
       </c>
       <c r="I7">
-        <v>1000</v>
+        <v>459</v>
       </c>
       <c r="K7">
         <f>AVERAGE($G$1:G7)</f>
-        <v>14</v>
+        <v>12.857142857142858</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -7678,7 +7686,7 @@
         <v>3</v>
       </c>
       <c r="G8">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="H8" t="s">
         <v>4</v>
@@ -7688,7 +7696,7 @@
       </c>
       <c r="K8">
         <f>AVERAGE($G$1:G8)</f>
-        <v>14</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -7711,17 +7719,17 @@
         <v>3</v>
       </c>
       <c r="G9">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
         <v>4</v>
       </c>
       <c r="I9">
-        <v>1000</v>
+        <v>596</v>
       </c>
       <c r="K9">
         <f>AVERAGE($G$1:G9)</f>
-        <v>14.444444444444445</v>
+        <v>11.777777777777779</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -7744,7 +7752,7 @@
         <v>3</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H10" t="s">
         <v>4</v>
@@ -7754,7 +7762,7 @@
       </c>
       <c r="K10">
         <f>AVERAGE($G$1:G10)</f>
-        <v>14.4</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -7777,17 +7785,17 @@
         <v>3</v>
       </c>
       <c r="G11">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H11" t="s">
         <v>4</v>
       </c>
       <c r="I11">
-        <v>762</v>
+        <v>600</v>
       </c>
       <c r="K11">
         <f>AVERAGE($G$1:G11)</f>
-        <v>13.454545454545455</v>
+        <v>11.636363636363637</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -7810,17 +7818,17 @@
         <v>3</v>
       </c>
       <c r="G12">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H12" t="s">
         <v>4</v>
       </c>
       <c r="I12">
-        <v>581</v>
+        <v>1000</v>
       </c>
       <c r="K12">
         <f>AVERAGE($G$1:G12)</f>
-        <v>13.833333333333334</v>
+        <v>11.166666666666666</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -7849,11 +7857,11 @@
         <v>4</v>
       </c>
       <c r="I13">
-        <v>587</v>
+        <v>1000</v>
       </c>
       <c r="K13">
         <f>AVERAGE($G$1:G13)</f>
-        <v>13.384615384615385</v>
+        <v>10.923076923076923</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -7876,17 +7884,17 @@
         <v>3</v>
       </c>
       <c r="G14">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H14" t="s">
         <v>4</v>
       </c>
       <c r="I14">
-        <v>598</v>
+        <v>1000</v>
       </c>
       <c r="K14">
         <f>AVERAGE($G$1:G14)</f>
-        <v>13.285714285714286</v>
+        <v>11.428571428571429</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -7909,17 +7917,17 @@
         <v>3</v>
       </c>
       <c r="G15">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H15" t="s">
         <v>4</v>
       </c>
       <c r="I15">
-        <v>472</v>
+        <v>514</v>
       </c>
       <c r="K15">
         <f>AVERAGE($G$1:G15)</f>
-        <v>13.2</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -7942,17 +7950,17 @@
         <v>3</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H16" t="s">
         <v>4</v>
       </c>
       <c r="I16">
-        <v>303</v>
+        <v>448</v>
       </c>
       <c r="K16">
         <f>AVERAGE($G$1:G16)</f>
-        <v>12.5</v>
+        <v>11.125</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -7975,17 +7983,17 @@
         <v>3</v>
       </c>
       <c r="G17">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="H17" t="s">
         <v>4</v>
       </c>
       <c r="I17">
-        <v>927</v>
+        <v>635</v>
       </c>
       <c r="K17">
         <f>AVERAGE($G$1:G17)</f>
-        <v>13.882352941176471</v>
+        <v>11.529411764705882</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -8014,11 +8022,11 @@
         <v>4</v>
       </c>
       <c r="I18">
-        <v>444</v>
+        <v>1000</v>
       </c>
       <c r="K18">
         <f>AVERAGE($G$1:G18)</f>
-        <v>13.555555555555555</v>
+        <v>11.333333333333334</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -8041,17 +8049,17 @@
         <v>3</v>
       </c>
       <c r="G19">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H19" t="s">
         <v>4</v>
       </c>
       <c r="I19">
-        <v>525</v>
+        <v>1000</v>
       </c>
       <c r="K19">
         <f>AVERAGE($G$1:G19)</f>
-        <v>13.578947368421053</v>
+        <v>11.263157894736842</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -8074,17 +8082,17 @@
         <v>3</v>
       </c>
       <c r="G20">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H20" t="s">
         <v>4</v>
       </c>
       <c r="I20">
-        <v>762</v>
+        <v>614</v>
       </c>
       <c r="K20">
         <f>AVERAGE($G$1:G20)</f>
-        <v>13</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -8107,17 +8115,17 @@
         <v>3</v>
       </c>
       <c r="G21">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H21" t="s">
         <v>4</v>
       </c>
       <c r="I21">
-        <v>655</v>
+        <v>696</v>
       </c>
       <c r="K21">
         <f>AVERAGE($G$1:G21)</f>
-        <v>12.761904761904763</v>
+        <v>11.428571428571429</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -8140,17 +8148,17 @@
         <v>3</v>
       </c>
       <c r="G22">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H22" t="s">
         <v>4</v>
       </c>
       <c r="I22">
-        <v>559</v>
+        <v>1000</v>
       </c>
       <c r="K22">
         <f>AVERAGE($G$1:G22)</f>
-        <v>12.818181818181818</v>
+        <v>11.454545454545455</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -8173,17 +8181,17 @@
         <v>3</v>
       </c>
       <c r="G23">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="H23" t="s">
         <v>4</v>
       </c>
       <c r="I23">
-        <v>374</v>
+        <v>993</v>
       </c>
       <c r="K23">
         <f>AVERAGE($G$1:G23)</f>
-        <v>12.695652173913043</v>
+        <v>12.434782608695652</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -8206,17 +8214,17 @@
         <v>3</v>
       </c>
       <c r="G24">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="H24" t="s">
         <v>4</v>
       </c>
       <c r="I24">
-        <v>640</v>
+        <v>679</v>
       </c>
       <c r="K24">
         <f>AVERAGE($G$1:G24)</f>
-        <v>12.25</v>
+        <v>13.416666666666666</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -8239,17 +8247,17 @@
         <v>3</v>
       </c>
       <c r="G25">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="H25" t="s">
         <v>4</v>
       </c>
       <c r="I25">
-        <v>1000</v>
+        <v>641</v>
       </c>
       <c r="K25">
         <f>AVERAGE($G$1:G25)</f>
-        <v>12.48</v>
+        <v>14.32</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -8272,17 +8280,17 @@
         <v>3</v>
       </c>
       <c r="G26">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H26" t="s">
         <v>4</v>
       </c>
       <c r="I26">
-        <v>813</v>
+        <v>452</v>
       </c>
       <c r="K26">
         <f>AVERAGE($G$1:G26)</f>
-        <v>12.384615384615385</v>
+        <v>14.923076923076923</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -8305,17 +8313,17 @@
         <v>3</v>
       </c>
       <c r="G27">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H27" t="s">
         <v>4</v>
       </c>
       <c r="I27">
-        <v>819</v>
+        <v>1000</v>
       </c>
       <c r="K27">
         <f>AVERAGE($G$1:G27)</f>
-        <v>12.518518518518519</v>
+        <v>14.592592592592593</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -8338,17 +8346,17 @@
         <v>3</v>
       </c>
       <c r="G28">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H28" t="s">
         <v>4</v>
       </c>
       <c r="I28">
-        <v>815</v>
+        <v>921</v>
       </c>
       <c r="K28">
         <f>AVERAGE($G$1:G28)</f>
-        <v>12.5</v>
+        <v>14.357142857142858</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -8377,11 +8385,11 @@
         <v>4</v>
       </c>
       <c r="I29">
-        <v>435</v>
+        <v>1000</v>
       </c>
       <c r="K29">
         <f>AVERAGE($G$1:G29)</f>
-        <v>12.413793103448276</v>
+        <v>14.206896551724139</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -8404,17 +8412,17 @@
         <v>3</v>
       </c>
       <c r="G30">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H30" t="s">
         <v>4</v>
       </c>
       <c r="I30">
-        <v>1000</v>
+        <v>507</v>
       </c>
       <c r="K30">
         <f>AVERAGE($G$1:G30)</f>
-        <v>12.333333333333334</v>
+        <v>14.333333333333334</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -8437,17 +8445,17 @@
         <v>3</v>
       </c>
       <c r="G31">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H31" t="s">
         <v>4</v>
       </c>
       <c r="I31">
-        <v>412</v>
+        <v>1000</v>
       </c>
       <c r="K31">
         <f>AVERAGE($G$1:G31)</f>
-        <v>12.193548387096774</v>
+        <v>14.387096774193548</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -8470,7 +8478,7 @@
         <v>3</v>
       </c>
       <c r="G32">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="H32" t="s">
         <v>4</v>
@@ -8480,7 +8488,7 @@
       </c>
       <c r="K32">
         <f>AVERAGE($G$1:G32)</f>
-        <v>12.0625</v>
+        <v>14.8125</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -8503,7 +8511,7 @@
         <v>3</v>
       </c>
       <c r="G33">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
         <v>4</v>
@@ -8513,7 +8521,7 @@
       </c>
       <c r="K33">
         <f>AVERAGE($G$1:G33)</f>
-        <v>12.363636363636363</v>
+        <v>14.787878787878787</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -8536,17 +8544,17 @@
         <v>3</v>
       </c>
       <c r="G34">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="H34" t="s">
         <v>4</v>
       </c>
       <c r="I34">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="K34">
         <f>AVERAGE($G$1:G34)</f>
-        <v>12.117647058823529</v>
+        <v>15.352941176470589</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -8569,17 +8577,17 @@
         <v>3</v>
       </c>
       <c r="G35">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="H35" t="s">
         <v>4</v>
       </c>
       <c r="I35">
-        <v>418</v>
+        <v>852</v>
       </c>
       <c r="K35">
         <f>AVERAGE($G$1:G35)</f>
-        <v>12.057142857142857</v>
+        <v>15.942857142857143</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -8602,17 +8610,17 @@
         <v>3</v>
       </c>
       <c r="G36">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="H36" t="s">
         <v>4</v>
       </c>
       <c r="I36">
-        <v>358</v>
+        <v>835</v>
       </c>
       <c r="K36">
         <f>AVERAGE($G$1:G36)</f>
-        <v>12.444444444444445</v>
+        <v>15.833333333333334</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -8635,17 +8643,17 @@
         <v>3</v>
       </c>
       <c r="G37">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H37" t="s">
         <v>4</v>
       </c>
       <c r="I37">
-        <v>908</v>
+        <v>705</v>
       </c>
       <c r="K37">
         <f>AVERAGE($G$1:G37)</f>
-        <v>12.594594594594595</v>
+        <v>16.216216216216218</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -8668,17 +8676,17 @@
         <v>3</v>
       </c>
       <c r="G38">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s">
         <v>4</v>
       </c>
       <c r="I38">
-        <v>1000</v>
+        <v>708</v>
       </c>
       <c r="K38">
         <f>AVERAGE($G$1:G38)</f>
-        <v>12.894736842105264</v>
+        <v>16.157894736842106</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -8701,17 +8709,17 @@
         <v>3</v>
       </c>
       <c r="G39">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H39" t="s">
         <v>4</v>
       </c>
       <c r="I39">
-        <v>1000</v>
+        <v>955</v>
       </c>
       <c r="K39">
         <f>AVERAGE($G$1:G39)</f>
-        <v>13.641025641025641</v>
+        <v>16.358974358974358</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -8734,17 +8742,17 @@
         <v>3</v>
       </c>
       <c r="G40">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H40" t="s">
         <v>4</v>
       </c>
       <c r="I40">
-        <v>546</v>
+        <v>507</v>
       </c>
       <c r="K40">
         <f>AVERAGE($G$1:G40)</f>
-        <v>13.55</v>
+        <v>16.399999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -8767,7 +8775,7 @@
         <v>3</v>
       </c>
       <c r="G41">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="H41" t="s">
         <v>4</v>
@@ -8777,7 +8785,7 @@
       </c>
       <c r="K41">
         <f>AVERAGE($G$1:G41)</f>
-        <v>13.365853658536585</v>
+        <v>16.682926829268293</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -8800,17 +8808,17 @@
         <v>3</v>
       </c>
       <c r="G42">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="H42" t="s">
         <v>4</v>
       </c>
       <c r="I42">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="K42">
         <f>AVERAGE($G$1:G42)</f>
-        <v>13.476190476190476</v>
+        <v>17.238095238095237</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -8833,17 +8841,17 @@
         <v>3</v>
       </c>
       <c r="G43">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H43" t="s">
         <v>4</v>
       </c>
       <c r="I43">
-        <v>776</v>
+        <v>621</v>
       </c>
       <c r="K43">
         <f>AVERAGE($G$1:G43)</f>
-        <v>13.534883720930232</v>
+        <v>17.302325581395348</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -8866,17 +8874,17 @@
         <v>3</v>
       </c>
       <c r="G44">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="H44" t="s">
         <v>4</v>
       </c>
       <c r="I44">
-        <v>1000</v>
+        <v>740</v>
       </c>
       <c r="K44">
         <f>AVERAGE($G$1:G44)</f>
-        <v>13.5</v>
+        <v>17.454545454545453</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -8899,17 +8907,17 @@
         <v>3</v>
       </c>
       <c r="G45">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H45" t="s">
         <v>4</v>
       </c>
       <c r="I45">
-        <v>1000</v>
+        <v>491</v>
       </c>
       <c r="K45">
         <f>AVERAGE($G$1:G45)</f>
-        <v>13.466666666666667</v>
+        <v>17.422222222222221</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -8932,17 +8940,17 @@
         <v>3</v>
       </c>
       <c r="G46">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="H46" t="s">
         <v>4</v>
       </c>
       <c r="I46">
-        <v>750</v>
+        <v>703</v>
       </c>
       <c r="K46">
         <f>AVERAGE($G$1:G46)</f>
-        <v>13.478260869565217</v>
+        <v>17.608695652173914</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -8965,17 +8973,17 @@
         <v>3</v>
       </c>
       <c r="G47">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H47" t="s">
         <v>4</v>
       </c>
       <c r="I47">
-        <v>775</v>
+        <v>752</v>
       </c>
       <c r="K47">
         <f>AVERAGE($G$1:G47)</f>
-        <v>13.446808510638299</v>
+        <v>17.702127659574469</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -8998,7 +9006,7 @@
         <v>3</v>
       </c>
       <c r="G48">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H48" t="s">
         <v>4</v>
@@ -9008,7 +9016,7 @@
       </c>
       <c r="K48">
         <f>AVERAGE($G$1:G48)</f>
-        <v>13.666666666666666</v>
+        <v>17.916666666666668</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -9031,17 +9039,17 @@
         <v>3</v>
       </c>
       <c r="G49">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H49" t="s">
         <v>4</v>
       </c>
       <c r="I49">
-        <v>429</v>
+        <v>702</v>
       </c>
       <c r="K49">
         <f>AVERAGE($G$1:G49)</f>
-        <v>13.551020408163266</v>
+        <v>17.755102040816325</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -9064,17 +9072,17 @@
         <v>3</v>
       </c>
       <c r="G50">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H50" t="s">
         <v>4</v>
       </c>
       <c r="I50">
-        <v>1000</v>
+        <v>965</v>
       </c>
       <c r="K50">
         <f>AVERAGE($G$1:G50)</f>
-        <v>13.76</v>
+        <v>17.96</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -9097,17 +9105,17 @@
         <v>3</v>
       </c>
       <c r="G51">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="H51" t="s">
         <v>4</v>
       </c>
       <c r="I51">
-        <v>395</v>
+        <v>899</v>
       </c>
       <c r="K51">
         <f>AVERAGE($G$1:G51)</f>
-        <v>13.607843137254902</v>
+        <v>18.078431372549019</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -9130,17 +9138,17 @@
         <v>3</v>
       </c>
       <c r="G52">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="H52" t="s">
         <v>4</v>
       </c>
       <c r="I52">
-        <v>828</v>
+        <v>701</v>
       </c>
       <c r="K52">
         <f>AVERAGE($G$1:G52)</f>
-        <v>13.76923076923077</v>
+        <v>17.923076923076923</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -9163,17 +9171,17 @@
         <v>3</v>
       </c>
       <c r="G53">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="H53" t="s">
         <v>4</v>
       </c>
       <c r="I53">
-        <v>625</v>
+        <v>890</v>
       </c>
       <c r="K53">
         <f>AVERAGE($G$1:G53)</f>
-        <v>13.547169811320755</v>
+        <v>18.226415094339622</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -9196,17 +9204,17 @@
         <v>3</v>
       </c>
       <c r="G54">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H54" t="s">
         <v>4</v>
       </c>
       <c r="I54">
-        <v>736</v>
+        <v>507</v>
       </c>
       <c r="K54">
         <f>AVERAGE($G$1:G54)</f>
-        <v>13.444444444444445</v>
+        <v>18.222222222222221</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -9229,17 +9237,17 @@
         <v>3</v>
       </c>
       <c r="G55">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H55" t="s">
         <v>4</v>
       </c>
       <c r="I55">
-        <v>1000</v>
+        <v>745</v>
       </c>
       <c r="K55">
         <f>AVERAGE($G$1:G55)</f>
-        <v>13.418181818181818</v>
+        <v>18.145454545454545</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -9262,7 +9270,7 @@
         <v>3</v>
       </c>
       <c r="G56">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H56" t="s">
         <v>4</v>
@@ -9272,7 +9280,7 @@
       </c>
       <c r="K56">
         <f>AVERAGE($G$1:G56)</f>
-        <v>13.428571428571429</v>
+        <v>18.035714285714285</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -9295,17 +9303,17 @@
         <v>3</v>
       </c>
       <c r="G57">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="H57" t="s">
         <v>4</v>
       </c>
       <c r="I57">
-        <v>1000</v>
+        <v>832</v>
       </c>
       <c r="K57">
         <f>AVERAGE($G$1:G57)</f>
-        <v>13.43859649122807</v>
+        <v>18.421052631578949</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -9328,17 +9336,17 @@
         <v>3</v>
       </c>
       <c r="G58">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="H58" t="s">
         <v>4</v>
       </c>
       <c r="I58">
-        <v>499</v>
+        <v>859</v>
       </c>
       <c r="K58">
         <f>AVERAGE($G$1:G58)</f>
-        <v>13.551724137931034</v>
+        <v>18.758620689655171</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -9361,17 +9369,17 @@
         <v>3</v>
       </c>
       <c r="G59">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="H59" t="s">
         <v>4</v>
       </c>
       <c r="I59">
-        <v>625</v>
+        <v>758</v>
       </c>
       <c r="K59">
         <f>AVERAGE($G$1:G59)</f>
-        <v>13.35593220338983</v>
+        <v>19.016949152542374</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -9394,17 +9402,17 @@
         <v>3</v>
       </c>
       <c r="G60">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H60" t="s">
         <v>4</v>
       </c>
       <c r="I60">
-        <v>1000</v>
+        <v>947</v>
       </c>
       <c r="K60">
         <f>AVERAGE($G$1:G60)</f>
-        <v>13.3</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -9427,17 +9435,17 @@
         <v>3</v>
       </c>
       <c r="G61">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="H61" t="s">
         <v>4</v>
       </c>
       <c r="I61">
-        <v>1000</v>
+        <v>514</v>
       </c>
       <c r="K61">
         <f>AVERAGE($G$1:G61)</f>
-        <v>13.245901639344263</v>
+        <v>19.475409836065573</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -9460,17 +9468,17 @@
         <v>3</v>
       </c>
       <c r="G62">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="H62" t="s">
         <v>4</v>
       </c>
       <c r="I62">
-        <v>1000</v>
+        <v>876</v>
       </c>
       <c r="K62">
         <f>AVERAGE($G$1:G62)</f>
-        <v>13.193548387096774</v>
+        <v>19.548387096774192</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -9499,11 +9507,11 @@
         <v>4</v>
       </c>
       <c r="I63">
-        <v>454</v>
+        <v>1000</v>
       </c>
       <c r="K63">
         <f>AVERAGE($G$1:G63)</f>
-        <v>13.015873015873016</v>
+        <v>19.269841269841269</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -9526,17 +9534,17 @@
         <v>3</v>
       </c>
       <c r="G64">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H64" t="s">
         <v>4</v>
       </c>
       <c r="I64">
-        <v>422</v>
+        <v>583</v>
       </c>
       <c r="K64">
         <f>AVERAGE($G$1:G64)</f>
-        <v>12.96875</v>
+        <v>19.0625</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -9559,17 +9567,17 @@
         <v>3</v>
       </c>
       <c r="G65">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="H65" t="s">
         <v>4</v>
       </c>
       <c r="I65">
-        <v>491</v>
+        <v>1000</v>
       </c>
       <c r="K65">
         <f>AVERAGE($G$1:G65)</f>
-        <v>12.861538461538462</v>
+        <v>19.261538461538461</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -9592,17 +9600,17 @@
         <v>3</v>
       </c>
       <c r="G66">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="H66" t="s">
         <v>4</v>
       </c>
       <c r="I66">
-        <v>1000</v>
+        <v>922</v>
       </c>
       <c r="K66">
         <f>AVERAGE($G$1:G66)</f>
-        <v>12.848484848484848</v>
+        <v>19.515151515151516</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -9625,17 +9633,17 @@
         <v>3</v>
       </c>
       <c r="G67">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="H67" t="s">
         <v>4</v>
       </c>
       <c r="I67">
-        <v>569</v>
+        <v>593</v>
       </c>
       <c r="K67">
         <f>AVERAGE($G$1:G67)</f>
-        <v>12.835820895522389</v>
+        <v>19.611940298507463</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -9658,17 +9666,17 @@
         <v>3</v>
       </c>
       <c r="G68">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H68" t="s">
         <v>4</v>
       </c>
       <c r="I68">
-        <v>864</v>
+        <v>733</v>
       </c>
       <c r="K68">
         <f>AVERAGE($G$1:G68)</f>
-        <v>12.852941176470589</v>
+        <v>19.764705882352942</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -9691,17 +9699,17 @@
         <v>3</v>
       </c>
       <c r="G69">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="H69" t="s">
         <v>4</v>
       </c>
       <c r="I69">
-        <v>495</v>
+        <v>847</v>
       </c>
       <c r="K69">
         <f>AVERAGE($G$1:G69)</f>
-        <v>12.72463768115942</v>
+        <v>19.797101449275363</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -9724,7 +9732,7 @@
         <v>3</v>
       </c>
       <c r="G70">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="H70" t="s">
         <v>4</v>
@@ -9734,7 +9742,7 @@
       </c>
       <c r="K70">
         <f>AVERAGE($G$1:G70)</f>
-        <v>12.6</v>
+        <v>19.771428571428572</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -9757,17 +9765,17 @@
         <v>3</v>
       </c>
       <c r="G71">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="H71" t="s">
         <v>4</v>
       </c>
       <c r="I71">
-        <v>646</v>
+        <v>1000</v>
       </c>
       <c r="K71">
         <f>AVERAGE($G$1:G71)</f>
-        <v>12.507042253521126</v>
+        <v>20.028169014084508</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -9790,17 +9798,17 @@
         <v>3</v>
       </c>
       <c r="G72">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H72" t="s">
         <v>4</v>
       </c>
       <c r="I72">
-        <v>1000</v>
+        <v>543</v>
       </c>
       <c r="K72">
         <f>AVERAGE($G$1:G72)</f>
-        <v>12.75</v>
+        <v>20.027777777777779</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -9823,17 +9831,17 @@
         <v>3</v>
       </c>
       <c r="G73">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="H73" t="s">
         <v>4</v>
       </c>
       <c r="I73">
-        <v>456</v>
+        <v>718</v>
       </c>
       <c r="K73">
         <f>AVERAGE($G$1:G73)</f>
-        <v>12.821917808219178</v>
+        <v>20.273972602739725</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -9856,17 +9864,17 @@
         <v>3</v>
       </c>
       <c r="G74">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H74" t="s">
         <v>4</v>
       </c>
       <c r="I74">
-        <v>490</v>
+        <v>507</v>
       </c>
       <c r="K74">
         <f>AVERAGE($G$1:G74)</f>
-        <v>12.972972972972974</v>
+        <v>20.243243243243242</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -9889,17 +9897,17 @@
         <v>3</v>
       </c>
       <c r="G75">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="H75" t="s">
         <v>4</v>
       </c>
       <c r="I75">
-        <v>564</v>
+        <v>1000</v>
       </c>
       <c r="K75">
         <f>AVERAGE($G$1:G75)</f>
-        <v>12.986666666666666</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -9922,17 +9930,17 @@
         <v>3</v>
       </c>
       <c r="G76">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H76" t="s">
         <v>4</v>
       </c>
       <c r="I76">
-        <v>1000</v>
+        <v>669</v>
       </c>
       <c r="K76">
         <f>AVERAGE($G$1:G76)</f>
-        <v>12.842105263157896</v>
+        <v>19.842105263157894</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -9961,11 +9969,11 @@
         <v>4</v>
       </c>
       <c r="I77">
-        <v>929</v>
+        <v>491</v>
       </c>
       <c r="K77">
         <f>AVERAGE($G$1:G77)</f>
-        <v>12.883116883116884</v>
+        <v>19.792207792207794</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -9988,17 +9996,17 @@
         <v>3</v>
       </c>
       <c r="G78">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="H78" t="s">
         <v>4</v>
       </c>
       <c r="I78">
-        <v>491</v>
+        <v>1000</v>
       </c>
       <c r="K78">
         <f>AVERAGE($G$1:G78)</f>
-        <v>12.820512820512821</v>
+        <v>19.974358974358974</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -10021,17 +10029,17 @@
         <v>3</v>
       </c>
       <c r="G79">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H79" t="s">
         <v>4</v>
       </c>
       <c r="I79">
-        <v>651</v>
+        <v>1000</v>
       </c>
       <c r="K79">
         <f>AVERAGE($G$1:G79)</f>
-        <v>12.835443037974683</v>
+        <v>19.873417721518987</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -10054,17 +10062,17 @@
         <v>3</v>
       </c>
       <c r="G80">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="H80" t="s">
         <v>4</v>
       </c>
       <c r="I80">
-        <v>800</v>
+        <v>689</v>
       </c>
       <c r="K80">
         <f>AVERAGE($G$1:G80)</f>
-        <v>12.75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -10087,17 +10095,17 @@
         <v>3</v>
       </c>
       <c r="G81">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="H81" t="s">
         <v>4</v>
       </c>
       <c r="I81">
-        <v>281</v>
+        <v>568</v>
       </c>
       <c r="K81">
         <f>AVERAGE($G$1:G81)</f>
-        <v>12.666666666666666</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -10120,17 +10128,17 @@
         <v>3</v>
       </c>
       <c r="G82">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H82" t="s">
         <v>4</v>
       </c>
       <c r="I82">
-        <v>400</v>
+        <v>706</v>
       </c>
       <c r="K82">
         <f>AVERAGE($G$1:G82)</f>
-        <v>12.634146341463415</v>
+        <v>19.975609756097562</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -10153,17 +10161,17 @@
         <v>3</v>
       </c>
       <c r="G83">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H83" t="s">
         <v>4</v>
       </c>
       <c r="I83">
-        <v>308</v>
+        <v>1000</v>
       </c>
       <c r="K83">
         <f>AVERAGE($G$1:G83)</f>
-        <v>12.602409638554217</v>
+        <v>19.759036144578314</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -10186,17 +10194,17 @@
         <v>3</v>
       </c>
       <c r="G84">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H84" t="s">
         <v>4</v>
       </c>
       <c r="I84">
-        <v>596</v>
+        <v>527</v>
       </c>
       <c r="K84">
         <f>AVERAGE($G$1:G84)</f>
-        <v>12.785714285714286</v>
+        <v>19.761904761904763</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -10225,11 +10233,11 @@
         <v>4</v>
       </c>
       <c r="I85">
-        <v>994</v>
+        <v>497</v>
       </c>
       <c r="K85">
         <f>AVERAGE($G$1:G85)</f>
-        <v>12.847058823529412</v>
+        <v>19.741176470588236</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -10252,17 +10260,17 @@
         <v>3</v>
       </c>
       <c r="G86">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="H86" t="s">
         <v>4</v>
       </c>
       <c r="I86">
-        <v>640</v>
+        <v>507</v>
       </c>
       <c r="K86">
         <f>AVERAGE($G$1:G86)</f>
-        <v>12.720930232558139</v>
+        <v>19.720930232558139</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -10285,17 +10293,17 @@
         <v>3</v>
       </c>
       <c r="G87">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="H87" t="s">
         <v>4</v>
       </c>
       <c r="I87">
-        <v>640</v>
+        <v>1000</v>
       </c>
       <c r="K87">
         <f>AVERAGE($G$1:G87)</f>
-        <v>12.597701149425287</v>
+        <v>19.816091954022987</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -10318,17 +10326,17 @@
         <v>3</v>
       </c>
       <c r="G88">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H88" t="s">
         <v>4</v>
       </c>
       <c r="I88">
-        <v>830</v>
+        <v>652</v>
       </c>
       <c r="K88">
         <f>AVERAGE($G$1:G88)</f>
-        <v>12.659090909090908</v>
+        <v>19.84090909090909</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -10351,17 +10359,17 @@
         <v>3</v>
       </c>
       <c r="G89">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H89" t="s">
         <v>4</v>
       </c>
       <c r="I89">
-        <v>956</v>
+        <v>512</v>
       </c>
       <c r="K89">
         <f>AVERAGE($G$1:G89)</f>
-        <v>12.876404494382022</v>
+        <v>19.95505617977528</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -10384,17 +10392,17 @@
         <v>3</v>
       </c>
       <c r="G90">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="H90" t="s">
         <v>4</v>
       </c>
       <c r="I90">
-        <v>628</v>
+        <v>1000</v>
       </c>
       <c r="K90">
         <f>AVERAGE($G$1:G90)</f>
-        <v>12.888888888888889</v>
+        <v>20.022222222222222</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -10417,17 +10425,17 @@
         <v>3</v>
       </c>
       <c r="G91">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H91" t="s">
         <v>4</v>
       </c>
       <c r="I91">
-        <v>1000</v>
+        <v>643</v>
       </c>
       <c r="K91">
         <f>AVERAGE($G$1:G91)</f>
-        <v>13.098901098901099</v>
+        <v>20.021978021978022</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -10450,17 +10458,17 @@
         <v>3</v>
       </c>
       <c r="G92">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="H92" t="s">
         <v>4</v>
       </c>
       <c r="I92">
-        <v>552</v>
+        <v>933</v>
       </c>
       <c r="K92">
         <f>AVERAGE($G$1:G92)</f>
-        <v>13.152173913043478</v>
+        <v>20.217391304347824</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -10483,7 +10491,7 @@
         <v>3</v>
       </c>
       <c r="G93">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="H93" t="s">
         <v>4</v>
@@ -10493,7 +10501,7 @@
       </c>
       <c r="K93">
         <f>AVERAGE($G$1:G93)</f>
-        <v>13.053763440860216</v>
+        <v>20.322580645161292</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -10516,17 +10524,17 @@
         <v>3</v>
       </c>
       <c r="G94">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H94" t="s">
         <v>4</v>
       </c>
       <c r="I94">
-        <v>627</v>
+        <v>553</v>
       </c>
       <c r="K94">
         <f>AVERAGE($G$1:G94)</f>
-        <v>13.106382978723405</v>
+        <v>20.319148936170212</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -10549,17 +10557,17 @@
         <v>3</v>
       </c>
       <c r="G95">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="H95" t="s">
         <v>4</v>
       </c>
       <c r="I95">
-        <v>1000</v>
+        <v>972</v>
       </c>
       <c r="K95">
         <f>AVERAGE($G$1:G95)</f>
-        <v>13.094736842105263</v>
+        <v>20.378947368421052</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -10582,17 +10590,17 @@
         <v>3</v>
       </c>
       <c r="G96">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H96" t="s">
         <v>4</v>
       </c>
       <c r="I96">
-        <v>1000</v>
+        <v>845</v>
       </c>
       <c r="K96">
         <f>AVERAGE($G$1:G96)</f>
-        <v>13.0625</v>
+        <v>20.395833333333332</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -10615,17 +10623,17 @@
         <v>3</v>
       </c>
       <c r="G97">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H97" t="s">
         <v>4</v>
       </c>
       <c r="I97">
-        <v>753</v>
+        <v>857</v>
       </c>
       <c r="K97">
         <f>AVERAGE($G$1:G97)</f>
-        <v>13.030927835051546</v>
+        <v>20.391752577319586</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -10648,17 +10656,17 @@
         <v>3</v>
       </c>
       <c r="G98">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H98" t="s">
         <v>4</v>
       </c>
       <c r="I98">
-        <v>413</v>
+        <v>620</v>
       </c>
       <c r="K98">
         <f>AVERAGE($G$1:G98)</f>
-        <v>12.979591836734693</v>
+        <v>20.285714285714285</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -10681,17 +10689,17 @@
         <v>3</v>
       </c>
       <c r="G99">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H99" t="s">
         <v>4</v>
       </c>
       <c r="I99">
-        <v>1000</v>
+        <v>589</v>
       </c>
       <c r="K99">
         <f>AVERAGE($G$1:G99)</f>
-        <v>13.070707070707071</v>
+        <v>20.262626262626263</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -10714,17 +10722,17 @@
         <v>3</v>
       </c>
       <c r="G100">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="H100" t="s">
         <v>4</v>
       </c>
       <c r="I100">
-        <v>645</v>
+        <v>1000</v>
       </c>
       <c r="K100">
         <f>AVERAGE($G$1:G100)</f>
-        <v>13</v>
+        <v>20.36</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -10744,17 +10752,17 @@
         <v>3</v>
       </c>
       <c r="G101">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H101" t="s">
         <v>4</v>
       </c>
       <c r="I101">
-        <v>411</v>
+        <v>1000</v>
       </c>
       <c r="K101">
         <f>AVERAGE($G$1:G101)</f>
-        <v>12.970297029702971</v>
+        <v>20.277227722772277</v>
       </c>
     </row>
   </sheetData>
@@ -10772,7 +10780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A48" workbookViewId="0">
       <selection activeCell="B101" sqref="B101:I101"/>
     </sheetView>
   </sheetViews>
@@ -10807,7 +10815,7 @@
         <v>4</v>
       </c>
       <c r="I1">
-        <v>911</v>
+        <v>495</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>5</v>
@@ -10839,7 +10847,7 @@
         <v>4</v>
       </c>
       <c r="I2">
-        <v>343</v>
+        <v>951</v>
       </c>
       <c r="K2">
         <f>AVERAGE($G$1:G2)</f>
@@ -10866,17 +10874,17 @@
         <v>3</v>
       </c>
       <c r="G3">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H3" t="s">
         <v>4</v>
       </c>
       <c r="I3">
-        <v>763</v>
+        <v>1000</v>
       </c>
       <c r="K3">
         <f>AVERAGE($G$1:G3)</f>
-        <v>-1</v>
+        <v>1.3333333333333333</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -10905,11 +10913,11 @@
         <v>4</v>
       </c>
       <c r="I4">
-        <v>763</v>
+        <v>179</v>
       </c>
       <c r="K4">
         <f>AVERAGE($G$1:G4)</f>
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -10932,17 +10940,17 @@
         <v>3</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H5" t="s">
         <v>4</v>
       </c>
       <c r="I5">
-        <v>1000</v>
+        <v>951</v>
       </c>
       <c r="K5">
         <f>AVERAGE($G$1:G5)</f>
-        <v>-0.8</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -10965,17 +10973,17 @@
         <v>3</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H6" t="s">
         <v>4</v>
       </c>
       <c r="I6">
-        <v>1000</v>
+        <v>951</v>
       </c>
       <c r="K6">
         <f>AVERAGE($G$1:G6)</f>
-        <v>-0.66666666666666663</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -11004,11 +11012,11 @@
         <v>4</v>
       </c>
       <c r="I7">
-        <v>763</v>
+        <v>511</v>
       </c>
       <c r="K7">
         <f>AVERAGE($G$1:G7)</f>
-        <v>-0.7142857142857143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -11031,17 +11039,17 @@
         <v>3</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H8" t="s">
         <v>4</v>
       </c>
       <c r="I8">
-        <v>1000</v>
+        <v>179</v>
       </c>
       <c r="K8">
         <f>AVERAGE($G$1:G8)</f>
-        <v>-0.625</v>
+        <v>-0.125</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -11064,17 +11072,17 @@
         <v>3</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H9" t="s">
         <v>4</v>
       </c>
       <c r="I9">
-        <v>1000</v>
+        <v>511</v>
       </c>
       <c r="K9">
         <f>AVERAGE($G$1:G9)</f>
-        <v>-0.55555555555555558</v>
+        <v>-0.22222222222222221</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -11097,13 +11105,13 @@
         <v>3</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="H10" t="s">
         <v>4</v>
       </c>
       <c r="I10">
-        <v>1000</v>
+        <v>511</v>
       </c>
       <c r="K10">
         <f>AVERAGE($G$1:G10)</f>
@@ -11136,7 +11144,7 @@
         <v>4</v>
       </c>
       <c r="I11">
-        <v>763</v>
+        <v>507</v>
       </c>
       <c r="K11">
         <f>AVERAGE($G$1:G11)</f>
@@ -11163,17 +11171,17 @@
         <v>3</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H12" t="s">
         <v>4</v>
       </c>
       <c r="I12">
-        <v>1000</v>
+        <v>511</v>
       </c>
       <c r="K12">
         <f>AVERAGE($G$1:G12)</f>
-        <v>-0.33333333333333331</v>
+        <v>-0.41666666666666669</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -11196,17 +11204,17 @@
         <v>3</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13" t="s">
         <v>4</v>
       </c>
       <c r="I13">
-        <v>1000</v>
+        <v>819</v>
       </c>
       <c r="K13">
         <f>AVERAGE($G$1:G13)</f>
-        <v>-0.15384615384615385</v>
+        <v>-0.30769230769230771</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -11235,11 +11243,11 @@
         <v>4</v>
       </c>
       <c r="I14">
-        <v>935</v>
+        <v>511</v>
       </c>
       <c r="K14">
         <f>AVERAGE($G$1:G14)</f>
-        <v>-0.21428571428571427</v>
+        <v>-0.35714285714285715</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -11262,17 +11270,17 @@
         <v>3</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="H15" t="s">
         <v>4</v>
       </c>
       <c r="I15">
-        <v>1000</v>
+        <v>511</v>
       </c>
       <c r="K15">
         <f>AVERAGE($G$1:G15)</f>
-        <v>-6.6666666666666666E-2</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -11301,11 +11309,11 @@
         <v>4</v>
       </c>
       <c r="I16">
-        <v>763</v>
+        <v>511</v>
       </c>
       <c r="K16">
         <f>AVERAGE($G$1:G16)</f>
-        <v>-0.125</v>
+        <v>-0.4375</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -11328,13 +11336,13 @@
         <v>3</v>
       </c>
       <c r="G17">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="H17" t="s">
         <v>4</v>
       </c>
       <c r="I17">
-        <v>279</v>
+        <v>1000</v>
       </c>
       <c r="K17">
         <f>AVERAGE($G$1:G17)</f>
@@ -11367,7 +11375,7 @@
         <v>4</v>
       </c>
       <c r="I18">
-        <v>279</v>
+        <v>511</v>
       </c>
       <c r="K18">
         <f>AVERAGE($G$1:G18)</f>
@@ -11400,7 +11408,7 @@
         <v>4</v>
       </c>
       <c r="I19">
-        <v>279</v>
+        <v>951</v>
       </c>
       <c r="K19">
         <f>AVERAGE($G$1:G19)</f>
@@ -11433,7 +11441,7 @@
         <v>4</v>
       </c>
       <c r="I20">
-        <v>763</v>
+        <v>511</v>
       </c>
       <c r="K20">
         <f>AVERAGE($G$1:G20)</f>
@@ -11460,17 +11468,17 @@
         <v>3</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="H21" t="s">
         <v>4</v>
       </c>
       <c r="I21">
-        <v>1000</v>
+        <v>511</v>
       </c>
       <c r="K21">
         <f>AVERAGE($G$1:G21)</f>
-        <v>-0.19047619047619047</v>
+        <v>-0.33333333333333331</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -11499,11 +11507,11 @@
         <v>4</v>
       </c>
       <c r="I22">
-        <v>763</v>
+        <v>511</v>
       </c>
       <c r="K22">
         <f>AVERAGE($G$1:G22)</f>
-        <v>-0.22727272727272727</v>
+        <v>-0.36363636363636365</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -11532,11 +11540,11 @@
         <v>4</v>
       </c>
       <c r="I23">
-        <v>763</v>
+        <v>511</v>
       </c>
       <c r="K23">
         <f>AVERAGE($G$1:G23)</f>
-        <v>-0.2608695652173913</v>
+        <v>-0.39130434782608697</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -11559,17 +11567,17 @@
         <v>3</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H24" t="s">
         <v>4</v>
       </c>
       <c r="I24">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="K24">
         <f>AVERAGE($G$1:G24)</f>
-        <v>-0.25</v>
+        <v>-0.41666666666666669</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -11592,17 +11600,17 @@
         <v>3</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="s">
         <v>4</v>
       </c>
       <c r="I25">
-        <v>1000</v>
+        <v>499</v>
       </c>
       <c r="K25">
         <f>AVERAGE($G$1:G25)</f>
-        <v>-0.24</v>
+        <v>-0.36</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -11631,11 +11639,11 @@
         <v>4</v>
       </c>
       <c r="I26">
-        <v>759</v>
+        <v>963</v>
       </c>
       <c r="K26">
         <f>AVERAGE($G$1:G26)</f>
-        <v>-0.26923076923076922</v>
+        <v>-0.38461538461538464</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -11658,17 +11666,17 @@
         <v>3</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H27" t="s">
         <v>4</v>
       </c>
       <c r="I27">
-        <v>1000</v>
+        <v>951</v>
       </c>
       <c r="K27">
         <f>AVERAGE($G$1:G27)</f>
-        <v>-0.25925925925925924</v>
+        <v>-0.40740740740740738</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -11697,11 +11705,11 @@
         <v>4</v>
       </c>
       <c r="I28">
-        <v>763</v>
+        <v>511</v>
       </c>
       <c r="K28">
         <f>AVERAGE($G$1:G28)</f>
-        <v>-0.2857142857142857</v>
+        <v>-0.42857142857142855</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -11724,17 +11732,17 @@
         <v>3</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H29" t="s">
         <v>4</v>
       </c>
       <c r="I29">
-        <v>1000</v>
+        <v>51</v>
       </c>
       <c r="K29">
         <f>AVERAGE($G$1:G29)</f>
-        <v>-0.27586206896551724</v>
+        <v>-0.44827586206896552</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -11757,13 +11765,13 @@
         <v>3</v>
       </c>
       <c r="G30">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="H30" t="s">
         <v>4</v>
       </c>
       <c r="I30">
-        <v>763</v>
+        <v>1000</v>
       </c>
       <c r="K30">
         <f>AVERAGE($G$1:G30)</f>
@@ -11790,17 +11798,17 @@
         <v>3</v>
       </c>
       <c r="G31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H31" t="s">
         <v>4</v>
       </c>
       <c r="I31">
-        <v>1000</v>
+        <v>827</v>
       </c>
       <c r="K31">
         <f>AVERAGE($G$1:G31)</f>
-        <v>-0.22580645161290322</v>
+        <v>-0.25806451612903225</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -11823,17 +11831,17 @@
         <v>3</v>
       </c>
       <c r="G32">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H32" t="s">
         <v>4</v>
       </c>
       <c r="I32">
-        <v>911</v>
+        <v>815</v>
       </c>
       <c r="K32">
         <f>AVERAGE($G$1:G32)</f>
-        <v>-0.25</v>
+        <v>-0.21875</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -11862,11 +11870,11 @@
         <v>4</v>
       </c>
       <c r="I33">
-        <v>303</v>
+        <v>503</v>
       </c>
       <c r="K33">
         <f>AVERAGE($G$1:G33)</f>
-        <v>-0.27272727272727271</v>
+        <v>-0.24242424242424243</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -11895,11 +11903,11 @@
         <v>4</v>
       </c>
       <c r="I34">
-        <v>763</v>
+        <v>511</v>
       </c>
       <c r="K34">
         <f>AVERAGE($G$1:G34)</f>
-        <v>-0.29411764705882354</v>
+        <v>-0.26470588235294118</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -11922,17 +11930,17 @@
         <v>3</v>
       </c>
       <c r="G35">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="H35" t="s">
         <v>4</v>
       </c>
       <c r="I35">
-        <v>1000</v>
+        <v>499</v>
       </c>
       <c r="K35">
         <f>AVERAGE($G$1:G35)</f>
-        <v>-0.22857142857142856</v>
+        <v>-0.2857142857142857</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -11955,17 +11963,17 @@
         <v>3</v>
       </c>
       <c r="G36">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H36" t="s">
         <v>4</v>
       </c>
       <c r="I36">
-        <v>771</v>
+        <v>1000</v>
       </c>
       <c r="K36">
         <f>AVERAGE($G$1:G36)</f>
-        <v>-0.25</v>
+        <v>-0.1111111111111111</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -11994,11 +12002,11 @@
         <v>4</v>
       </c>
       <c r="I37">
-        <v>763</v>
+        <v>407</v>
       </c>
       <c r="K37">
         <f>AVERAGE($G$1:G37)</f>
-        <v>-0.27027027027027029</v>
+        <v>-0.13513513513513514</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -12027,11 +12035,11 @@
         <v>4</v>
       </c>
       <c r="I38">
-        <v>763</v>
+        <v>527</v>
       </c>
       <c r="K38">
         <f>AVERAGE($G$1:G38)</f>
-        <v>-0.28947368421052633</v>
+        <v>-0.15789473684210525</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -12054,17 +12062,17 @@
         <v>3</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H39" t="s">
         <v>4</v>
       </c>
       <c r="I39">
-        <v>679</v>
+        <v>507</v>
       </c>
       <c r="K39">
         <f>AVERAGE($G$1:G39)</f>
-        <v>-0.25641025641025639</v>
+        <v>-0.17948717948717949</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -12087,17 +12095,17 @@
         <v>3</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H40" t="s">
         <v>4</v>
       </c>
       <c r="I40">
-        <v>451</v>
+        <v>499</v>
       </c>
       <c r="K40">
         <f>AVERAGE($G$1:G40)</f>
-        <v>-0.22500000000000001</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -12120,17 +12128,17 @@
         <v>3</v>
       </c>
       <c r="G41">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="H41" t="s">
         <v>4</v>
       </c>
       <c r="I41">
-        <v>1000</v>
+        <v>507</v>
       </c>
       <c r="K41">
         <f>AVERAGE($G$1:G41)</f>
-        <v>-0.17073170731707318</v>
+        <v>-0.21951219512195122</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -12159,11 +12167,11 @@
         <v>4</v>
       </c>
       <c r="I42">
-        <v>759</v>
+        <v>503</v>
       </c>
       <c r="K42">
         <f>AVERAGE($G$1:G42)</f>
-        <v>-0.19047619047619047</v>
+        <v>-0.23809523809523808</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -12192,11 +12200,11 @@
         <v>4</v>
       </c>
       <c r="I43">
-        <v>763</v>
+        <v>951</v>
       </c>
       <c r="K43">
         <f>AVERAGE($G$1:G43)</f>
-        <v>-0.20930232558139536</v>
+        <v>-0.2558139534883721</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -12219,17 +12227,17 @@
         <v>3</v>
       </c>
       <c r="G44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H44" t="s">
         <v>4</v>
       </c>
       <c r="I44">
-        <v>1000</v>
+        <v>307</v>
       </c>
       <c r="K44">
         <f>AVERAGE($G$1:G44)</f>
-        <v>-0.15909090909090909</v>
+        <v>-0.22727272727272727</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -12252,13 +12260,13 @@
         <v>3</v>
       </c>
       <c r="G45">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="H45" t="s">
         <v>4</v>
       </c>
       <c r="I45">
-        <v>763</v>
+        <v>1000</v>
       </c>
       <c r="K45">
         <f>AVERAGE($G$1:G45)</f>
@@ -12285,17 +12293,17 @@
         <v>3</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H46" t="s">
         <v>4</v>
       </c>
       <c r="I46">
-        <v>691</v>
+        <v>511</v>
       </c>
       <c r="K46">
         <f>AVERAGE($G$1:G46)</f>
-        <v>-0.15217391304347827</v>
+        <v>-0.19565217391304349</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -12318,17 +12326,17 @@
         <v>3</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H47" t="s">
         <v>4</v>
       </c>
       <c r="I47">
-        <v>547</v>
+        <v>1000</v>
       </c>
       <c r="K47">
         <f>AVERAGE($G$1:G47)</f>
-        <v>-0.1276595744680851</v>
+        <v>-0.14893617021276595</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -12357,11 +12365,11 @@
         <v>4</v>
       </c>
       <c r="I48">
-        <v>763</v>
+        <v>179</v>
       </c>
       <c r="K48">
         <f>AVERAGE($G$1:G48)</f>
-        <v>-0.14583333333333334</v>
+        <v>-0.16666666666666666</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -12390,11 +12398,11 @@
         <v>4</v>
       </c>
       <c r="I49">
-        <v>911</v>
+        <v>499</v>
       </c>
       <c r="K49">
         <f>AVERAGE($G$1:G49)</f>
-        <v>-0.16326530612244897</v>
+        <v>-0.18367346938775511</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -12417,17 +12425,17 @@
         <v>3</v>
       </c>
       <c r="G50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H50" t="s">
         <v>4</v>
       </c>
       <c r="I50">
-        <v>463</v>
+        <v>1000</v>
       </c>
       <c r="K50">
         <f>AVERAGE($G$1:G50)</f>
-        <v>-0.1</v>
+        <v>-0.14000000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -12450,17 +12458,17 @@
         <v>3</v>
       </c>
       <c r="G51">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="H51" t="s">
         <v>4</v>
       </c>
       <c r="I51">
-        <v>1000</v>
+        <v>551</v>
       </c>
       <c r="K51">
         <f>AVERAGE($G$1:G51)</f>
-        <v>-5.8823529411764705E-2</v>
+        <v>-0.15686274509803921</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -12489,11 +12497,11 @@
         <v>4</v>
       </c>
       <c r="I52">
-        <v>955</v>
+        <v>511</v>
       </c>
       <c r="K52">
         <f>AVERAGE($G$1:G52)</f>
-        <v>-7.6923076923076927E-2</v>
+        <v>-0.17307692307692307</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -12526,7 +12534,7 @@
       </c>
       <c r="K53">
         <f>AVERAGE($G$1:G53)</f>
-        <v>-3.7735849056603772E-2</v>
+        <v>-0.13207547169811321</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -12549,13 +12557,13 @@
         <v>3</v>
       </c>
       <c r="G54">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="H54" t="s">
         <v>4</v>
       </c>
       <c r="I54">
-        <v>955</v>
+        <v>1000</v>
       </c>
       <c r="K54">
         <f>AVERAGE($G$1:G54)</f>
@@ -12588,7 +12596,7 @@
         <v>4</v>
       </c>
       <c r="I55">
-        <v>455</v>
+        <v>511</v>
       </c>
       <c r="K55">
         <f>AVERAGE($G$1:G55)</f>
@@ -12615,17 +12623,17 @@
         <v>3</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H56" t="s">
         <v>4</v>
       </c>
       <c r="I56">
-        <v>1000</v>
+        <v>511</v>
       </c>
       <c r="K56">
         <f>AVERAGE($G$1:G56)</f>
-        <v>-7.1428571428571425E-2</v>
+        <v>-8.9285714285714288E-2</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -12654,11 +12662,11 @@
         <v>4</v>
       </c>
       <c r="I57">
-        <v>303</v>
+        <v>511</v>
       </c>
       <c r="K57">
         <f>AVERAGE($G$1:G57)</f>
-        <v>-8.771929824561403E-2</v>
+        <v>-0.10526315789473684</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -12691,7 +12699,7 @@
       </c>
       <c r="K58">
         <f>AVERAGE($G$1:G58)</f>
-        <v>-5.1724137931034482E-2</v>
+        <v>-6.8965517241379309E-2</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -12714,17 +12722,17 @@
         <v>3</v>
       </c>
       <c r="G59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H59" t="s">
         <v>4</v>
       </c>
       <c r="I59">
-        <v>1000</v>
+        <v>599</v>
       </c>
       <c r="K59">
         <f>AVERAGE($G$1:G59)</f>
-        <v>-1.6949152542372881E-2</v>
+        <v>-5.0847457627118647E-2</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -12753,11 +12761,11 @@
         <v>4</v>
       </c>
       <c r="I60">
-        <v>763</v>
+        <v>511</v>
       </c>
       <c r="K60">
         <f>AVERAGE($G$1:G60)</f>
-        <v>-3.3333333333333333E-2</v>
+        <v>-6.6666666666666666E-2</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -12786,11 +12794,11 @@
         <v>4</v>
       </c>
       <c r="I61">
-        <v>771</v>
+        <v>507</v>
       </c>
       <c r="K61">
         <f>AVERAGE($G$1:G61)</f>
-        <v>-4.9180327868852458E-2</v>
+        <v>-8.1967213114754092E-2</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -12813,17 +12821,17 @@
         <v>3</v>
       </c>
       <c r="G62">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="H62" t="s">
         <v>4</v>
       </c>
       <c r="I62">
-        <v>1000</v>
+        <v>507</v>
       </c>
       <c r="K62">
         <f>AVERAGE($G$1:G62)</f>
-        <v>-1.6129032258064516E-2</v>
+        <v>-9.6774193548387094E-2</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -12846,17 +12854,17 @@
         <v>3</v>
       </c>
       <c r="G63">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H63" t="s">
         <v>4</v>
       </c>
       <c r="I63">
-        <v>279</v>
+        <v>503</v>
       </c>
       <c r="K63">
         <f>AVERAGE($G$1:G63)</f>
-        <v>-3.1746031746031744E-2</v>
+        <v>-7.9365079365079361E-2</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -12885,11 +12893,11 @@
         <v>4</v>
       </c>
       <c r="I64">
-        <v>455</v>
+        <v>511</v>
       </c>
       <c r="K64">
         <f>AVERAGE($G$1:G64)</f>
-        <v>-4.6875E-2</v>
+        <v>-9.375E-2</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -12918,11 +12926,11 @@
         <v>4</v>
       </c>
       <c r="I65">
-        <v>451</v>
+        <v>511</v>
       </c>
       <c r="K65">
         <f>AVERAGE($G$1:G65)</f>
-        <v>-6.1538461538461542E-2</v>
+        <v>-0.1076923076923077</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -12945,17 +12953,17 @@
         <v>3</v>
       </c>
       <c r="G66">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="H66" t="s">
         <v>4</v>
       </c>
       <c r="I66">
-        <v>703</v>
+        <v>1000</v>
       </c>
       <c r="K66">
         <f>AVERAGE($G$1:G66)</f>
-        <v>-7.575757575757576E-2</v>
+        <v>-4.5454545454545456E-2</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -12978,17 +12986,17 @@
         <v>3</v>
       </c>
       <c r="G67">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H67" t="s">
         <v>4</v>
       </c>
       <c r="I67">
-        <v>1000</v>
+        <v>951</v>
       </c>
       <c r="K67">
         <f>AVERAGE($G$1:G67)</f>
-        <v>-7.4626865671641784E-2</v>
+        <v>-5.9701492537313432E-2</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -13017,11 +13025,11 @@
         <v>4</v>
       </c>
       <c r="I68">
-        <v>955</v>
+        <v>499</v>
       </c>
       <c r="K68">
         <f>AVERAGE($G$1:G68)</f>
-        <v>-8.8235294117647065E-2</v>
+        <v>-7.3529411764705885E-2</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -13044,13 +13052,13 @@
         <v>3</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H69" t="s">
         <v>4</v>
       </c>
       <c r="I69">
-        <v>1000</v>
+        <v>510</v>
       </c>
       <c r="K69">
         <f>AVERAGE($G$1:G69)</f>
@@ -13077,17 +13085,17 @@
         <v>3</v>
       </c>
       <c r="G70">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="H70" t="s">
         <v>4</v>
       </c>
       <c r="I70">
-        <v>1000</v>
+        <v>527</v>
       </c>
       <c r="K70">
         <f>AVERAGE($G$1:G70)</f>
-        <v>-5.7142857142857141E-2</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -13116,11 +13124,11 @@
         <v>4</v>
       </c>
       <c r="I71">
-        <v>187</v>
+        <v>511</v>
       </c>
       <c r="K71">
         <f>AVERAGE($G$1:G71)</f>
-        <v>-7.0422535211267609E-2</v>
+        <v>-0.11267605633802817</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -13143,17 +13151,17 @@
         <v>3</v>
       </c>
       <c r="G72">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H72" t="s">
         <v>4</v>
       </c>
       <c r="I72">
-        <v>779</v>
+        <v>511</v>
       </c>
       <c r="K72">
         <f>AVERAGE($G$1:G72)</f>
-        <v>-5.5555555555555552E-2</v>
+        <v>-0.125</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -13182,11 +13190,11 @@
         <v>4</v>
       </c>
       <c r="I73">
-        <v>303</v>
+        <v>951</v>
       </c>
       <c r="K73">
         <f>AVERAGE($G$1:G73)</f>
-        <v>-6.8493150684931503E-2</v>
+        <v>-0.13698630136986301</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -13209,17 +13217,17 @@
         <v>3</v>
       </c>
       <c r="G74">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="H74" t="s">
         <v>4</v>
       </c>
       <c r="I74">
-        <v>1000</v>
+        <v>511</v>
       </c>
       <c r="K74">
         <f>AVERAGE($G$1:G74)</f>
-        <v>-4.0540540540540543E-2</v>
+        <v>-0.14864864864864866</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -13248,11 +13256,11 @@
         <v>4</v>
       </c>
       <c r="I75">
-        <v>455</v>
+        <v>179</v>
       </c>
       <c r="K75">
         <f>AVERAGE($G$1:G75)</f>
-        <v>-5.3333333333333337E-2</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -13275,17 +13283,17 @@
         <v>3</v>
       </c>
       <c r="G76">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="H76" t="s">
         <v>4</v>
       </c>
       <c r="I76">
-        <v>1000</v>
+        <v>495</v>
       </c>
       <c r="K76">
         <f>AVERAGE($G$1:G76)</f>
-        <v>-2.6315789473684209E-2</v>
+        <v>-0.17105263157894737</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -13314,11 +13322,11 @@
         <v>4</v>
       </c>
       <c r="I77">
-        <v>763</v>
+        <v>511</v>
       </c>
       <c r="K77">
         <f>AVERAGE($G$1:G77)</f>
-        <v>-3.896103896103896E-2</v>
+        <v>-0.18181818181818182</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -13341,17 +13349,17 @@
         <v>3</v>
       </c>
       <c r="G78">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="H78" t="s">
         <v>4</v>
       </c>
       <c r="I78">
-        <v>1000</v>
+        <v>503</v>
       </c>
       <c r="K78">
         <f>AVERAGE($G$1:G78)</f>
-        <v>-1.282051282051282E-2</v>
+        <v>-0.19230769230769232</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -13380,11 +13388,11 @@
         <v>4</v>
       </c>
       <c r="I79">
-        <v>772</v>
+        <v>951</v>
       </c>
       <c r="K79">
         <f>AVERAGE($G$1:G79)</f>
-        <v>-2.5316455696202531E-2</v>
+        <v>-0.20253164556962025</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -13413,11 +13421,11 @@
         <v>4</v>
       </c>
       <c r="I80">
-        <v>455</v>
+        <v>507</v>
       </c>
       <c r="K80">
         <f>AVERAGE($G$1:G80)</f>
-        <v>-3.7499999999999999E-2</v>
+        <v>-0.21249999999999999</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -13440,17 +13448,17 @@
         <v>3</v>
       </c>
       <c r="G81">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="H81" t="s">
         <v>4</v>
       </c>
       <c r="I81">
-        <v>915</v>
+        <v>1000</v>
       </c>
       <c r="K81">
         <f>AVERAGE($G$1:G81)</f>
-        <v>-4.9382716049382713E-2</v>
+        <v>-0.18518518518518517</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -13473,17 +13481,17 @@
         <v>3</v>
       </c>
       <c r="G82">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="H82" t="s">
         <v>4</v>
       </c>
       <c r="I82">
-        <v>1000</v>
+        <v>511</v>
       </c>
       <c r="K82">
         <f>AVERAGE($G$1:G82)</f>
-        <v>0</v>
+        <v>-0.1951219512195122</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -13506,17 +13514,17 @@
         <v>3</v>
       </c>
       <c r="G83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H83" t="s">
         <v>4</v>
       </c>
       <c r="I83">
-        <v>715</v>
+        <v>1000</v>
       </c>
       <c r="K83">
         <f>AVERAGE($G$1:G83)</f>
-        <v>1.2048192771084338E-2</v>
+        <v>-0.16867469879518071</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -13539,7 +13547,7 @@
         <v>3</v>
       </c>
       <c r="G84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H84" t="s">
         <v>4</v>
@@ -13549,7 +13557,7 @@
       </c>
       <c r="K84">
         <f>AVERAGE($G$1:G84)</f>
-        <v>1.1904761904761904E-2</v>
+        <v>-0.14285714285714285</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -13578,11 +13586,11 @@
         <v>4</v>
       </c>
       <c r="I85">
-        <v>771</v>
+        <v>507</v>
       </c>
       <c r="K85">
         <f>AVERAGE($G$1:G85)</f>
-        <v>0</v>
+        <v>-0.15294117647058825</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -13611,11 +13619,11 @@
         <v>4</v>
       </c>
       <c r="I86">
-        <v>763</v>
+        <v>503</v>
       </c>
       <c r="K86">
         <f>AVERAGE($G$1:G86)</f>
-        <v>-1.1627906976744186E-2</v>
+        <v>-0.16279069767441862</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -13638,17 +13646,17 @@
         <v>3</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87" t="s">
         <v>4</v>
       </c>
       <c r="I87">
-        <v>1000</v>
+        <v>907</v>
       </c>
       <c r="K87">
         <f>AVERAGE($G$1:G87)</f>
-        <v>-1.1494252873563218E-2</v>
+        <v>-0.14942528735632185</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -13671,7 +13679,7 @@
         <v>3</v>
       </c>
       <c r="G88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H88" t="s">
         <v>4</v>
@@ -13681,7 +13689,7 @@
       </c>
       <c r="K88">
         <f>AVERAGE($G$1:G88)</f>
-        <v>-1.1363636363636364E-2</v>
+        <v>-0.125</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -13704,17 +13712,17 @@
         <v>3</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89" t="s">
         <v>4</v>
       </c>
       <c r="I89">
-        <v>1000</v>
+        <v>551</v>
       </c>
       <c r="K89">
         <f>AVERAGE($G$1:G89)</f>
-        <v>-1.1235955056179775E-2</v>
+        <v>-0.11235955056179775</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -13737,17 +13745,17 @@
         <v>3</v>
       </c>
       <c r="G90">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="H90" t="s">
         <v>4</v>
       </c>
       <c r="I90">
-        <v>1000</v>
+        <v>399</v>
       </c>
       <c r="K90">
         <f>AVERAGE($G$1:G90)</f>
-        <v>1.1111111111111112E-2</v>
+        <v>-0.12222222222222222</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -13776,11 +13784,11 @@
         <v>4</v>
       </c>
       <c r="I91">
-        <v>955</v>
+        <v>503</v>
       </c>
       <c r="K91">
         <f>AVERAGE($G$1:G91)</f>
-        <v>0</v>
+        <v>-0.13186813186813187</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -13803,17 +13811,17 @@
         <v>3</v>
       </c>
       <c r="G92">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="H92" t="s">
         <v>4</v>
       </c>
       <c r="I92">
-        <v>951</v>
+        <v>1000</v>
       </c>
       <c r="K92">
         <f>AVERAGE($G$1:G92)</f>
-        <v>-1.0869565217391304E-2</v>
+        <v>-0.10869565217391304</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -13842,11 +13850,11 @@
         <v>4</v>
       </c>
       <c r="I93">
-        <v>455</v>
+        <v>511</v>
       </c>
       <c r="K93">
         <f>AVERAGE($G$1:G93)</f>
-        <v>-2.1505376344086023E-2</v>
+        <v>-0.11827956989247312</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -13875,11 +13883,11 @@
         <v>4</v>
       </c>
       <c r="I94">
-        <v>455</v>
+        <v>499</v>
       </c>
       <c r="K94">
         <f>AVERAGE($G$1:G94)</f>
-        <v>-3.1914893617021274E-2</v>
+        <v>-0.1276595744680851</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -13902,17 +13910,17 @@
         <v>3</v>
       </c>
       <c r="G95">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H95" t="s">
         <v>4</v>
       </c>
       <c r="I95">
-        <v>599</v>
+        <v>511</v>
       </c>
       <c r="K95">
         <f>AVERAGE($G$1:G95)</f>
-        <v>-2.1052631578947368E-2</v>
+        <v>-0.1368421052631579</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -13935,17 +13943,17 @@
         <v>3</v>
       </c>
       <c r="G96">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H96" t="s">
         <v>4</v>
       </c>
       <c r="I96">
-        <v>763</v>
+        <v>495</v>
       </c>
       <c r="K96">
         <f>AVERAGE($G$1:G96)</f>
-        <v>-3.125E-2</v>
+        <v>-0.125</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -13968,17 +13976,17 @@
         <v>3</v>
       </c>
       <c r="G97">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="H97" t="s">
         <v>4</v>
       </c>
       <c r="I97">
-        <v>1000</v>
+        <v>499</v>
       </c>
       <c r="K97">
         <f>AVERAGE($G$1:G97)</f>
-        <v>-1.0309278350515464E-2</v>
+        <v>-0.13402061855670103</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -14001,17 +14009,17 @@
         <v>3</v>
       </c>
       <c r="G98">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="H98" t="s">
         <v>4</v>
       </c>
       <c r="I98">
-        <v>1000</v>
+        <v>103</v>
       </c>
       <c r="K98">
         <f>AVERAGE($G$1:G98)</f>
-        <v>1.020408163265306E-2</v>
+        <v>-0.14285714285714285</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -14034,17 +14042,17 @@
         <v>3</v>
       </c>
       <c r="G99">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H99" t="s">
         <v>4</v>
       </c>
       <c r="I99">
-        <v>327</v>
+        <v>1000</v>
       </c>
       <c r="K99">
         <f>AVERAGE($G$1:G99)</f>
-        <v>2.0202020202020204E-2</v>
+        <v>-0.10101010101010101</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -14077,7 +14085,7 @@
       </c>
       <c r="K100">
         <f>AVERAGE($G$1:G100)</f>
-        <v>0.04</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -14097,17 +14105,17 @@
         <v>3</v>
       </c>
       <c r="G101">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="H101" t="s">
         <v>4</v>
       </c>
       <c r="I101">
-        <v>1000</v>
+        <v>503</v>
       </c>
       <c r="K101">
         <f>AVERAGE($G$1:G101)</f>
-        <v>5.9405940594059403E-2</v>
+        <v>-8.9108910891089105E-2</v>
       </c>
     </row>
   </sheetData>

--- a/res_averages.xlsx
+++ b/res_averages.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="-5600" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="25600" yWindow="-5600" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Pacman Test" sheetId="1" r:id="rId1"/>
@@ -99,8 +99,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="29">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -134,7 +136,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="29">
+  <cellStyles count="31">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -149,6 +151,7 @@
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -163,6 +166,7 @@
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -494,8 +498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N138"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101:I101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -525,7 +529,7 @@
         <v>3</v>
       </c>
       <c r="G1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
@@ -557,7 +561,7 @@
         <v>3</v>
       </c>
       <c r="G2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
         <v>4</v>
@@ -567,7 +571,7 @@
       </c>
       <c r="K2">
         <f>AVERAGE($G$1:G2)</f>
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>6</v>
@@ -593,17 +597,17 @@
         <v>3</v>
       </c>
       <c r="G3">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
         <v>4</v>
       </c>
       <c r="I3">
-        <v>683</v>
+        <v>1000</v>
       </c>
       <c r="K3">
         <f>AVERAGE($G$1:G3)</f>
-        <v>8.3333333333333339</v>
+        <v>13.666666666666666</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -626,7 +630,7 @@
         <v>3</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
         <v>4</v>
@@ -636,7 +640,7 @@
       </c>
       <c r="K4">
         <f>AVERAGE($G$1:G4)</f>
-        <v>10.25</v>
+        <v>15.25</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -659,7 +663,7 @@
         <v>3</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
         <v>4</v>
@@ -669,7 +673,7 @@
       </c>
       <c r="K5">
         <f>AVERAGE($G$1:G5)</f>
-        <v>12.2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -692,17 +696,17 @@
         <v>3</v>
       </c>
       <c r="G6">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
         <v>4</v>
       </c>
       <c r="I6">
-        <v>287</v>
+        <v>1000</v>
       </c>
       <c r="K6">
         <f>AVERAGE($G$1:G6)</f>
-        <v>11.333333333333334</v>
+        <v>17.333333333333332</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -725,7 +729,7 @@
         <v>3</v>
       </c>
       <c r="G7">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H7" t="s">
         <v>4</v>
@@ -735,7 +739,7 @@
       </c>
       <c r="K7">
         <f>AVERAGE($G$1:G7)</f>
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -758,7 +762,7 @@
         <v>3</v>
       </c>
       <c r="G8">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="H8" t="s">
         <v>4</v>
@@ -768,7 +772,7 @@
       </c>
       <c r="K8">
         <f>AVERAGE($G$1:G8)</f>
-        <v>13.25</v>
+        <v>16.75</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -791,17 +795,17 @@
         <v>3</v>
       </c>
       <c r="G9">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="H9" t="s">
         <v>4</v>
       </c>
       <c r="I9">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="K9">
         <f>AVERAGE($G$1:G9)</f>
-        <v>13.888888888888889</v>
+        <v>15.555555555555555</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -824,7 +828,7 @@
         <v>3</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H10" t="s">
         <v>4</v>
@@ -834,7 +838,7 @@
       </c>
       <c r="K10">
         <f>AVERAGE($G$1:G10)</f>
-        <v>13.5</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -857,7 +861,7 @@
         <v>3</v>
       </c>
       <c r="G11">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H11" t="s">
         <v>4</v>
@@ -867,7 +871,7 @@
       </c>
       <c r="K11">
         <f>AVERAGE($G$1:G11)</f>
-        <v>14.090909090909092</v>
+        <v>15.363636363636363</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -890,7 +894,7 @@
         <v>3</v>
       </c>
       <c r="G12">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H12" t="s">
         <v>4</v>
@@ -900,7 +904,7 @@
       </c>
       <c r="K12">
         <f>AVERAGE($G$1:G12)</f>
-        <v>14.166666666666666</v>
+        <v>14.75</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -923,17 +927,17 @@
         <v>3</v>
       </c>
       <c r="G13">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="H13" t="s">
         <v>4</v>
       </c>
       <c r="I13">
-        <v>593</v>
+        <v>1000</v>
       </c>
       <c r="K13">
         <f>AVERAGE($G$1:G13)</f>
-        <v>13.76923076923077</v>
+        <v>15.076923076923077</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -956,7 +960,7 @@
         <v>3</v>
       </c>
       <c r="G14">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H14" t="s">
         <v>4</v>
@@ -966,7 +970,7 @@
       </c>
       <c r="K14">
         <f>AVERAGE($G$1:G14)</f>
-        <v>14.071428571428571</v>
+        <v>15.071428571428571</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -989,17 +993,17 @@
         <v>3</v>
       </c>
       <c r="G15">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="H15" t="s">
         <v>4</v>
       </c>
       <c r="I15">
-        <v>209</v>
+        <v>1000</v>
       </c>
       <c r="K15">
         <f>AVERAGE($G$1:G15)</f>
-        <v>13.6</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1022,7 +1026,7 @@
         <v>3</v>
       </c>
       <c r="G16">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H16" t="s">
         <v>4</v>
@@ -1032,7 +1036,7 @@
       </c>
       <c r="K16">
         <f>AVERAGE($G$1:G16)</f>
-        <v>14.4375</v>
+        <v>15.9375</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1055,7 +1059,7 @@
         <v>3</v>
       </c>
       <c r="G17">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="H17" t="s">
         <v>4</v>
@@ -1065,7 +1069,7 @@
       </c>
       <c r="K17">
         <f>AVERAGE($G$1:G17)</f>
-        <v>14.529411764705882</v>
+        <v>16.941176470588236</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1088,7 +1092,7 @@
         <v>3</v>
       </c>
       <c r="G18">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H18" t="s">
         <v>4</v>
@@ -1098,7 +1102,7 @@
       </c>
       <c r="K18">
         <f>AVERAGE($G$1:G18)</f>
-        <v>15</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1121,17 +1125,17 @@
         <v>3</v>
       </c>
       <c r="G19">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H19" t="s">
         <v>4</v>
       </c>
       <c r="I19">
-        <v>341</v>
+        <v>1000</v>
       </c>
       <c r="K19">
         <f>AVERAGE($G$1:G19)</f>
-        <v>15.052631578947368</v>
+        <v>17.631578947368421</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1154,17 +1158,17 @@
         <v>3</v>
       </c>
       <c r="G20">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H20" t="s">
         <v>4</v>
       </c>
       <c r="I20">
-        <v>509</v>
+        <v>1000</v>
       </c>
       <c r="K20">
         <f>AVERAGE($G$1:G20)</f>
-        <v>14.65</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1187,7 +1191,7 @@
         <v>3</v>
       </c>
       <c r="G21">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H21" t="s">
         <v>4</v>
@@ -1197,7 +1201,7 @@
       </c>
       <c r="K21">
         <f>AVERAGE($G$1:G21)</f>
-        <v>14.761904761904763</v>
+        <v>17.904761904761905</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1220,7 +1224,7 @@
         <v>3</v>
       </c>
       <c r="G22">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="H22" t="s">
         <v>4</v>
@@ -1230,7 +1234,7 @@
       </c>
       <c r="K22">
         <f>AVERAGE($G$1:G22)</f>
-        <v>15.272727272727273</v>
+        <v>17.772727272727273</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1253,7 +1257,7 @@
         <v>3</v>
       </c>
       <c r="G23">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="H23" t="s">
         <v>4</v>
@@ -1263,7 +1267,7 @@
       </c>
       <c r="K23">
         <f>AVERAGE($G$1:G23)</f>
-        <v>14.956521739130435</v>
+        <v>18.130434782608695</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1286,7 +1290,7 @@
         <v>3</v>
       </c>
       <c r="G24">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H24" t="s">
         <v>4</v>
@@ -1296,7 +1300,7 @@
       </c>
       <c r="K24">
         <f>AVERAGE($G$1:G24)</f>
-        <v>14.833333333333334</v>
+        <v>18.083333333333332</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1319,7 +1323,7 @@
         <v>3</v>
       </c>
       <c r="G25">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H25" t="s">
         <v>4</v>
@@ -1329,7 +1333,7 @@
       </c>
       <c r="K25">
         <f>AVERAGE($G$1:G25)</f>
-        <v>15.16</v>
+        <v>17.84</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1352,7 +1356,7 @@
         <v>3</v>
       </c>
       <c r="G26">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H26" t="s">
         <v>4</v>
@@ -1362,7 +1366,7 @@
       </c>
       <c r="K26">
         <f>AVERAGE($G$1:G26)</f>
-        <v>15.307692307692308</v>
+        <v>17.846153846153847</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1385,7 +1389,7 @@
         <v>3</v>
       </c>
       <c r="G27">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H27" t="s">
         <v>4</v>
@@ -1395,7 +1399,7 @@
       </c>
       <c r="K27">
         <f>AVERAGE($G$1:G27)</f>
-        <v>15.481481481481481</v>
+        <v>18.111111111111111</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1418,7 +1422,7 @@
         <v>3</v>
       </c>
       <c r="G28">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="H28" t="s">
         <v>4</v>
@@ -1428,7 +1432,7 @@
       </c>
       <c r="K28">
         <f>AVERAGE($G$1:G28)</f>
-        <v>15.607142857142858</v>
+        <v>17.714285714285715</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1451,7 +1455,7 @@
         <v>3</v>
       </c>
       <c r="G29">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H29" t="s">
         <v>4</v>
@@ -1461,7 +1465,7 @@
       </c>
       <c r="K29">
         <f>AVERAGE($G$1:G29)</f>
-        <v>15.827586206896552</v>
+        <v>17.758620689655171</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1484,7 +1488,7 @@
         <v>3</v>
       </c>
       <c r="G30">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H30" t="s">
         <v>4</v>
@@ -1494,7 +1498,7 @@
       </c>
       <c r="K30">
         <f>AVERAGE($G$1:G30)</f>
-        <v>15.7</v>
+        <v>18.133333333333333</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1517,17 +1521,17 @@
         <v>3</v>
       </c>
       <c r="G31">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="H31" t="s">
         <v>4</v>
       </c>
       <c r="I31">
-        <v>203</v>
+        <v>1000</v>
       </c>
       <c r="K31">
         <f>AVERAGE($G$1:G31)</f>
-        <v>15.387096774193548</v>
+        <v>18.161290322580644</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1550,7 +1554,7 @@
         <v>3</v>
       </c>
       <c r="G32">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H32" t="s">
         <v>4</v>
@@ -1560,7 +1564,7 @@
       </c>
       <c r="K32">
         <f>AVERAGE($G$1:G32)</f>
-        <v>15.53125</v>
+        <v>18.34375</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1583,17 +1587,17 @@
         <v>3</v>
       </c>
       <c r="G33">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="H33" t="s">
         <v>4</v>
       </c>
       <c r="I33">
-        <v>371</v>
+        <v>1000</v>
       </c>
       <c r="K33">
         <f>AVERAGE($G$1:G33)</f>
-        <v>15.363636363636363</v>
+        <v>18.363636363636363</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1616,17 +1620,17 @@
         <v>3</v>
       </c>
       <c r="G34">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="H34" t="s">
         <v>4</v>
       </c>
       <c r="I34">
-        <v>503</v>
+        <v>1000</v>
       </c>
       <c r="K34">
         <f>AVERAGE($G$1:G34)</f>
-        <v>16.088235294117649</v>
+        <v>18.264705882352942</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1659,7 +1663,7 @@
       </c>
       <c r="K35">
         <f>AVERAGE($G$1:G35)</f>
-        <v>16.228571428571428</v>
+        <v>18.342857142857142</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1682,7 +1686,7 @@
         <v>3</v>
       </c>
       <c r="G36">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H36" t="s">
         <v>4</v>
@@ -1692,7 +1696,7 @@
       </c>
       <c r="K36">
         <f>AVERAGE($G$1:G36)</f>
-        <v>16.305555555555557</v>
+        <v>18.527777777777779</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1715,17 +1719,17 @@
         <v>3</v>
       </c>
       <c r="G37">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="H37" t="s">
         <v>4</v>
       </c>
       <c r="I37">
-        <v>611</v>
+        <v>1000</v>
       </c>
       <c r="K37">
         <f>AVERAGE($G$1:G37)</f>
-        <v>16.378378378378379</v>
+        <v>18.972972972972972</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1748,17 +1752,17 @@
         <v>3</v>
       </c>
       <c r="G38">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="H38" t="s">
         <v>4</v>
       </c>
       <c r="I38">
-        <v>1000</v>
+        <v>764</v>
       </c>
       <c r="K38">
         <f>AVERAGE($G$1:G38)</f>
-        <v>16.578947368421051</v>
+        <v>18.631578947368421</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1781,17 +1785,17 @@
         <v>3</v>
       </c>
       <c r="G39">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s">
         <v>4</v>
       </c>
       <c r="I39">
-        <v>439</v>
+        <v>1000</v>
       </c>
       <c r="K39">
         <f>AVERAGE($G$1:G39)</f>
-        <v>16.46153846153846</v>
+        <v>18.512820512820515</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1814,7 +1818,7 @@
         <v>3</v>
       </c>
       <c r="G40">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="H40" t="s">
         <v>4</v>
@@ -1824,7 +1828,7 @@
       </c>
       <c r="K40">
         <f>AVERAGE($G$1:G40)</f>
-        <v>16.425000000000001</v>
+        <v>19.3</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1847,7 +1851,7 @@
         <v>3</v>
       </c>
       <c r="G41">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="H41" t="s">
         <v>4</v>
@@ -1857,7 +1861,7 @@
       </c>
       <c r="K41">
         <f>AVERAGE($G$1:G41)</f>
-        <v>16.634146341463413</v>
+        <v>19.756097560975611</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1880,17 +1884,17 @@
         <v>3</v>
       </c>
       <c r="G42">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H42" t="s">
         <v>4</v>
       </c>
       <c r="I42">
-        <v>792</v>
+        <v>1000</v>
       </c>
       <c r="K42">
         <f>AVERAGE($G$1:G42)</f>
-        <v>16.833333333333332</v>
+        <v>19.761904761904763</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1913,7 +1917,7 @@
         <v>3</v>
       </c>
       <c r="G43">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H43" t="s">
         <v>4</v>
@@ -1923,7 +1927,7 @@
       </c>
       <c r="K43">
         <f>AVERAGE($G$1:G43)</f>
-        <v>16.88372093023256</v>
+        <v>19.790697674418606</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1946,7 +1950,7 @@
         <v>3</v>
       </c>
       <c r="G44">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H44" t="s">
         <v>4</v>
@@ -1956,7 +1960,7 @@
       </c>
       <c r="K44">
         <f>AVERAGE($G$1:G44)</f>
-        <v>17.545454545454547</v>
+        <v>19.886363636363637</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1979,7 +1983,7 @@
         <v>3</v>
       </c>
       <c r="G45">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="H45" t="s">
         <v>4</v>
@@ -1989,7 +1993,7 @@
       </c>
       <c r="K45">
         <f>AVERAGE($G$1:G45)</f>
-        <v>17.555555555555557</v>
+        <v>20.31111111111111</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2012,17 +2016,17 @@
         <v>3</v>
       </c>
       <c r="G46">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H46" t="s">
         <v>4</v>
       </c>
       <c r="I46">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="K46">
         <f>AVERAGE($G$1:G46)</f>
-        <v>17.869565217391305</v>
+        <v>20.304347826086957</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2045,7 +2049,7 @@
         <v>3</v>
       </c>
       <c r="G47">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="H47" t="s">
         <v>4</v>
@@ -2055,7 +2059,7 @@
       </c>
       <c r="K47">
         <f>AVERAGE($G$1:G47)</f>
-        <v>18.148936170212767</v>
+        <v>20.340425531914892</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2078,17 +2082,17 @@
         <v>3</v>
       </c>
       <c r="G48">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H48" t="s">
         <v>4</v>
       </c>
       <c r="I48">
-        <v>362</v>
+        <v>1000</v>
       </c>
       <c r="K48">
         <f>AVERAGE($G$1:G48)</f>
-        <v>17.979166666666668</v>
+        <v>20.291666666666668</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2111,7 +2115,7 @@
         <v>3</v>
       </c>
       <c r="G49">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="H49" t="s">
         <v>4</v>
@@ -2121,7 +2125,7 @@
       </c>
       <c r="K49">
         <f>AVERAGE($G$1:G49)</f>
-        <v>18.346938775510203</v>
+        <v>20.346938775510203</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2144,7 +2148,7 @@
         <v>3</v>
       </c>
       <c r="G50">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H50" t="s">
         <v>4</v>
@@ -2154,7 +2158,7 @@
       </c>
       <c r="K50">
         <f>AVERAGE($G$1:G50)</f>
-        <v>18.28</v>
+        <v>20.22</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2177,7 +2181,7 @@
         <v>3</v>
       </c>
       <c r="G51">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H51" t="s">
         <v>4</v>
@@ -2187,7 +2191,7 @@
       </c>
       <c r="K51">
         <f>AVERAGE($G$1:G51)</f>
-        <v>18.470588235294116</v>
+        <v>20.176470588235293</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2210,7 +2214,7 @@
         <v>3</v>
       </c>
       <c r="G52">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="H52" t="s">
         <v>4</v>
@@ -2220,7 +2224,7 @@
       </c>
       <c r="K52">
         <f>AVERAGE($G$1:G52)</f>
-        <v>18.826923076923077</v>
+        <v>20.134615384615383</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2243,7 +2247,7 @@
         <v>3</v>
       </c>
       <c r="G53">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H53" t="s">
         <v>4</v>
@@ -2253,7 +2257,7 @@
       </c>
       <c r="K53">
         <f>AVERAGE($G$1:G53)</f>
-        <v>18.867924528301888</v>
+        <v>20.30188679245283</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2276,17 +2280,17 @@
         <v>3</v>
       </c>
       <c r="G54">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="H54" t="s">
         <v>4</v>
       </c>
       <c r="I54">
-        <v>1000</v>
+        <v>512</v>
       </c>
       <c r="K54">
         <f>AVERAGE($G$1:G54)</f>
-        <v>19.092592592592592</v>
+        <v>20.111111111111111</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2309,7 +2313,7 @@
         <v>3</v>
       </c>
       <c r="G55">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H55" t="s">
         <v>4</v>
@@ -2319,7 +2323,7 @@
       </c>
       <c r="K55">
         <f>AVERAGE($G$1:G55)</f>
-        <v>19.145454545454545</v>
+        <v>20.109090909090909</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2342,7 +2346,7 @@
         <v>3</v>
       </c>
       <c r="G56">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H56" t="s">
         <v>4</v>
@@ -2352,7 +2356,7 @@
       </c>
       <c r="K56">
         <f>AVERAGE($G$1:G56)</f>
-        <v>19.178571428571427</v>
+        <v>20.267857142857142</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2375,7 +2379,7 @@
         <v>3</v>
       </c>
       <c r="G57">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="H57" t="s">
         <v>4</v>
@@ -2385,7 +2389,7 @@
       </c>
       <c r="K57">
         <f>AVERAGE($G$1:G57)</f>
-        <v>19.684210526315791</v>
+        <v>20.263157894736842</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2408,7 +2412,7 @@
         <v>3</v>
       </c>
       <c r="G58">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H58" t="s">
         <v>4</v>
@@ -2418,7 +2422,7 @@
       </c>
       <c r="K58">
         <f>AVERAGE($G$1:G58)</f>
-        <v>19.551724137931036</v>
+        <v>20.241379310344829</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2441,17 +2445,17 @@
         <v>3</v>
       </c>
       <c r="G59">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H59" t="s">
         <v>4</v>
       </c>
       <c r="I59">
-        <v>1000</v>
+        <v>416</v>
       </c>
       <c r="K59">
         <f>AVERAGE($G$1:G59)</f>
-        <v>19.508474576271187</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2474,7 +2478,7 @@
         <v>3</v>
       </c>
       <c r="G60">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H60" t="s">
         <v>4</v>
@@ -2484,7 +2488,7 @@
       </c>
       <c r="K60">
         <f>AVERAGE($G$1:G60)</f>
-        <v>19.516666666666666</v>
+        <v>19.983333333333334</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2507,17 +2511,17 @@
         <v>3</v>
       </c>
       <c r="G61">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H61" t="s">
         <v>4</v>
       </c>
       <c r="I61">
-        <v>629</v>
+        <v>1000</v>
       </c>
       <c r="K61">
         <f>AVERAGE($G$1:G61)</f>
-        <v>19.606557377049182</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2540,17 +2544,17 @@
         <v>3</v>
       </c>
       <c r="G62">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="H62" t="s">
         <v>4</v>
       </c>
       <c r="I62">
-        <v>770</v>
+        <v>1000</v>
       </c>
       <c r="K62">
         <f>AVERAGE($G$1:G62)</f>
-        <v>19.693548387096776</v>
+        <v>19.903225806451612</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2573,7 +2577,7 @@
         <v>3</v>
       </c>
       <c r="G63">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H63" t="s">
         <v>4</v>
@@ -2583,7 +2587,7 @@
       </c>
       <c r="K63">
         <f>AVERAGE($G$1:G63)</f>
-        <v>19.80952380952381</v>
+        <v>19.936507936507937</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2606,17 +2610,17 @@
         <v>3</v>
       </c>
       <c r="G64">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H64" t="s">
         <v>4</v>
       </c>
       <c r="I64">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K64">
         <f>AVERAGE($G$1:G64)</f>
-        <v>19.765625</v>
+        <v>19.828125</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2639,7 +2643,7 @@
         <v>3</v>
       </c>
       <c r="G65">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="H65" t="s">
         <v>4</v>
@@ -2649,7 +2653,7 @@
       </c>
       <c r="K65">
         <f>AVERAGE($G$1:G65)</f>
-        <v>19.784615384615385</v>
+        <v>20.138461538461538</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2672,7 +2676,7 @@
         <v>3</v>
       </c>
       <c r="G66">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="H66" t="s">
         <v>4</v>
@@ -2682,7 +2686,7 @@
       </c>
       <c r="K66">
         <f>AVERAGE($G$1:G66)</f>
-        <v>20.166666666666668</v>
+        <v>19.939393939393938</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2705,7 +2709,7 @@
         <v>3</v>
       </c>
       <c r="G67">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="H67" t="s">
         <v>4</v>
@@ -2715,7 +2719,7 @@
       </c>
       <c r="K67">
         <f>AVERAGE($G$1:G67)</f>
-        <v>20.149253731343283</v>
+        <v>19.791044776119403</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2738,17 +2742,17 @@
         <v>3</v>
       </c>
       <c r="G68">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="H68" t="s">
         <v>4</v>
       </c>
       <c r="I68">
-        <v>365</v>
+        <v>1000</v>
       </c>
       <c r="K68">
         <f>AVERAGE($G$1:G68)</f>
-        <v>19.955882352941178</v>
+        <v>19.867647058823529</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2771,7 +2775,7 @@
         <v>3</v>
       </c>
       <c r="G69">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H69" t="s">
         <v>4</v>
@@ -2781,7 +2785,7 @@
       </c>
       <c r="K69">
         <f>AVERAGE($G$1:G69)</f>
-        <v>20.057971014492754</v>
+        <v>19.927536231884059</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2804,17 +2808,17 @@
         <v>3</v>
       </c>
       <c r="G70">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="H70" t="s">
         <v>4</v>
       </c>
       <c r="I70">
-        <v>506</v>
+        <v>448</v>
       </c>
       <c r="K70">
         <f>AVERAGE($G$1:G70)</f>
-        <v>20.042857142857144</v>
+        <v>19.728571428571428</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2837,7 +2841,7 @@
         <v>3</v>
       </c>
       <c r="G71">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H71" t="s">
         <v>4</v>
@@ -2847,7 +2851,7 @@
       </c>
       <c r="K71">
         <f>AVERAGE($G$1:G71)</f>
-        <v>20.04225352112676</v>
+        <v>19.676056338028168</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2870,7 +2874,7 @@
         <v>3</v>
       </c>
       <c r="G72">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H72" t="s">
         <v>4</v>
@@ -2880,7 +2884,7 @@
       </c>
       <c r="K72">
         <f>AVERAGE($G$1:G72)</f>
-        <v>20.097222222222221</v>
+        <v>19.583333333333332</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2903,7 +2907,7 @@
         <v>3</v>
       </c>
       <c r="G73">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H73" t="s">
         <v>4</v>
@@ -2913,7 +2917,7 @@
       </c>
       <c r="K73">
         <f>AVERAGE($G$1:G73)</f>
-        <v>20.123287671232877</v>
+        <v>19.698630136986303</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2936,7 +2940,7 @@
         <v>3</v>
       </c>
       <c r="G74">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H74" t="s">
         <v>4</v>
@@ -2946,7 +2950,7 @@
       </c>
       <c r="K74">
         <f>AVERAGE($G$1:G74)</f>
-        <v>20.216216216216218</v>
+        <v>19.716216216216218</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -2969,17 +2973,17 @@
         <v>3</v>
       </c>
       <c r="G75">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H75" t="s">
         <v>4</v>
       </c>
       <c r="I75">
-        <v>722</v>
+        <v>203</v>
       </c>
       <c r="K75">
         <f>AVERAGE($G$1:G75)</f>
-        <v>20.239999999999998</v>
+        <v>19.533333333333335</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3002,7 +3006,7 @@
         <v>3</v>
       </c>
       <c r="G76">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H76" t="s">
         <v>4</v>
@@ -3012,7 +3016,7 @@
       </c>
       <c r="K76">
         <f>AVERAGE($G$1:G76)</f>
-        <v>20.25</v>
+        <v>19.526315789473685</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3035,7 +3039,7 @@
         <v>3</v>
       </c>
       <c r="G77">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="H77" t="s">
         <v>4</v>
@@ -3045,7 +3049,7 @@
       </c>
       <c r="K77">
         <f>AVERAGE($G$1:G77)</f>
-        <v>20.61038961038961</v>
+        <v>19.532467532467532</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3068,7 +3072,7 @@
         <v>3</v>
       </c>
       <c r="G78">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H78" t="s">
         <v>4</v>
@@ -3078,7 +3082,7 @@
       </c>
       <c r="K78">
         <f>AVERAGE($G$1:G78)</f>
-        <v>20.615384615384617</v>
+        <v>19.487179487179485</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3101,17 +3105,17 @@
         <v>3</v>
       </c>
       <c r="G79">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="H79" t="s">
         <v>4</v>
       </c>
       <c r="I79">
-        <v>1000</v>
+        <v>198</v>
       </c>
       <c r="K79">
         <f>AVERAGE($G$1:G79)</f>
-        <v>20.594936708860761</v>
+        <v>19.316455696202532</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3134,7 +3138,7 @@
         <v>3</v>
       </c>
       <c r="G80">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H80" t="s">
         <v>4</v>
@@ -3144,7 +3148,7 @@
       </c>
       <c r="K80">
         <f>AVERAGE($G$1:G80)</f>
-        <v>20.625</v>
+        <v>19.375</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3167,7 +3171,7 @@
         <v>3</v>
       </c>
       <c r="G81">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="H81" t="s">
         <v>4</v>
@@ -3177,7 +3181,7 @@
       </c>
       <c r="K81">
         <f>AVERAGE($G$1:G81)</f>
-        <v>20.790123456790123</v>
+        <v>19.308641975308642</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3200,7 +3204,7 @@
         <v>3</v>
       </c>
       <c r="G82">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H82" t="s">
         <v>4</v>
@@ -3210,7 +3214,7 @@
       </c>
       <c r="K82">
         <f>AVERAGE($G$1:G82)</f>
-        <v>20.865853658536587</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3233,17 +3237,17 @@
         <v>3</v>
       </c>
       <c r="G83">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="H83" t="s">
         <v>4</v>
       </c>
       <c r="I83">
-        <v>440</v>
+        <v>1000</v>
       </c>
       <c r="K83">
         <f>AVERAGE($G$1:G83)</f>
-        <v>21.024096385542169</v>
+        <v>19.518072289156628</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3266,17 +3270,17 @@
         <v>3</v>
       </c>
       <c r="G84">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H84" t="s">
         <v>4</v>
       </c>
       <c r="I84">
-        <v>1000</v>
+        <v>671</v>
       </c>
       <c r="K84">
         <f>AVERAGE($G$1:G84)</f>
-        <v>21</v>
+        <v>19.488095238095237</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3299,7 +3303,7 @@
         <v>3</v>
       </c>
       <c r="G85">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H85" t="s">
         <v>4</v>
@@ -3309,7 +3313,7 @@
       </c>
       <c r="K85">
         <f>AVERAGE($G$1:G85)</f>
-        <v>21.129411764705882</v>
+        <v>19.423529411764704</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3332,17 +3336,17 @@
         <v>3</v>
       </c>
       <c r="G86">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H86" t="s">
         <v>4</v>
       </c>
       <c r="I86">
-        <v>434</v>
+        <v>1000</v>
       </c>
       <c r="K86">
         <f>AVERAGE($G$1:G86)</f>
-        <v>21.209302325581394</v>
+        <v>19.534883720930232</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3365,17 +3369,17 @@
         <v>3</v>
       </c>
       <c r="G87">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="H87" t="s">
         <v>4</v>
       </c>
       <c r="I87">
-        <v>737</v>
+        <v>1000</v>
       </c>
       <c r="K87">
         <f>AVERAGE($G$1:G87)</f>
-        <v>21.045977011494251</v>
+        <v>19.505747126436781</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3398,17 +3402,17 @@
         <v>3</v>
       </c>
       <c r="G88">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H88" t="s">
         <v>4</v>
       </c>
       <c r="I88">
-        <v>472</v>
+        <v>371</v>
       </c>
       <c r="K88">
         <f>AVERAGE($G$1:G88)</f>
-        <v>21</v>
+        <v>19.420454545454547</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3431,7 +3435,7 @@
         <v>3</v>
       </c>
       <c r="G89">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H89" t="s">
         <v>4</v>
@@ -3441,7 +3445,7 @@
       </c>
       <c r="K89">
         <f>AVERAGE($G$1:G89)</f>
-        <v>20.910112359550563</v>
+        <v>19.337078651685392</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3464,7 +3468,7 @@
         <v>3</v>
       </c>
       <c r="G90">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="H90" t="s">
         <v>4</v>
@@ -3474,7 +3478,7 @@
       </c>
       <c r="K90">
         <f>AVERAGE($G$1:G90)</f>
-        <v>21.177777777777777</v>
+        <v>19.211111111111112</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3497,7 +3501,7 @@
         <v>3</v>
       </c>
       <c r="G91">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="H91" t="s">
         <v>4</v>
@@ -3507,7 +3511,7 @@
       </c>
       <c r="K91">
         <f>AVERAGE($G$1:G91)</f>
-        <v>21.53846153846154</v>
+        <v>19.340659340659339</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3530,7 +3534,7 @@
         <v>3</v>
       </c>
       <c r="G92">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H92" t="s">
         <v>4</v>
@@ -3540,7 +3544,7 @@
       </c>
       <c r="K92">
         <f>AVERAGE($G$1:G92)</f>
-        <v>21.5</v>
+        <v>19.282608695652176</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3563,7 +3567,7 @@
         <v>3</v>
       </c>
       <c r="G93">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H93" t="s">
         <v>4</v>
@@ -3573,7 +3577,7 @@
       </c>
       <c r="K93">
         <f>AVERAGE($G$1:G93)</f>
-        <v>21.537634408602152</v>
+        <v>19.29032258064516</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3596,17 +3600,17 @@
         <v>3</v>
       </c>
       <c r="G94">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H94" t="s">
         <v>4</v>
       </c>
       <c r="I94">
-        <v>253</v>
+        <v>500</v>
       </c>
       <c r="K94">
         <f>AVERAGE($G$1:G94)</f>
-        <v>21.372340425531913</v>
+        <v>19.159574468085108</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3629,17 +3633,17 @@
         <v>3</v>
       </c>
       <c r="G95">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H95" t="s">
         <v>4</v>
       </c>
       <c r="I95">
-        <v>419</v>
+        <v>1000</v>
       </c>
       <c r="K95">
         <f>AVERAGE($G$1:G95)</f>
-        <v>21.221052631578946</v>
+        <v>19.094736842105263</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3662,7 +3666,7 @@
         <v>3</v>
       </c>
       <c r="G96">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H96" t="s">
         <v>4</v>
@@ -3672,7 +3676,7 @@
       </c>
       <c r="K96">
         <f>AVERAGE($G$1:G96)</f>
-        <v>21.1875</v>
+        <v>19.15625</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3695,17 +3699,17 @@
         <v>3</v>
       </c>
       <c r="G97">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="H97" t="s">
         <v>4</v>
       </c>
       <c r="I97">
-        <v>302</v>
+        <v>1000</v>
       </c>
       <c r="K97">
         <f>AVERAGE($G$1:G97)</f>
-        <v>21.030927835051546</v>
+        <v>19.422680412371133</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3728,7 +3732,7 @@
         <v>3</v>
       </c>
       <c r="G98">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H98" t="s">
         <v>4</v>
@@ -3738,7 +3742,7 @@
       </c>
       <c r="K98">
         <f>AVERAGE($G$1:G98)</f>
-        <v>21.020408163265305</v>
+        <v>19.377551020408163</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3761,7 +3765,7 @@
         <v>3</v>
       </c>
       <c r="G99">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H99" t="s">
         <v>4</v>
@@ -3771,7 +3775,7 @@
       </c>
       <c r="K99">
         <f>AVERAGE($G$1:G99)</f>
-        <v>21.040404040404042</v>
+        <v>19.393939393939394</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3794,17 +3798,17 @@
         <v>3</v>
       </c>
       <c r="G100">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H100" t="s">
         <v>4</v>
       </c>
       <c r="I100">
-        <v>371</v>
+        <v>1000</v>
       </c>
       <c r="K100">
         <f>AVERAGE($G$1:G100)</f>
-        <v>20.93</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3824,7 +3828,7 @@
         <v>3</v>
       </c>
       <c r="G101">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="H101" t="s">
         <v>4</v>
@@ -3834,229 +3838,229 @@
       </c>
       <c r="K101">
         <f>AVERAGE($G$1:G101)</f>
-        <v>21.128712871287128</v>
+        <v>19.504950495049506</v>
       </c>
     </row>
     <row r="102" spans="1:11">
       <c r="K102">
         <f>AVERAGE($G$1:G102)</f>
-        <v>21.128712871287128</v>
+        <v>19.504950495049506</v>
       </c>
     </row>
     <row r="103" spans="1:11">
       <c r="K103">
         <f>AVERAGE($G$1:G103)</f>
-        <v>21.128712871287128</v>
+        <v>19.504950495049506</v>
       </c>
     </row>
     <row r="104" spans="1:11">
       <c r="K104">
         <f>AVERAGE($G$1:G104)</f>
-        <v>21.128712871287128</v>
+        <v>19.504950495049506</v>
       </c>
     </row>
     <row r="105" spans="1:11">
       <c r="K105">
         <f>AVERAGE($G$1:G105)</f>
-        <v>21.128712871287128</v>
+        <v>19.504950495049506</v>
       </c>
     </row>
     <row r="106" spans="1:11">
       <c r="K106">
         <f>AVERAGE($G$1:G106)</f>
-        <v>21.128712871287128</v>
+        <v>19.504950495049506</v>
       </c>
     </row>
     <row r="107" spans="1:11">
       <c r="K107">
         <f>AVERAGE($G$1:G107)</f>
-        <v>21.128712871287128</v>
+        <v>19.504950495049506</v>
       </c>
     </row>
     <row r="108" spans="1:11">
       <c r="K108">
         <f>AVERAGE($G$1:G108)</f>
-        <v>21.128712871287128</v>
+        <v>19.504950495049506</v>
       </c>
     </row>
     <row r="109" spans="1:11">
       <c r="K109">
         <f>AVERAGE($G$1:G109)</f>
-        <v>21.128712871287128</v>
+        <v>19.504950495049506</v>
       </c>
     </row>
     <row r="110" spans="1:11">
       <c r="K110">
         <f>AVERAGE($G$1:G110)</f>
-        <v>21.128712871287128</v>
+        <v>19.504950495049506</v>
       </c>
     </row>
     <row r="111" spans="1:11">
       <c r="K111">
         <f>AVERAGE($G$1:G111)</f>
-        <v>21.128712871287128</v>
+        <v>19.504950495049506</v>
       </c>
     </row>
     <row r="112" spans="1:11">
       <c r="K112">
         <f>AVERAGE($G$1:G112)</f>
-        <v>21.128712871287128</v>
+        <v>19.504950495049506</v>
       </c>
     </row>
     <row r="113" spans="11:11">
       <c r="K113">
         <f>AVERAGE($G$1:G113)</f>
-        <v>21.128712871287128</v>
+        <v>19.504950495049506</v>
       </c>
     </row>
     <row r="114" spans="11:11">
       <c r="K114">
         <f>AVERAGE($G$1:G114)</f>
-        <v>21.128712871287128</v>
+        <v>19.504950495049506</v>
       </c>
     </row>
     <row r="115" spans="11:11">
       <c r="K115">
         <f>AVERAGE($G$1:G115)</f>
-        <v>21.128712871287128</v>
+        <v>19.504950495049506</v>
       </c>
     </row>
     <row r="116" spans="11:11">
       <c r="K116">
         <f>AVERAGE($G$1:G116)</f>
-        <v>21.128712871287128</v>
+        <v>19.504950495049506</v>
       </c>
     </row>
     <row r="117" spans="11:11">
       <c r="K117">
         <f>AVERAGE($G$1:G117)</f>
-        <v>21.128712871287128</v>
+        <v>19.504950495049506</v>
       </c>
     </row>
     <row r="118" spans="11:11">
       <c r="K118">
         <f>AVERAGE($G$1:G118)</f>
-        <v>21.128712871287128</v>
+        <v>19.504950495049506</v>
       </c>
     </row>
     <row r="119" spans="11:11">
       <c r="K119">
         <f>AVERAGE($G$1:G119)</f>
-        <v>21.128712871287128</v>
+        <v>19.504950495049506</v>
       </c>
     </row>
     <row r="120" spans="11:11">
       <c r="K120">
         <f>AVERAGE($G$1:G120)</f>
-        <v>21.128712871287128</v>
+        <v>19.504950495049506</v>
       </c>
     </row>
     <row r="121" spans="11:11">
       <c r="K121">
         <f>AVERAGE($G$1:G121)</f>
-        <v>21.128712871287128</v>
+        <v>19.504950495049506</v>
       </c>
     </row>
     <row r="122" spans="11:11">
       <c r="K122">
         <f>AVERAGE($G$1:G122)</f>
-        <v>21.128712871287128</v>
+        <v>19.504950495049506</v>
       </c>
     </row>
     <row r="123" spans="11:11">
       <c r="K123">
         <f>AVERAGE($G$1:G123)</f>
-        <v>21.128712871287128</v>
+        <v>19.504950495049506</v>
       </c>
     </row>
     <row r="124" spans="11:11">
       <c r="K124">
         <f>AVERAGE($G$1:G124)</f>
-        <v>21.128712871287128</v>
+        <v>19.504950495049506</v>
       </c>
     </row>
     <row r="125" spans="11:11">
       <c r="K125">
         <f>AVERAGE($G$1:G125)</f>
-        <v>21.128712871287128</v>
+        <v>19.504950495049506</v>
       </c>
     </row>
     <row r="126" spans="11:11">
       <c r="K126">
         <f>AVERAGE($G$1:G126)</f>
-        <v>21.128712871287128</v>
+        <v>19.504950495049506</v>
       </c>
     </row>
     <row r="127" spans="11:11">
       <c r="K127">
         <f>AVERAGE($G$1:G127)</f>
-        <v>21.128712871287128</v>
+        <v>19.504950495049506</v>
       </c>
     </row>
     <row r="128" spans="11:11">
       <c r="K128">
         <f>AVERAGE($G$1:G128)</f>
-        <v>21.128712871287128</v>
+        <v>19.504950495049506</v>
       </c>
     </row>
     <row r="129" spans="11:11">
       <c r="K129">
         <f>AVERAGE($G$1:G129)</f>
-        <v>21.128712871287128</v>
+        <v>19.504950495049506</v>
       </c>
     </row>
     <row r="130" spans="11:11">
       <c r="K130">
         <f>AVERAGE($G$1:G130)</f>
-        <v>21.128712871287128</v>
+        <v>19.504950495049506</v>
       </c>
     </row>
     <row r="131" spans="11:11">
       <c r="K131">
         <f>AVERAGE($G$1:G131)</f>
-        <v>21.128712871287128</v>
+        <v>19.504950495049506</v>
       </c>
     </row>
     <row r="132" spans="11:11">
       <c r="K132">
         <f>AVERAGE($G$1:G132)</f>
-        <v>21.128712871287128</v>
+        <v>19.504950495049506</v>
       </c>
     </row>
     <row r="133" spans="11:11">
       <c r="K133">
         <f>AVERAGE($G$1:G133)</f>
-        <v>21.128712871287128</v>
+        <v>19.504950495049506</v>
       </c>
     </row>
     <row r="134" spans="11:11">
       <c r="K134">
         <f>AVERAGE($G$1:G134)</f>
-        <v>21.128712871287128</v>
+        <v>19.504950495049506</v>
       </c>
     </row>
     <row r="135" spans="11:11">
       <c r="K135">
         <f>AVERAGE($G$1:G135)</f>
-        <v>21.128712871287128</v>
+        <v>19.504950495049506</v>
       </c>
     </row>
     <row r="136" spans="11:11">
       <c r="K136">
         <f>AVERAGE($G$1:G136)</f>
-        <v>21.128712871287128</v>
+        <v>19.504950495049506</v>
       </c>
     </row>
     <row r="137" spans="11:11">
       <c r="K137">
         <f>AVERAGE($G$1:G137)</f>
-        <v>21.128712871287128</v>
+        <v>19.504950495049506</v>
       </c>
     </row>
     <row r="138" spans="11:11">
       <c r="K138">
         <f>AVERAGE($G$1:G138)</f>
-        <v>21.128712871287128</v>
+        <v>19.504950495049506</v>
       </c>
     </row>
   </sheetData>
@@ -4074,7 +4078,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+    <sheetView topLeftCell="A50" workbookViewId="0">
       <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
@@ -7427,7 +7431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" workbookViewId="0">
+    <sheetView topLeftCell="A38" workbookViewId="0">
       <selection activeCell="B101" sqref="B101:I101"/>
     </sheetView>
   </sheetViews>

--- a/res_averages.xlsx
+++ b/res_averages.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="-5600" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="25600" yWindow="-5600" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Pacman Test" sheetId="1" r:id="rId1"/>
     <sheet name="Infection Test" sheetId="2" r:id="rId2"/>
     <sheet name="Butterflies Test" sheetId="3" r:id="rId3"/>
     <sheet name="Zelda Test" sheetId="4" r:id="rId4"/>
+    <sheet name="Camel Race" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2025" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2532" uniqueCount="8">
   <si>
     <t>Result</t>
   </si>
@@ -43,6 +44,9 @@
   </si>
   <si>
     <t>To import text: use special paste, selecting comma, : as special character and space for delimitations</t>
+  </si>
+  <si>
+    <t>AVERAGE WINS</t>
   </si>
 </sst>
 </file>
@@ -99,8 +103,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="31">
+  <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -136,7 +154,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="31">
+  <cellStyles count="45">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -152,6 +170,13 @@
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -167,6 +192,13 @@
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -498,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101:I101"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="F111" sqref="F111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10785,7 +10817,7 @@
   <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101:I101"/>
+      <selection activeCell="A48" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -14120,6 +14152,3763 @@
       <c r="K101">
         <f>AVERAGE($G$1:G101)</f>
         <v>-8.9108910891089105E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="L103" sqref="L103"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="11" max="11" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1">
+        <v>-1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1">
+        <v>79</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>-1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2">
+        <v>79</v>
+      </c>
+      <c r="K2">
+        <f>AVERAGE($G$1:G2)</f>
+        <v>-1</v>
+      </c>
+      <c r="L2">
+        <f>AVERAGE($E$1:E2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>-1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>79</v>
+      </c>
+      <c r="K3">
+        <f>AVERAGE($G$1:G3)</f>
+        <v>-1</v>
+      </c>
+      <c r="L3">
+        <f>AVERAGE($E$1:E3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>-1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>79</v>
+      </c>
+      <c r="K4">
+        <f>AVERAGE($G$1:G4)</f>
+        <v>-1</v>
+      </c>
+      <c r="L4">
+        <f>AVERAGE($E$1:E4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>-1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>79</v>
+      </c>
+      <c r="K5">
+        <f>AVERAGE($G$1:G5)</f>
+        <v>-1</v>
+      </c>
+      <c r="L5">
+        <f>AVERAGE($E$1:E5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>-1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>79</v>
+      </c>
+      <c r="K6">
+        <f>AVERAGE($G$1:G6)</f>
+        <v>-1</v>
+      </c>
+      <c r="L6">
+        <f>AVERAGE($E$1:E6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>79</v>
+      </c>
+      <c r="K7">
+        <f>AVERAGE($G$1:G7)</f>
+        <v>-1</v>
+      </c>
+      <c r="L7">
+        <f>AVERAGE($E$1:E7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>-1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>79</v>
+      </c>
+      <c r="K8">
+        <f>AVERAGE($G$1:G8)</f>
+        <v>-1</v>
+      </c>
+      <c r="L8">
+        <f>AVERAGE($E$1:E8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>-1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <v>79</v>
+      </c>
+      <c r="K9">
+        <f>AVERAGE($G$1:G9)</f>
+        <v>-1</v>
+      </c>
+      <c r="L9">
+        <f>AVERAGE($E$1:E9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>-1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <v>79</v>
+      </c>
+      <c r="K10">
+        <f>AVERAGE($G$1:G10)</f>
+        <v>-1</v>
+      </c>
+      <c r="L10">
+        <f>AVERAGE($E$1:E10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>-1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <v>79</v>
+      </c>
+      <c r="K11">
+        <f>AVERAGE($G$1:G11)</f>
+        <v>-1</v>
+      </c>
+      <c r="L11">
+        <f>AVERAGE($E$1:E11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>-1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12">
+        <v>79</v>
+      </c>
+      <c r="K12">
+        <f>AVERAGE($G$1:G12)</f>
+        <v>-1</v>
+      </c>
+      <c r="L12">
+        <f>AVERAGE($E$1:E12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>-1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13">
+        <v>79</v>
+      </c>
+      <c r="K13">
+        <f>AVERAGE($G$1:G13)</f>
+        <v>-1</v>
+      </c>
+      <c r="L13">
+        <f>AVERAGE($E$1:E13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>-1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <v>79</v>
+      </c>
+      <c r="K14">
+        <f>AVERAGE($G$1:G14)</f>
+        <v>-1</v>
+      </c>
+      <c r="L14">
+        <f>AVERAGE($E$1:E14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>-1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15">
+        <v>79</v>
+      </c>
+      <c r="K15">
+        <f>AVERAGE($G$1:G15)</f>
+        <v>-1</v>
+      </c>
+      <c r="L15">
+        <f>AVERAGE($E$1:E15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>-1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16">
+        <v>79</v>
+      </c>
+      <c r="K16">
+        <f>AVERAGE($G$1:G16)</f>
+        <v>-1</v>
+      </c>
+      <c r="L16">
+        <f>AVERAGE($E$1:E16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>-1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17">
+        <v>79</v>
+      </c>
+      <c r="K17">
+        <f>AVERAGE($G$1:G17)</f>
+        <v>-1</v>
+      </c>
+      <c r="L17">
+        <f>AVERAGE($E$1:E17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>-1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18">
+        <v>79</v>
+      </c>
+      <c r="K18">
+        <f>AVERAGE($G$1:G18)</f>
+        <v>-1</v>
+      </c>
+      <c r="L18">
+        <f>AVERAGE($E$1:E18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>-1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19">
+        <v>79</v>
+      </c>
+      <c r="K19">
+        <f>AVERAGE($G$1:G19)</f>
+        <v>-1</v>
+      </c>
+      <c r="L19">
+        <f>AVERAGE($E$1:E19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>-1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20">
+        <v>79</v>
+      </c>
+      <c r="K20">
+        <f>AVERAGE($G$1:G20)</f>
+        <v>-1</v>
+      </c>
+      <c r="L20">
+        <f>AVERAGE($E$1:E20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <v>-1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21">
+        <v>79</v>
+      </c>
+      <c r="K21">
+        <f>AVERAGE($G$1:G21)</f>
+        <v>-1</v>
+      </c>
+      <c r="L21">
+        <f>AVERAGE($E$1:E21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>-1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22">
+        <v>79</v>
+      </c>
+      <c r="K22">
+        <f>AVERAGE($G$1:G22)</f>
+        <v>-1</v>
+      </c>
+      <c r="L22">
+        <f>AVERAGE($E$1:E22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <v>-1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>4</v>
+      </c>
+      <c r="I23">
+        <v>79</v>
+      </c>
+      <c r="K23">
+        <f>AVERAGE($G$1:G23)</f>
+        <v>-1</v>
+      </c>
+      <c r="L23">
+        <f>AVERAGE($E$1:E23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24">
+        <v>-1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24">
+        <v>79</v>
+      </c>
+      <c r="K24">
+        <f>AVERAGE($G$1:G24)</f>
+        <v>-1</v>
+      </c>
+      <c r="L24">
+        <f>AVERAGE($E$1:E24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25">
+        <v>-1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>4</v>
+      </c>
+      <c r="I25">
+        <v>79</v>
+      </c>
+      <c r="K25">
+        <f>AVERAGE($G$1:G25)</f>
+        <v>-1</v>
+      </c>
+      <c r="L25">
+        <f>AVERAGE($E$1:E25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>-1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>4</v>
+      </c>
+      <c r="I26">
+        <v>79</v>
+      </c>
+      <c r="K26">
+        <f>AVERAGE($G$1:G26)</f>
+        <v>-1</v>
+      </c>
+      <c r="L26">
+        <f>AVERAGE($E$1:E26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>4</v>
+      </c>
+      <c r="I27">
+        <v>50</v>
+      </c>
+      <c r="K27">
+        <f>AVERAGE($G$1:G27)</f>
+        <v>-0.92592592592592593</v>
+      </c>
+      <c r="L27">
+        <f>AVERAGE($E$1:E27)</f>
+        <v>3.7037037037037035E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <v>-1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>4</v>
+      </c>
+      <c r="I28">
+        <v>79</v>
+      </c>
+      <c r="K28">
+        <f>AVERAGE($G$1:G28)</f>
+        <v>-0.9285714285714286</v>
+      </c>
+      <c r="L28">
+        <f>AVERAGE($E$1:E28)</f>
+        <v>3.5714285714285712E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29">
+        <v>-1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>4</v>
+      </c>
+      <c r="I29">
+        <v>79</v>
+      </c>
+      <c r="K29">
+        <f>AVERAGE($G$1:G29)</f>
+        <v>-0.93103448275862066</v>
+      </c>
+      <c r="L29">
+        <f>AVERAGE($E$1:E29)</f>
+        <v>3.4482758620689655E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30">
+        <v>-1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>4</v>
+      </c>
+      <c r="I30">
+        <v>79</v>
+      </c>
+      <c r="K30">
+        <f>AVERAGE($G$1:G30)</f>
+        <v>-0.93333333333333335</v>
+      </c>
+      <c r="L30">
+        <f>AVERAGE($E$1:E30)</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31">
+        <v>-1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>4</v>
+      </c>
+      <c r="I31">
+        <v>79</v>
+      </c>
+      <c r="K31">
+        <f>AVERAGE($G$1:G31)</f>
+        <v>-0.93548387096774188</v>
+      </c>
+      <c r="L31">
+        <f>AVERAGE($E$1:E31)</f>
+        <v>3.2258064516129031E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32">
+        <v>52</v>
+      </c>
+      <c r="K32">
+        <f>AVERAGE($G$1:G32)</f>
+        <v>-0.875</v>
+      </c>
+      <c r="L32">
+        <f>AVERAGE($E$1:E32)</f>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33">
+        <v>-1</v>
+      </c>
+      <c r="H33" t="s">
+        <v>4</v>
+      </c>
+      <c r="I33">
+        <v>79</v>
+      </c>
+      <c r="K33">
+        <f>AVERAGE($G$1:G33)</f>
+        <v>-0.87878787878787878</v>
+      </c>
+      <c r="L33">
+        <f>AVERAGE($E$1:E33)</f>
+        <v>6.0606060606060608E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34">
+        <v>-1</v>
+      </c>
+      <c r="H34" t="s">
+        <v>4</v>
+      </c>
+      <c r="I34">
+        <v>79</v>
+      </c>
+      <c r="K34">
+        <f>AVERAGE($G$1:G34)</f>
+        <v>-0.88235294117647056</v>
+      </c>
+      <c r="L34">
+        <f>AVERAGE($E$1:E34)</f>
+        <v>5.8823529411764705E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35">
+        <v>-1</v>
+      </c>
+      <c r="H35" t="s">
+        <v>4</v>
+      </c>
+      <c r="I35">
+        <v>79</v>
+      </c>
+      <c r="K35">
+        <f>AVERAGE($G$1:G35)</f>
+        <v>-0.88571428571428568</v>
+      </c>
+      <c r="L35">
+        <f>AVERAGE($E$1:E35)</f>
+        <v>5.7142857142857141E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36">
+        <v>-1</v>
+      </c>
+      <c r="H36" t="s">
+        <v>4</v>
+      </c>
+      <c r="I36">
+        <v>79</v>
+      </c>
+      <c r="K36">
+        <f>AVERAGE($G$1:G36)</f>
+        <v>-0.88888888888888884</v>
+      </c>
+      <c r="L36">
+        <f>AVERAGE($E$1:E36)</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37" t="s">
+        <v>3</v>
+      </c>
+      <c r="G37">
+        <v>-1</v>
+      </c>
+      <c r="H37" t="s">
+        <v>4</v>
+      </c>
+      <c r="I37">
+        <v>79</v>
+      </c>
+      <c r="K37">
+        <f>AVERAGE($G$1:G37)</f>
+        <v>-0.89189189189189189</v>
+      </c>
+      <c r="L37">
+        <f>AVERAGE($E$1:E37)</f>
+        <v>5.4054054054054057E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38">
+        <v>-1</v>
+      </c>
+      <c r="H38" t="s">
+        <v>4</v>
+      </c>
+      <c r="I38">
+        <v>79</v>
+      </c>
+      <c r="K38">
+        <f>AVERAGE($G$1:G38)</f>
+        <v>-0.89473684210526316</v>
+      </c>
+      <c r="L38">
+        <f>AVERAGE($E$1:E38)</f>
+        <v>5.2631578947368418E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39" t="s">
+        <v>3</v>
+      </c>
+      <c r="G39">
+        <v>-1</v>
+      </c>
+      <c r="H39" t="s">
+        <v>4</v>
+      </c>
+      <c r="I39">
+        <v>79</v>
+      </c>
+      <c r="K39">
+        <f>AVERAGE($G$1:G39)</f>
+        <v>-0.89743589743589747</v>
+      </c>
+      <c r="L39">
+        <f>AVERAGE($E$1:E39)</f>
+        <v>5.128205128205128E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>3</v>
+      </c>
+      <c r="G40">
+        <v>-1</v>
+      </c>
+      <c r="H40" t="s">
+        <v>4</v>
+      </c>
+      <c r="I40">
+        <v>79</v>
+      </c>
+      <c r="K40">
+        <f>AVERAGE($G$1:G40)</f>
+        <v>-0.9</v>
+      </c>
+      <c r="L40">
+        <f>AVERAGE($E$1:E40)</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41" t="s">
+        <v>4</v>
+      </c>
+      <c r="I41">
+        <v>54</v>
+      </c>
+      <c r="K41">
+        <f>AVERAGE($G$1:G41)</f>
+        <v>-0.85365853658536583</v>
+      </c>
+      <c r="L41">
+        <f>AVERAGE($E$1:E41)</f>
+        <v>7.3170731707317069E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42">
+        <v>-1</v>
+      </c>
+      <c r="H42" t="s">
+        <v>4</v>
+      </c>
+      <c r="I42">
+        <v>79</v>
+      </c>
+      <c r="K42">
+        <f>AVERAGE($G$1:G42)</f>
+        <v>-0.8571428571428571</v>
+      </c>
+      <c r="L42">
+        <f>AVERAGE($E$1:E42)</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43">
+        <v>-1</v>
+      </c>
+      <c r="H43" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43">
+        <v>79</v>
+      </c>
+      <c r="K43">
+        <f>AVERAGE($G$1:G43)</f>
+        <v>-0.86046511627906974</v>
+      </c>
+      <c r="L43">
+        <f>AVERAGE($E$1:E43)</f>
+        <v>6.9767441860465115E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44">
+        <v>51</v>
+      </c>
+      <c r="K44">
+        <f>AVERAGE($G$1:G44)</f>
+        <v>-0.81818181818181823</v>
+      </c>
+      <c r="L44">
+        <f>AVERAGE($E$1:E44)</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G45">
+        <v>-1</v>
+      </c>
+      <c r="H45" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45">
+        <v>79</v>
+      </c>
+      <c r="K45">
+        <f>AVERAGE($G$1:G45)</f>
+        <v>-0.82222222222222219</v>
+      </c>
+      <c r="L45">
+        <f>AVERAGE($E$1:E45)</f>
+        <v>8.8888888888888892E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46" t="s">
+        <v>3</v>
+      </c>
+      <c r="G46">
+        <v>-1</v>
+      </c>
+      <c r="H46" t="s">
+        <v>4</v>
+      </c>
+      <c r="I46">
+        <v>79</v>
+      </c>
+      <c r="K46">
+        <f>AVERAGE($G$1:G46)</f>
+        <v>-0.82608695652173914</v>
+      </c>
+      <c r="L46">
+        <f>AVERAGE($E$1:E46)</f>
+        <v>8.6956521739130432E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47">
+        <v>47</v>
+      </c>
+      <c r="K47">
+        <f>AVERAGE($G$1:G47)</f>
+        <v>-0.78723404255319152</v>
+      </c>
+      <c r="L47">
+        <f>AVERAGE($E$1:E47)</f>
+        <v>0.10638297872340426</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48">
+        <v>48</v>
+      </c>
+      <c r="K48">
+        <f>AVERAGE($G$1:G48)</f>
+        <v>-0.75</v>
+      </c>
+      <c r="L48">
+        <f>AVERAGE($E$1:E48)</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49">
+        <v>51</v>
+      </c>
+      <c r="K49">
+        <f>AVERAGE($G$1:G49)</f>
+        <v>-0.7142857142857143</v>
+      </c>
+      <c r="L49">
+        <f>AVERAGE($E$1:E49)</f>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50" t="s">
+        <v>3</v>
+      </c>
+      <c r="G50">
+        <v>-1</v>
+      </c>
+      <c r="H50" t="s">
+        <v>4</v>
+      </c>
+      <c r="I50">
+        <v>79</v>
+      </c>
+      <c r="K50">
+        <f>AVERAGE($G$1:G50)</f>
+        <v>-0.72</v>
+      </c>
+      <c r="L50">
+        <f>AVERAGE($E$1:E50)</f>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51" t="s">
+        <v>3</v>
+      </c>
+      <c r="G51">
+        <v>-1</v>
+      </c>
+      <c r="H51" t="s">
+        <v>4</v>
+      </c>
+      <c r="I51">
+        <v>79</v>
+      </c>
+      <c r="K51">
+        <f>AVERAGE($G$1:G51)</f>
+        <v>-0.72549019607843135</v>
+      </c>
+      <c r="L51">
+        <f>AVERAGE($E$1:E51)</f>
+        <v>0.13725490196078433</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52">
+        <v>-1</v>
+      </c>
+      <c r="H52" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52">
+        <v>79</v>
+      </c>
+      <c r="K52">
+        <f>AVERAGE($G$1:G52)</f>
+        <v>-0.73076923076923073</v>
+      </c>
+      <c r="L52">
+        <f>AVERAGE($E$1:E52)</f>
+        <v>0.13461538461538461</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53" t="s">
+        <v>3</v>
+      </c>
+      <c r="G53">
+        <v>-1</v>
+      </c>
+      <c r="H53" t="s">
+        <v>4</v>
+      </c>
+      <c r="I53">
+        <v>79</v>
+      </c>
+      <c r="K53">
+        <f>AVERAGE($G$1:G53)</f>
+        <v>-0.73584905660377353</v>
+      </c>
+      <c r="L53">
+        <f>AVERAGE($E$1:E53)</f>
+        <v>0.13207547169811321</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54" t="s">
+        <v>3</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54" t="s">
+        <v>4</v>
+      </c>
+      <c r="I54">
+        <v>47</v>
+      </c>
+      <c r="K54">
+        <f>AVERAGE($G$1:G54)</f>
+        <v>-0.70370370370370372</v>
+      </c>
+      <c r="L54">
+        <f>AVERAGE($E$1:E54)</f>
+        <v>0.14814814814814814</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55" t="s">
+        <v>3</v>
+      </c>
+      <c r="G55">
+        <v>-1</v>
+      </c>
+      <c r="H55" t="s">
+        <v>4</v>
+      </c>
+      <c r="I55">
+        <v>79</v>
+      </c>
+      <c r="K55">
+        <f>AVERAGE($G$1:G55)</f>
+        <v>-0.70909090909090911</v>
+      </c>
+      <c r="L55">
+        <f>AVERAGE($E$1:E55)</f>
+        <v>0.14545454545454545</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56" t="s">
+        <v>3</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56" t="s">
+        <v>4</v>
+      </c>
+      <c r="I56">
+        <v>52</v>
+      </c>
+      <c r="K56">
+        <f>AVERAGE($G$1:G56)</f>
+        <v>-0.6785714285714286</v>
+      </c>
+      <c r="L56">
+        <f>AVERAGE($E$1:E56)</f>
+        <v>0.16071428571428573</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57" t="s">
+        <v>4</v>
+      </c>
+      <c r="I57">
+        <v>54</v>
+      </c>
+      <c r="K57">
+        <f>AVERAGE($G$1:G57)</f>
+        <v>-0.64912280701754388</v>
+      </c>
+      <c r="L57">
+        <f>AVERAGE($E$1:E57)</f>
+        <v>0.17543859649122806</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58" t="s">
+        <v>2</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58">
+        <v>50</v>
+      </c>
+      <c r="K58">
+        <f>AVERAGE($G$1:G58)</f>
+        <v>-0.62068965517241381</v>
+      </c>
+      <c r="L58">
+        <f>AVERAGE($E$1:E58)</f>
+        <v>0.18965517241379309</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s">
+        <v>2</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59" t="s">
+        <v>3</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59" t="s">
+        <v>4</v>
+      </c>
+      <c r="I59">
+        <v>50</v>
+      </c>
+      <c r="K59">
+        <f>AVERAGE($G$1:G59)</f>
+        <v>-0.59322033898305082</v>
+      </c>
+      <c r="L59">
+        <f>AVERAGE($E$1:E59)</f>
+        <v>0.20338983050847459</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60" t="s">
+        <v>3</v>
+      </c>
+      <c r="G60">
+        <v>-1</v>
+      </c>
+      <c r="H60" t="s">
+        <v>4</v>
+      </c>
+      <c r="I60">
+        <v>79</v>
+      </c>
+      <c r="K60">
+        <f>AVERAGE($G$1:G60)</f>
+        <v>-0.6</v>
+      </c>
+      <c r="L60">
+        <f>AVERAGE($E$1:E60)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61" t="s">
+        <v>2</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61" t="s">
+        <v>3</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61" t="s">
+        <v>4</v>
+      </c>
+      <c r="I61">
+        <v>46</v>
+      </c>
+      <c r="K61">
+        <f>AVERAGE($G$1:G61)</f>
+        <v>-0.57377049180327866</v>
+      </c>
+      <c r="L61">
+        <f>AVERAGE($E$1:E61)</f>
+        <v>0.21311475409836064</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1</v>
+      </c>
+      <c r="D62" t="s">
+        <v>2</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62">
+        <v>54</v>
+      </c>
+      <c r="K62">
+        <f>AVERAGE($G$1:G62)</f>
+        <v>-0.54838709677419351</v>
+      </c>
+      <c r="L62">
+        <f>AVERAGE($E$1:E62)</f>
+        <v>0.22580645161290322</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" t="s">
+        <v>2</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63" t="s">
+        <v>3</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63" t="s">
+        <v>4</v>
+      </c>
+      <c r="I63">
+        <v>53</v>
+      </c>
+      <c r="K63">
+        <f>AVERAGE($G$1:G63)</f>
+        <v>-0.52380952380952384</v>
+      </c>
+      <c r="L63">
+        <f>AVERAGE($E$1:E63)</f>
+        <v>0.23809523809523808</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1</v>
+      </c>
+      <c r="D64" t="s">
+        <v>2</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64" t="s">
+        <v>3</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64" t="s">
+        <v>4</v>
+      </c>
+      <c r="I64">
+        <v>52</v>
+      </c>
+      <c r="K64">
+        <f>AVERAGE($G$1:G64)</f>
+        <v>-0.5</v>
+      </c>
+      <c r="L64">
+        <f>AVERAGE($E$1:E64)</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1</v>
+      </c>
+      <c r="D65" t="s">
+        <v>2</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65" t="s">
+        <v>3</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65" t="s">
+        <v>4</v>
+      </c>
+      <c r="I65">
+        <v>52</v>
+      </c>
+      <c r="K65">
+        <f>AVERAGE($G$1:G65)</f>
+        <v>-0.47692307692307695</v>
+      </c>
+      <c r="L65">
+        <f>AVERAGE($E$1:E65)</f>
+        <v>0.26153846153846155</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1</v>
+      </c>
+      <c r="D66" t="s">
+        <v>2</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66" t="s">
+        <v>3</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66" t="s">
+        <v>4</v>
+      </c>
+      <c r="I66">
+        <v>50</v>
+      </c>
+      <c r="K66">
+        <f>AVERAGE($G$1:G66)</f>
+        <v>-0.45454545454545453</v>
+      </c>
+      <c r="L66">
+        <f>AVERAGE($E$1:E66)</f>
+        <v>0.27272727272727271</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1</v>
+      </c>
+      <c r="D67" t="s">
+        <v>2</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67" t="s">
+        <v>3</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67" t="s">
+        <v>4</v>
+      </c>
+      <c r="I67">
+        <v>49</v>
+      </c>
+      <c r="K67">
+        <f>AVERAGE($G$1:G67)</f>
+        <v>-0.43283582089552236</v>
+      </c>
+      <c r="L67">
+        <f>AVERAGE($E$1:E67)</f>
+        <v>0.28358208955223879</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1</v>
+      </c>
+      <c r="D68" t="s">
+        <v>2</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68" t="s">
+        <v>3</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68" t="s">
+        <v>4</v>
+      </c>
+      <c r="I68">
+        <v>50</v>
+      </c>
+      <c r="K68">
+        <f>AVERAGE($G$1:G68)</f>
+        <v>-0.41176470588235292</v>
+      </c>
+      <c r="L68">
+        <f>AVERAGE($E$1:E68)</f>
+        <v>0.29411764705882354</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1</v>
+      </c>
+      <c r="D69" t="s">
+        <v>2</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69" t="s">
+        <v>3</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69" t="s">
+        <v>4</v>
+      </c>
+      <c r="I69">
+        <v>55</v>
+      </c>
+      <c r="K69">
+        <f>AVERAGE($G$1:G69)</f>
+        <v>-0.39130434782608697</v>
+      </c>
+      <c r="L69">
+        <f>AVERAGE($E$1:E69)</f>
+        <v>0.30434782608695654</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1</v>
+      </c>
+      <c r="D70" t="s">
+        <v>2</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70" t="s">
+        <v>3</v>
+      </c>
+      <c r="G70">
+        <v>-1</v>
+      </c>
+      <c r="H70" t="s">
+        <v>4</v>
+      </c>
+      <c r="I70">
+        <v>79</v>
+      </c>
+      <c r="K70">
+        <f>AVERAGE($G$1:G70)</f>
+        <v>-0.4</v>
+      </c>
+      <c r="L70">
+        <f>AVERAGE($E$1:E70)</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1</v>
+      </c>
+      <c r="D71" t="s">
+        <v>2</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71" t="s">
+        <v>3</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71" t="s">
+        <v>4</v>
+      </c>
+      <c r="I71">
+        <v>53</v>
+      </c>
+      <c r="K71">
+        <f>AVERAGE($G$1:G71)</f>
+        <v>-0.38028169014084506</v>
+      </c>
+      <c r="L71">
+        <f>AVERAGE($E$1:E71)</f>
+        <v>0.30985915492957744</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1</v>
+      </c>
+      <c r="D72" t="s">
+        <v>2</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72" t="s">
+        <v>3</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72" t="s">
+        <v>4</v>
+      </c>
+      <c r="I72">
+        <v>49</v>
+      </c>
+      <c r="K72">
+        <f>AVERAGE($G$1:G72)</f>
+        <v>-0.3611111111111111</v>
+      </c>
+      <c r="L72">
+        <f>AVERAGE($E$1:E72)</f>
+        <v>0.31944444444444442</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>0</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1</v>
+      </c>
+      <c r="D73" t="s">
+        <v>2</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73" t="s">
+        <v>3</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73" t="s">
+        <v>4</v>
+      </c>
+      <c r="I73">
+        <v>54</v>
+      </c>
+      <c r="K73">
+        <f>AVERAGE($G$1:G73)</f>
+        <v>-0.34246575342465752</v>
+      </c>
+      <c r="L73">
+        <f>AVERAGE($E$1:E73)</f>
+        <v>0.32876712328767121</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>0</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1</v>
+      </c>
+      <c r="D74" t="s">
+        <v>2</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74" t="s">
+        <v>3</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74" t="s">
+        <v>4</v>
+      </c>
+      <c r="I74">
+        <v>50</v>
+      </c>
+      <c r="K74">
+        <f>AVERAGE($G$1:G74)</f>
+        <v>-0.32432432432432434</v>
+      </c>
+      <c r="L74">
+        <f>AVERAGE($E$1:E74)</f>
+        <v>0.33783783783783783</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1</v>
+      </c>
+      <c r="D75" t="s">
+        <v>2</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75" t="s">
+        <v>3</v>
+      </c>
+      <c r="G75">
+        <v>-1</v>
+      </c>
+      <c r="H75" t="s">
+        <v>4</v>
+      </c>
+      <c r="I75">
+        <v>79</v>
+      </c>
+      <c r="K75">
+        <f>AVERAGE($G$1:G75)</f>
+        <v>-0.33333333333333331</v>
+      </c>
+      <c r="L75">
+        <f>AVERAGE($E$1:E75)</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>0</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1</v>
+      </c>
+      <c r="D76" t="s">
+        <v>2</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76" t="s">
+        <v>3</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76" t="s">
+        <v>4</v>
+      </c>
+      <c r="I76">
+        <v>49</v>
+      </c>
+      <c r="K76">
+        <f>AVERAGE($G$1:G76)</f>
+        <v>-0.31578947368421051</v>
+      </c>
+      <c r="L76">
+        <f>AVERAGE($E$1:E76)</f>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1</v>
+      </c>
+      <c r="D77" t="s">
+        <v>2</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77" t="s">
+        <v>3</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77" t="s">
+        <v>4</v>
+      </c>
+      <c r="I77">
+        <v>53</v>
+      </c>
+      <c r="K77">
+        <f>AVERAGE($G$1:G77)</f>
+        <v>-0.29870129870129869</v>
+      </c>
+      <c r="L77">
+        <f>AVERAGE($E$1:E77)</f>
+        <v>0.35064935064935066</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1</v>
+      </c>
+      <c r="D78" t="s">
+        <v>2</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78" t="s">
+        <v>3</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78" t="s">
+        <v>4</v>
+      </c>
+      <c r="I78">
+        <v>51</v>
+      </c>
+      <c r="K78">
+        <f>AVERAGE($G$1:G78)</f>
+        <v>-0.28205128205128205</v>
+      </c>
+      <c r="L78">
+        <f>AVERAGE($E$1:E78)</f>
+        <v>0.35897435897435898</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>0</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1</v>
+      </c>
+      <c r="D79" t="s">
+        <v>2</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79" t="s">
+        <v>3</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79" t="s">
+        <v>4</v>
+      </c>
+      <c r="I79">
+        <v>49</v>
+      </c>
+      <c r="K79">
+        <f>AVERAGE($G$1:G79)</f>
+        <v>-0.26582278481012656</v>
+      </c>
+      <c r="L79">
+        <f>AVERAGE($E$1:E79)</f>
+        <v>0.36708860759493672</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>0</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1</v>
+      </c>
+      <c r="D80" t="s">
+        <v>2</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80" t="s">
+        <v>3</v>
+      </c>
+      <c r="G80">
+        <v>-1</v>
+      </c>
+      <c r="H80" t="s">
+        <v>4</v>
+      </c>
+      <c r="I80">
+        <v>79</v>
+      </c>
+      <c r="K80">
+        <f>AVERAGE($G$1:G80)</f>
+        <v>-0.27500000000000002</v>
+      </c>
+      <c r="L80">
+        <f>AVERAGE($E$1:E80)</f>
+        <v>0.36249999999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>0</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1</v>
+      </c>
+      <c r="D81" t="s">
+        <v>2</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81" t="s">
+        <v>3</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81" t="s">
+        <v>4</v>
+      </c>
+      <c r="I81">
+        <v>50</v>
+      </c>
+      <c r="K81">
+        <f>AVERAGE($G$1:G81)</f>
+        <v>-0.25925925925925924</v>
+      </c>
+      <c r="L81">
+        <f>AVERAGE($E$1:E81)</f>
+        <v>0.37037037037037035</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>0</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1</v>
+      </c>
+      <c r="D82" t="s">
+        <v>2</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82" t="s">
+        <v>3</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+      <c r="H82" t="s">
+        <v>4</v>
+      </c>
+      <c r="I82">
+        <v>48</v>
+      </c>
+      <c r="K82">
+        <f>AVERAGE($G$1:G82)</f>
+        <v>-0.24390243902439024</v>
+      </c>
+      <c r="L82">
+        <f>AVERAGE($E$1:E82)</f>
+        <v>0.37804878048780488</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>0</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1</v>
+      </c>
+      <c r="D83" t="s">
+        <v>2</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="H83" t="s">
+        <v>4</v>
+      </c>
+      <c r="I83">
+        <v>51</v>
+      </c>
+      <c r="K83">
+        <f>AVERAGE($G$1:G83)</f>
+        <v>-0.2289156626506024</v>
+      </c>
+      <c r="L83">
+        <f>AVERAGE($E$1:E83)</f>
+        <v>0.38554216867469882</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>0</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1</v>
+      </c>
+      <c r="D84" t="s">
+        <v>2</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84" t="s">
+        <v>3</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84" t="s">
+        <v>4</v>
+      </c>
+      <c r="I84">
+        <v>48</v>
+      </c>
+      <c r="K84">
+        <f>AVERAGE($G$1:G84)</f>
+        <v>-0.21428571428571427</v>
+      </c>
+      <c r="L84">
+        <f>AVERAGE($E$1:E84)</f>
+        <v>0.39285714285714285</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>0</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1</v>
+      </c>
+      <c r="D85" t="s">
+        <v>2</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85" t="s">
+        <v>3</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85" t="s">
+        <v>4</v>
+      </c>
+      <c r="I85">
+        <v>45</v>
+      </c>
+      <c r="K85">
+        <f>AVERAGE($G$1:G85)</f>
+        <v>-0.2</v>
+      </c>
+      <c r="L85">
+        <f>AVERAGE($E$1:E85)</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>0</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1</v>
+      </c>
+      <c r="D86" t="s">
+        <v>2</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86" t="s">
+        <v>3</v>
+      </c>
+      <c r="G86">
+        <v>-1</v>
+      </c>
+      <c r="H86" t="s">
+        <v>4</v>
+      </c>
+      <c r="I86">
+        <v>79</v>
+      </c>
+      <c r="K86">
+        <f>AVERAGE($G$1:G86)</f>
+        <v>-0.20930232558139536</v>
+      </c>
+      <c r="L86">
+        <f>AVERAGE($E$1:E86)</f>
+        <v>0.39534883720930231</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>0</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1</v>
+      </c>
+      <c r="D87" t="s">
+        <v>2</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87" t="s">
+        <v>3</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87" t="s">
+        <v>4</v>
+      </c>
+      <c r="I87">
+        <v>54</v>
+      </c>
+      <c r="K87">
+        <f>AVERAGE($G$1:G87)</f>
+        <v>-0.19540229885057472</v>
+      </c>
+      <c r="L87">
+        <f>AVERAGE($E$1:E87)</f>
+        <v>0.40229885057471265</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>0</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1</v>
+      </c>
+      <c r="D88" t="s">
+        <v>2</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88" t="s">
+        <v>3</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88" t="s">
+        <v>4</v>
+      </c>
+      <c r="I88">
+        <v>51</v>
+      </c>
+      <c r="K88">
+        <f>AVERAGE($G$1:G88)</f>
+        <v>-0.18181818181818182</v>
+      </c>
+      <c r="L88">
+        <f>AVERAGE($E$1:E88)</f>
+        <v>0.40909090909090912</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>0</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1</v>
+      </c>
+      <c r="D89" t="s">
+        <v>2</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89" t="s">
+        <v>3</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="H89" t="s">
+        <v>4</v>
+      </c>
+      <c r="I89">
+        <v>49</v>
+      </c>
+      <c r="K89">
+        <f>AVERAGE($G$1:G89)</f>
+        <v>-0.16853932584269662</v>
+      </c>
+      <c r="L89">
+        <f>AVERAGE($E$1:E89)</f>
+        <v>0.4157303370786517</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>0</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1</v>
+      </c>
+      <c r="D90" t="s">
+        <v>2</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90" t="s">
+        <v>3</v>
+      </c>
+      <c r="G90">
+        <v>-1</v>
+      </c>
+      <c r="H90" t="s">
+        <v>4</v>
+      </c>
+      <c r="I90">
+        <v>79</v>
+      </c>
+      <c r="K90">
+        <f>AVERAGE($G$1:G90)</f>
+        <v>-0.17777777777777778</v>
+      </c>
+      <c r="L90">
+        <f>AVERAGE($E$1:E90)</f>
+        <v>0.41111111111111109</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>0</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1</v>
+      </c>
+      <c r="D91" t="s">
+        <v>2</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+      <c r="H91" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91">
+        <v>51</v>
+      </c>
+      <c r="K91">
+        <f>AVERAGE($G$1:G91)</f>
+        <v>-0.16483516483516483</v>
+      </c>
+      <c r="L91">
+        <f>AVERAGE($E$1:E91)</f>
+        <v>0.4175824175824176</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>0</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1</v>
+      </c>
+      <c r="D92" t="s">
+        <v>2</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92" t="s">
+        <v>3</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+      <c r="H92" t="s">
+        <v>4</v>
+      </c>
+      <c r="I92">
+        <v>49</v>
+      </c>
+      <c r="K92">
+        <f>AVERAGE($G$1:G92)</f>
+        <v>-0.15217391304347827</v>
+      </c>
+      <c r="L92">
+        <f>AVERAGE($E$1:E92)</f>
+        <v>0.42391304347826086</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>0</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1</v>
+      </c>
+      <c r="D93" t="s">
+        <v>2</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93" t="s">
+        <v>3</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+      <c r="H93" t="s">
+        <v>4</v>
+      </c>
+      <c r="I93">
+        <v>51</v>
+      </c>
+      <c r="K93">
+        <f>AVERAGE($G$1:G93)</f>
+        <v>-0.13978494623655913</v>
+      </c>
+      <c r="L93">
+        <f>AVERAGE($E$1:E93)</f>
+        <v>0.43010752688172044</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>0</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1</v>
+      </c>
+      <c r="D94" t="s">
+        <v>2</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94" t="s">
+        <v>3</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="H94" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94">
+        <v>50</v>
+      </c>
+      <c r="K94">
+        <f>AVERAGE($G$1:G94)</f>
+        <v>-0.1276595744680851</v>
+      </c>
+      <c r="L94">
+        <f>AVERAGE($E$1:E94)</f>
+        <v>0.43617021276595747</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>0</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1</v>
+      </c>
+      <c r="D95" t="s">
+        <v>2</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95" t="s">
+        <v>3</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+      <c r="H95" t="s">
+        <v>4</v>
+      </c>
+      <c r="I95">
+        <v>51</v>
+      </c>
+      <c r="K95">
+        <f>AVERAGE($G$1:G95)</f>
+        <v>-0.11578947368421053</v>
+      </c>
+      <c r="L95">
+        <f>AVERAGE($E$1:E95)</f>
+        <v>0.44210526315789472</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>0</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1</v>
+      </c>
+      <c r="D96" t="s">
+        <v>2</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96" t="s">
+        <v>3</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+      <c r="H96" t="s">
+        <v>4</v>
+      </c>
+      <c r="I96">
+        <v>54</v>
+      </c>
+      <c r="K96">
+        <f>AVERAGE($G$1:G96)</f>
+        <v>-0.10416666666666667</v>
+      </c>
+      <c r="L96">
+        <f>AVERAGE($E$1:E96)</f>
+        <v>0.44791666666666669</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>0</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1</v>
+      </c>
+      <c r="D97" t="s">
+        <v>2</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97" t="s">
+        <v>3</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="H97" t="s">
+        <v>4</v>
+      </c>
+      <c r="I97">
+        <v>49</v>
+      </c>
+      <c r="K97">
+        <f>AVERAGE($G$1:G97)</f>
+        <v>-9.2783505154639179E-2</v>
+      </c>
+      <c r="L97">
+        <f>AVERAGE($E$1:E97)</f>
+        <v>0.45360824742268041</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1</v>
+      </c>
+      <c r="D98" t="s">
+        <v>2</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98" t="s">
+        <v>3</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="H98" t="s">
+        <v>4</v>
+      </c>
+      <c r="I98">
+        <v>50</v>
+      </c>
+      <c r="K98">
+        <f>AVERAGE($G$1:G98)</f>
+        <v>-8.1632653061224483E-2</v>
+      </c>
+      <c r="L98">
+        <f>AVERAGE($E$1:E98)</f>
+        <v>0.45918367346938777</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>0</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1</v>
+      </c>
+      <c r="D99" t="s">
+        <v>2</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99" t="s">
+        <v>3</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+      <c r="H99" t="s">
+        <v>4</v>
+      </c>
+      <c r="I99">
+        <v>51</v>
+      </c>
+      <c r="K99">
+        <f>AVERAGE($G$1:G99)</f>
+        <v>-7.0707070707070704E-2</v>
+      </c>
+      <c r="L99">
+        <f>AVERAGE($E$1:E99)</f>
+        <v>0.46464646464646464</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>0</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1</v>
+      </c>
+      <c r="D100" t="s">
+        <v>2</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100" t="s">
+        <v>3</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+      <c r="H100" t="s">
+        <v>4</v>
+      </c>
+      <c r="I100">
+        <v>54</v>
+      </c>
+      <c r="K100">
+        <f>AVERAGE($G$1:G100)</f>
+        <v>-0.06</v>
+      </c>
+      <c r="L100">
+        <f>AVERAGE($E$1:E100)</f>
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
+      <c r="B101" t="s">
+        <v>0</v>
+      </c>
+      <c r="C101" t="s">
+        <v>1</v>
+      </c>
+      <c r="D101" t="s">
+        <v>2</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101" t="s">
+        <v>3</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+      <c r="H101" t="s">
+        <v>4</v>
+      </c>
+      <c r="I101">
+        <v>47</v>
+      </c>
+      <c r="K101">
+        <f>AVERAGE($G$1:G101)</f>
+        <v>-4.9504950495049507E-2</v>
+      </c>
+      <c r="L101">
+        <f>AVERAGE($E$1:E101)</f>
+        <v>0.47524752475247523</v>
       </c>
     </row>
   </sheetData>
